--- a/metadata/Metadata_eDNA_global_V4.xlsx
+++ b/metadata/Metadata_eDNA_global_V4.xlsx
@@ -9875,9 +9875,6 @@
     <t>SPY190410</t>
   </si>
   <si>
-    <t>SPY190404</t>
-  </si>
-  <si>
     <t>SPY190386</t>
   </si>
   <si>
@@ -11403,6 +11400,9 @@
   </si>
   <si>
     <t>167.75485</t>
+  </si>
+  <si>
+    <t>SPY190405</t>
   </si>
 </sst>
 </file>
@@ -12476,9 +12476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO1428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W660" sqref="W660"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A670" sqref="A670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70020,7 +70020,7 @@
         <v>3219</v>
       </c>
       <c r="B608" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="C608">
         <v>1</v>
@@ -70029,10 +70029,10 @@
         <v>43561</v>
       </c>
       <c r="E608" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="F608" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G608" t="s">
         <v>2520</v>
@@ -70041,7 +70041,7 @@
         <v>2521</v>
       </c>
       <c r="I608" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J608" s="172" t="s">
         <v>139</v>
@@ -70059,19 +70059,19 @@
         <v>143</v>
       </c>
       <c r="S608" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U608" t="s">
+        <v>3561</v>
+      </c>
+      <c r="V608" t="s">
         <v>3562</v>
-      </c>
-      <c r="V608" t="s">
-        <v>3563</v>
       </c>
       <c r="AL608" t="s">
         <v>50</v>
       </c>
       <c r="AM608" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="609" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70079,7 +70079,7 @@
         <v>3220</v>
       </c>
       <c r="B609" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="C609">
         <v>1</v>
@@ -70088,10 +70088,10 @@
         <v>43561</v>
       </c>
       <c r="E609" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="F609" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G609" t="s">
         <v>2520</v>
@@ -70100,7 +70100,7 @@
         <v>2521</v>
       </c>
       <c r="I609" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J609" s="172" t="s">
         <v>139</v>
@@ -70118,19 +70118,19 @@
         <v>219</v>
       </c>
       <c r="S609" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U609" t="s">
+        <v>3563</v>
+      </c>
+      <c r="V609" t="s">
         <v>3564</v>
-      </c>
-      <c r="V609" t="s">
-        <v>3565</v>
       </c>
       <c r="AL609" t="s">
         <v>50</v>
       </c>
       <c r="AM609" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="610" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70138,7 +70138,7 @@
         <v>3221</v>
       </c>
       <c r="B610" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="C610">
         <v>1</v>
@@ -70147,10 +70147,10 @@
         <v>43561</v>
       </c>
       <c r="E610" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="F610" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G610" t="s">
         <v>2520</v>
@@ -70159,7 +70159,7 @@
         <v>2521</v>
       </c>
       <c r="I610" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J610" s="172" t="s">
         <v>139</v>
@@ -70177,19 +70177,19 @@
         <v>80</v>
       </c>
       <c r="S610" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U610" t="s">
+        <v>3565</v>
+      </c>
+      <c r="V610" t="s">
         <v>3566</v>
-      </c>
-      <c r="V610" t="s">
-        <v>3567</v>
       </c>
       <c r="AL610" t="s">
         <v>50</v>
       </c>
       <c r="AM610" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="611" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70197,7 +70197,7 @@
         <v>3222</v>
       </c>
       <c r="B611" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="C611">
         <v>1</v>
@@ -70206,10 +70206,10 @@
         <v>43561</v>
       </c>
       <c r="E611" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="F611" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G611" t="s">
         <v>2520</v>
@@ -70218,7 +70218,7 @@
         <v>2521</v>
       </c>
       <c r="I611" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J611" s="172" t="s">
         <v>139</v>
@@ -70236,19 +70236,19 @@
         <v>214</v>
       </c>
       <c r="S611" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U611" t="s">
+        <v>3567</v>
+      </c>
+      <c r="V611" t="s">
         <v>3568</v>
-      </c>
-      <c r="V611" t="s">
-        <v>3569</v>
       </c>
       <c r="AL611" t="s">
         <v>50</v>
       </c>
       <c r="AM611" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="612" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70256,7 +70256,7 @@
         <v>3223</v>
       </c>
       <c r="B612" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="C612">
         <v>1</v>
@@ -70265,10 +70265,10 @@
         <v>43561</v>
       </c>
       <c r="E612" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="F612" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G612" t="s">
         <v>2520</v>
@@ -70277,7 +70277,7 @@
         <v>2521</v>
       </c>
       <c r="I612" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J612" s="172" t="s">
         <v>139</v>
@@ -70295,19 +70295,19 @@
         <v>197</v>
       </c>
       <c r="S612" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U612" t="s">
+        <v>3569</v>
+      </c>
+      <c r="V612" t="s">
         <v>3570</v>
-      </c>
-      <c r="V612" t="s">
-        <v>3571</v>
       </c>
       <c r="AL612" t="s">
         <v>50</v>
       </c>
       <c r="AM612" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="613" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70315,7 +70315,7 @@
         <v>3224</v>
       </c>
       <c r="B613" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="C613">
         <v>1</v>
@@ -70324,10 +70324,10 @@
         <v>43561</v>
       </c>
       <c r="E613" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="F613" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G613" t="s">
         <v>2520</v>
@@ -70336,7 +70336,7 @@
         <v>2521</v>
       </c>
       <c r="I613" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J613" s="172" t="s">
         <v>139</v>
@@ -70354,19 +70354,19 @@
         <v>175</v>
       </c>
       <c r="S613" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U613" t="s">
+        <v>3571</v>
+      </c>
+      <c r="V613" t="s">
         <v>3572</v>
-      </c>
-      <c r="V613" t="s">
-        <v>3573</v>
       </c>
       <c r="AL613" t="s">
         <v>50</v>
       </c>
       <c r="AM613" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="614" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70374,7 +70374,7 @@
         <v>3225</v>
       </c>
       <c r="B614" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="C614">
         <v>1</v>
@@ -70383,10 +70383,10 @@
         <v>43561</v>
       </c>
       <c r="E614" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="F614" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G614" t="s">
         <v>2520</v>
@@ -70395,7 +70395,7 @@
         <v>2521</v>
       </c>
       <c r="I614" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J614" s="172" t="s">
         <v>139</v>
@@ -70413,19 +70413,19 @@
         <v>210</v>
       </c>
       <c r="S614" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U614" t="s">
+        <v>3573</v>
+      </c>
+      <c r="V614" t="s">
         <v>3574</v>
-      </c>
-      <c r="V614" t="s">
-        <v>3575</v>
       </c>
       <c r="AL614" t="s">
         <v>50</v>
       </c>
       <c r="AM614" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="615" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70433,7 +70433,7 @@
         <v>3226</v>
       </c>
       <c r="B615" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="C615">
         <v>1</v>
@@ -70442,10 +70442,10 @@
         <v>43561</v>
       </c>
       <c r="E615" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="F615" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G615" t="s">
         <v>2520</v>
@@ -70454,7 +70454,7 @@
         <v>2521</v>
       </c>
       <c r="I615" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J615" s="172" t="s">
         <v>139</v>
@@ -70472,19 +70472,19 @@
         <v>149</v>
       </c>
       <c r="S615" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U615" t="s">
+        <v>3575</v>
+      </c>
+      <c r="V615" t="s">
         <v>3576</v>
-      </c>
-      <c r="V615" t="s">
-        <v>3577</v>
       </c>
       <c r="AL615" t="s">
         <v>50</v>
       </c>
       <c r="AM615" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="616" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70492,7 +70492,7 @@
         <v>3227</v>
       </c>
       <c r="B616" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="C616">
         <v>1</v>
@@ -70501,10 +70501,10 @@
         <v>43561</v>
       </c>
       <c r="E616" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="F616" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G616" t="s">
         <v>2520</v>
@@ -70513,7 +70513,7 @@
         <v>2521</v>
       </c>
       <c r="I616" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J616" s="172" t="s">
         <v>139</v>
@@ -70531,19 +70531,19 @@
         <v>122</v>
       </c>
       <c r="S616" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U616" t="s">
+        <v>3577</v>
+      </c>
+      <c r="V616" t="s">
         <v>3578</v>
-      </c>
-      <c r="V616" t="s">
-        <v>3579</v>
       </c>
       <c r="AL616" t="s">
         <v>50</v>
       </c>
       <c r="AM616" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="617" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70551,7 +70551,7 @@
         <v>3228</v>
       </c>
       <c r="B617" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="C617">
         <v>1</v>
@@ -70560,10 +70560,10 @@
         <v>43561</v>
       </c>
       <c r="E617" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="F617" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G617" t="s">
         <v>2520</v>
@@ -70572,7 +70572,7 @@
         <v>2521</v>
       </c>
       <c r="I617" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J617" s="172" t="s">
         <v>139</v>
@@ -70590,19 +70590,19 @@
         <v>210</v>
       </c>
       <c r="S617" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U617" t="s">
+        <v>3579</v>
+      </c>
+      <c r="V617" t="s">
         <v>3580</v>
-      </c>
-      <c r="V617" t="s">
-        <v>3581</v>
       </c>
       <c r="AL617" t="s">
         <v>50</v>
       </c>
       <c r="AM617" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="618" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70610,7 +70610,7 @@
         <v>3229</v>
       </c>
       <c r="B618" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="C618">
         <v>1</v>
@@ -70619,10 +70619,10 @@
         <v>43563</v>
       </c>
       <c r="E618" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="F618" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G618" t="s">
         <v>2520</v>
@@ -70631,7 +70631,7 @@
         <v>2521</v>
       </c>
       <c r="I618" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J618" s="172" t="s">
         <v>139</v>
@@ -70649,19 +70649,19 @@
         <v>187</v>
       </c>
       <c r="S618" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U618" t="s">
+        <v>3581</v>
+      </c>
+      <c r="V618" t="s">
         <v>3582</v>
-      </c>
-      <c r="V618" t="s">
-        <v>3583</v>
       </c>
       <c r="AL618" t="s">
         <v>50</v>
       </c>
       <c r="AM618" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="619" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70669,7 +70669,7 @@
         <v>3230</v>
       </c>
       <c r="B619" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="C619">
         <v>1</v>
@@ -70678,10 +70678,10 @@
         <v>43563</v>
       </c>
       <c r="E619" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="F619" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G619" t="s">
         <v>2520</v>
@@ -70690,7 +70690,7 @@
         <v>2521</v>
       </c>
       <c r="I619" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J619" s="172" t="s">
         <v>139</v>
@@ -70708,19 +70708,19 @@
         <v>95</v>
       </c>
       <c r="S619" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U619" t="s">
+        <v>3583</v>
+      </c>
+      <c r="V619" t="s">
         <v>3584</v>
-      </c>
-      <c r="V619" t="s">
-        <v>3585</v>
       </c>
       <c r="AL619" t="s">
         <v>50</v>
       </c>
       <c r="AM619" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="620" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70728,7 +70728,7 @@
         <v>3231</v>
       </c>
       <c r="B620" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="C620">
         <v>1</v>
@@ -70737,10 +70737,10 @@
         <v>43563</v>
       </c>
       <c r="E620" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="F620" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G620" t="s">
         <v>2520</v>
@@ -70749,7 +70749,7 @@
         <v>2521</v>
       </c>
       <c r="I620" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J620" s="172" t="s">
         <v>139</v>
@@ -70767,19 +70767,19 @@
         <v>175</v>
       </c>
       <c r="S620" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U620" t="s">
+        <v>3585</v>
+      </c>
+      <c r="V620" t="s">
         <v>3586</v>
-      </c>
-      <c r="V620" t="s">
-        <v>3587</v>
       </c>
       <c r="AL620" t="s">
         <v>50</v>
       </c>
       <c r="AM620" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="621" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70787,7 +70787,7 @@
         <v>3232</v>
       </c>
       <c r="B621" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="C621">
         <v>1</v>
@@ -70796,10 +70796,10 @@
         <v>43563</v>
       </c>
       <c r="E621" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="F621" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G621" t="s">
         <v>2520</v>
@@ -70808,7 +70808,7 @@
         <v>2521</v>
       </c>
       <c r="I621" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J621" s="172" t="s">
         <v>139</v>
@@ -70826,19 +70826,19 @@
         <v>148</v>
       </c>
       <c r="S621" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U621" t="s">
+        <v>3587</v>
+      </c>
+      <c r="V621" t="s">
         <v>3588</v>
-      </c>
-      <c r="V621" t="s">
-        <v>3589</v>
       </c>
       <c r="AL621" t="s">
         <v>50</v>
       </c>
       <c r="AM621" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="622" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70846,7 +70846,7 @@
         <v>3233</v>
       </c>
       <c r="B622" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="C622">
         <v>1</v>
@@ -70855,10 +70855,10 @@
         <v>43563</v>
       </c>
       <c r="E622" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="F622" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G622" t="s">
         <v>2520</v>
@@ -70867,7 +70867,7 @@
         <v>2521</v>
       </c>
       <c r="I622" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J622" s="172" t="s">
         <v>139</v>
@@ -70885,19 +70885,19 @@
         <v>160</v>
       </c>
       <c r="S622" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U622" t="s">
+        <v>3589</v>
+      </c>
+      <c r="V622" t="s">
         <v>3590</v>
-      </c>
-      <c r="V622" t="s">
-        <v>3591</v>
       </c>
       <c r="AL622" t="s">
         <v>50</v>
       </c>
       <c r="AM622" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="623" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70905,7 +70905,7 @@
         <v>3234</v>
       </c>
       <c r="B623" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="C623">
         <v>1</v>
@@ -70914,10 +70914,10 @@
         <v>43563</v>
       </c>
       <c r="E623" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="F623" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G623" t="s">
         <v>2520</v>
@@ -70926,7 +70926,7 @@
         <v>2521</v>
       </c>
       <c r="I623" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J623" s="172" t="s">
         <v>139</v>
@@ -70944,19 +70944,19 @@
         <v>218</v>
       </c>
       <c r="S623" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U623" t="s">
+        <v>3591</v>
+      </c>
+      <c r="V623" t="s">
         <v>3592</v>
-      </c>
-      <c r="V623" t="s">
-        <v>3593</v>
       </c>
       <c r="AL623" t="s">
         <v>50</v>
       </c>
       <c r="AM623" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="624" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -70964,7 +70964,7 @@
         <v>3235</v>
       </c>
       <c r="B624" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="C624">
         <v>1</v>
@@ -70973,10 +70973,10 @@
         <v>43563</v>
       </c>
       <c r="E624" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="F624" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G624" t="s">
         <v>2520</v>
@@ -70985,7 +70985,7 @@
         <v>2521</v>
       </c>
       <c r="I624" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J624" s="172" t="s">
         <v>139</v>
@@ -71003,19 +71003,19 @@
         <v>88</v>
       </c>
       <c r="S624" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U624" t="s">
+        <v>3593</v>
+      </c>
+      <c r="V624" t="s">
         <v>3594</v>
-      </c>
-      <c r="V624" t="s">
-        <v>3595</v>
       </c>
       <c r="AL624" t="s">
         <v>50</v>
       </c>
       <c r="AM624" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="625" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71023,7 +71023,7 @@
         <v>3236</v>
       </c>
       <c r="B625" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C625">
         <v>1</v>
@@ -71032,10 +71032,10 @@
         <v>43563</v>
       </c>
       <c r="E625" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F625" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G625" t="s">
         <v>2520</v>
@@ -71044,7 +71044,7 @@
         <v>2521</v>
       </c>
       <c r="I625" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J625" s="172" t="s">
         <v>139</v>
@@ -71062,19 +71062,19 @@
         <v>174</v>
       </c>
       <c r="S625" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U625" t="s">
+        <v>3595</v>
+      </c>
+      <c r="V625" t="s">
         <v>3596</v>
-      </c>
-      <c r="V625" t="s">
-        <v>3597</v>
       </c>
       <c r="AL625" t="s">
         <v>50</v>
       </c>
       <c r="AM625" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="626" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71082,7 +71082,7 @@
         <v>3237</v>
       </c>
       <c r="B626" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="C626">
         <v>1</v>
@@ -71091,10 +71091,10 @@
         <v>43564</v>
       </c>
       <c r="E626" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="F626" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G626" t="s">
         <v>2520</v>
@@ -71103,7 +71103,7 @@
         <v>2521</v>
       </c>
       <c r="I626" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J626" s="172" t="s">
         <v>139</v>
@@ -71121,19 +71121,19 @@
         <v>89</v>
       </c>
       <c r="S626" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U626" t="s">
+        <v>3597</v>
+      </c>
+      <c r="V626" t="s">
         <v>3598</v>
-      </c>
-      <c r="V626" t="s">
-        <v>3599</v>
       </c>
       <c r="AL626" t="s">
         <v>50</v>
       </c>
       <c r="AM626" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="627" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71141,7 +71141,7 @@
         <v>3238</v>
       </c>
       <c r="B627" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="C627">
         <v>1</v>
@@ -71150,10 +71150,10 @@
         <v>43564</v>
       </c>
       <c r="E627" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="F627" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G627" t="s">
         <v>2520</v>
@@ -71162,7 +71162,7 @@
         <v>2521</v>
       </c>
       <c r="I627" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J627" s="172" t="s">
         <v>139</v>
@@ -71180,19 +71180,19 @@
         <v>100</v>
       </c>
       <c r="S627" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U627" t="s">
+        <v>3599</v>
+      </c>
+      <c r="V627" t="s">
         <v>3600</v>
-      </c>
-      <c r="V627" t="s">
-        <v>3601</v>
       </c>
       <c r="AL627" t="s">
         <v>50</v>
       </c>
       <c r="AM627" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="628" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71200,7 +71200,7 @@
         <v>3239</v>
       </c>
       <c r="B628" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="C628">
         <v>1</v>
@@ -71209,7 +71209,7 @@
         <v>43564</v>
       </c>
       <c r="E628" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="G628" t="s">
         <v>2520</v>
@@ -71218,7 +71218,7 @@
         <v>2521</v>
       </c>
       <c r="I628" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J628" s="172" t="s">
         <v>139</v>
@@ -71237,16 +71237,16 @@
       </c>
       <c r="S628" s="174"/>
       <c r="U628" t="s">
+        <v>3599</v>
+      </c>
+      <c r="V628" t="s">
         <v>3600</v>
-      </c>
-      <c r="V628" t="s">
-        <v>3601</v>
       </c>
       <c r="AL628" t="s">
         <v>50</v>
       </c>
       <c r="AM628" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="629" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71254,7 +71254,7 @@
         <v>3240</v>
       </c>
       <c r="B629" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="C629">
         <v>1</v>
@@ -71263,7 +71263,7 @@
         <v>43564</v>
       </c>
       <c r="E629" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="G629" t="s">
         <v>2520</v>
@@ -71272,7 +71272,7 @@
         <v>2521</v>
       </c>
       <c r="I629" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J629" s="172" t="s">
         <v>139</v>
@@ -71291,16 +71291,16 @@
       </c>
       <c r="S629" s="174"/>
       <c r="U629" t="s">
+        <v>3599</v>
+      </c>
+      <c r="V629" t="s">
         <v>3600</v>
-      </c>
-      <c r="V629" t="s">
-        <v>3601</v>
       </c>
       <c r="AL629" t="s">
         <v>50</v>
       </c>
       <c r="AM629" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="630" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71308,7 +71308,7 @@
         <v>3241</v>
       </c>
       <c r="B630" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="C630">
         <v>1</v>
@@ -71317,10 +71317,10 @@
         <v>43572</v>
       </c>
       <c r="E630" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="F630" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G630" t="s">
         <v>2520</v>
@@ -71329,7 +71329,7 @@
         <v>2521</v>
       </c>
       <c r="I630" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J630" s="172" t="s">
         <v>139</v>
@@ -71347,19 +71347,19 @@
         <v>54</v>
       </c>
       <c r="S630" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U630" t="s">
+        <v>3601</v>
+      </c>
+      <c r="V630" t="s">
         <v>3602</v>
-      </c>
-      <c r="V630" t="s">
-        <v>3603</v>
       </c>
       <c r="AL630" t="s">
         <v>50</v>
       </c>
       <c r="AM630" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="631" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71367,7 +71367,7 @@
         <v>3242</v>
       </c>
       <c r="B631" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="C631">
         <v>1</v>
@@ -71376,10 +71376,10 @@
         <v>43572</v>
       </c>
       <c r="E631" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="F631" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G631" t="s">
         <v>2520</v>
@@ -71388,7 +71388,7 @@
         <v>2521</v>
       </c>
       <c r="I631" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J631" s="172" t="s">
         <v>139</v>
@@ -71406,19 +71406,19 @@
         <v>56</v>
       </c>
       <c r="S631" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U631" t="s">
+        <v>3603</v>
+      </c>
+      <c r="V631" t="s">
         <v>3604</v>
-      </c>
-      <c r="V631" t="s">
-        <v>3605</v>
       </c>
       <c r="AL631" t="s">
         <v>50</v>
       </c>
       <c r="AM631" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="632" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71426,7 +71426,7 @@
         <v>3243</v>
       </c>
       <c r="B632" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="C632">
         <v>1</v>
@@ -71435,10 +71435,10 @@
         <v>43572</v>
       </c>
       <c r="E632" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="F632" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G632" t="s">
         <v>2520</v>
@@ -71447,7 +71447,7 @@
         <v>2521</v>
       </c>
       <c r="I632" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J632" s="172" t="s">
         <v>139</v>
@@ -71465,19 +71465,19 @@
         <v>58</v>
       </c>
       <c r="S632" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U632" t="s">
+        <v>3605</v>
+      </c>
+      <c r="V632" t="s">
         <v>3606</v>
-      </c>
-      <c r="V632" t="s">
-        <v>3607</v>
       </c>
       <c r="AL632" t="s">
         <v>50</v>
       </c>
       <c r="AM632" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="633" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71485,7 +71485,7 @@
         <v>3244</v>
       </c>
       <c r="B633" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="C633">
         <v>1</v>
@@ -71494,10 +71494,10 @@
         <v>43572</v>
       </c>
       <c r="E633" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="F633" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G633" t="s">
         <v>2520</v>
@@ -71506,7 +71506,7 @@
         <v>2521</v>
       </c>
       <c r="I633" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J633" s="172" t="s">
         <v>139</v>
@@ -71524,19 +71524,19 @@
         <v>70</v>
       </c>
       <c r="S633" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U633" t="s">
+        <v>3607</v>
+      </c>
+      <c r="V633" t="s">
         <v>3608</v>
-      </c>
-      <c r="V633" t="s">
-        <v>3609</v>
       </c>
       <c r="AL633" t="s">
         <v>50</v>
       </c>
       <c r="AM633" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="634" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71544,7 +71544,7 @@
         <v>3245</v>
       </c>
       <c r="B634" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="C634">
         <v>1</v>
@@ -71553,10 +71553,10 @@
         <v>43572</v>
       </c>
       <c r="E634" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="F634" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G634" t="s">
         <v>2520</v>
@@ -71565,7 +71565,7 @@
         <v>2521</v>
       </c>
       <c r="I634" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J634" s="172" t="s">
         <v>139</v>
@@ -71583,19 +71583,19 @@
         <v>58</v>
       </c>
       <c r="S634" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U634" t="s">
+        <v>3609</v>
+      </c>
+      <c r="V634" t="s">
         <v>3610</v>
-      </c>
-      <c r="V634" t="s">
-        <v>3611</v>
       </c>
       <c r="AL634" t="s">
         <v>50</v>
       </c>
       <c r="AM634" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="635" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71603,7 +71603,7 @@
         <v>3246</v>
       </c>
       <c r="B635" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="C635">
         <v>1</v>
@@ -71612,10 +71612,10 @@
         <v>43621</v>
       </c>
       <c r="E635" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="F635" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G635" t="s">
         <v>2520</v>
@@ -71624,7 +71624,7 @@
         <v>2521</v>
       </c>
       <c r="I635" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J635" s="172" t="s">
         <v>139</v>
@@ -71642,19 +71642,19 @@
         <v>60</v>
       </c>
       <c r="S635" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U635" t="s">
+        <v>3611</v>
+      </c>
+      <c r="V635" t="s">
         <v>3612</v>
-      </c>
-      <c r="V635" t="s">
-        <v>3613</v>
       </c>
       <c r="AL635" t="s">
         <v>50</v>
       </c>
       <c r="AM635" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="636" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71662,7 +71662,7 @@
         <v>3247</v>
       </c>
       <c r="B636" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="C636">
         <v>1</v>
@@ -71671,10 +71671,10 @@
         <v>43621</v>
       </c>
       <c r="E636" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="F636" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G636" t="s">
         <v>2520</v>
@@ -71683,7 +71683,7 @@
         <v>2521</v>
       </c>
       <c r="I636" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J636" s="172" t="s">
         <v>139</v>
@@ -71701,19 +71701,19 @@
         <v>59</v>
       </c>
       <c r="S636" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U636" t="s">
+        <v>3613</v>
+      </c>
+      <c r="V636" t="s">
         <v>3614</v>
-      </c>
-      <c r="V636" t="s">
-        <v>3615</v>
       </c>
       <c r="AL636" t="s">
         <v>50</v>
       </c>
       <c r="AM636" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="637" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71721,7 +71721,7 @@
         <v>3248</v>
       </c>
       <c r="B637" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="C637">
         <v>1</v>
@@ -71730,10 +71730,10 @@
         <v>43621</v>
       </c>
       <c r="E637" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="F637" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G637" t="s">
         <v>2520</v>
@@ -71742,7 +71742,7 @@
         <v>2521</v>
       </c>
       <c r="I637" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J637" s="172" t="s">
         <v>139</v>
@@ -71760,19 +71760,19 @@
         <v>66</v>
       </c>
       <c r="S637" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U637" t="s">
+        <v>3615</v>
+      </c>
+      <c r="V637" t="s">
         <v>3616</v>
-      </c>
-      <c r="V637" t="s">
-        <v>3617</v>
       </c>
       <c r="AL637" t="s">
         <v>50</v>
       </c>
       <c r="AM637" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="638" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71780,7 +71780,7 @@
         <v>3249</v>
       </c>
       <c r="B638" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="C638">
         <v>1</v>
@@ -71789,10 +71789,10 @@
         <v>43621</v>
       </c>
       <c r="E638" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="F638" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G638" t="s">
         <v>2520</v>
@@ -71801,7 +71801,7 @@
         <v>2521</v>
       </c>
       <c r="I638" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J638" s="172" t="s">
         <v>139</v>
@@ -71819,19 +71819,19 @@
         <v>56.8</v>
       </c>
       <c r="S638" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U638" t="s">
+        <v>3617</v>
+      </c>
+      <c r="V638" t="s">
         <v>3618</v>
-      </c>
-      <c r="V638" t="s">
-        <v>3619</v>
       </c>
       <c r="AL638" t="s">
         <v>50</v>
       </c>
       <c r="AM638" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="639" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71839,7 +71839,7 @@
         <v>3250</v>
       </c>
       <c r="B639" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="C639">
         <v>1</v>
@@ -71848,10 +71848,10 @@
         <v>43621</v>
       </c>
       <c r="E639" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="F639" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G639" t="s">
         <v>2520</v>
@@ -71860,7 +71860,7 @@
         <v>2521</v>
       </c>
       <c r="I639" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J639" s="172" t="s">
         <v>139</v>
@@ -71878,19 +71878,19 @@
         <v>66</v>
       </c>
       <c r="S639" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U639" t="s">
+        <v>3619</v>
+      </c>
+      <c r="V639" t="s">
         <v>3620</v>
-      </c>
-      <c r="V639" t="s">
-        <v>3621</v>
       </c>
       <c r="AL639" t="s">
         <v>50</v>
       </c>
       <c r="AM639" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="640" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71898,7 +71898,7 @@
         <v>3251</v>
       </c>
       <c r="B640" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="C640">
         <v>1</v>
@@ -71907,10 +71907,10 @@
         <v>43624</v>
       </c>
       <c r="E640" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="F640" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G640" t="s">
         <v>2520</v>
@@ -71919,7 +71919,7 @@
         <v>2521</v>
       </c>
       <c r="I640" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J640" s="172" t="s">
         <v>139</v>
@@ -71937,19 +71937,19 @@
         <v>484</v>
       </c>
       <c r="S640" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U640" t="s">
+        <v>3621</v>
+      </c>
+      <c r="V640" t="s">
         <v>3622</v>
-      </c>
-      <c r="V640" t="s">
-        <v>3623</v>
       </c>
       <c r="AL640" t="s">
         <v>50</v>
       </c>
       <c r="AM640" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="641" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -71957,7 +71957,7 @@
         <v>3252</v>
       </c>
       <c r="B641" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="C641">
         <v>1</v>
@@ -71966,10 +71966,10 @@
         <v>43624</v>
       </c>
       <c r="E641" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="F641" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G641" t="s">
         <v>2520</v>
@@ -71978,7 +71978,7 @@
         <v>2521</v>
       </c>
       <c r="I641" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J641" s="172" t="s">
         <v>139</v>
@@ -71996,19 +71996,19 @@
         <v>486</v>
       </c>
       <c r="S641" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U641" t="s">
+        <v>3623</v>
+      </c>
+      <c r="V641" t="s">
         <v>3624</v>
-      </c>
-      <c r="V641" t="s">
-        <v>3625</v>
       </c>
       <c r="AL641" t="s">
         <v>50</v>
       </c>
       <c r="AM641" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="642" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72016,7 +72016,7 @@
         <v>3253</v>
       </c>
       <c r="B642" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="C642">
         <v>1</v>
@@ -72025,10 +72025,10 @@
         <v>43624</v>
       </c>
       <c r="E642" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="F642" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G642" t="s">
         <v>2520</v>
@@ -72037,7 +72037,7 @@
         <v>2521</v>
       </c>
       <c r="I642" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J642" s="172" t="s">
         <v>139</v>
@@ -72055,19 +72055,19 @@
         <v>488</v>
       </c>
       <c r="S642" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U642" t="s">
+        <v>3625</v>
+      </c>
+      <c r="V642" t="s">
         <v>3626</v>
-      </c>
-      <c r="V642" t="s">
-        <v>3627</v>
       </c>
       <c r="AL642" t="s">
         <v>50</v>
       </c>
       <c r="AM642" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="643" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72075,7 +72075,7 @@
         <v>3254</v>
       </c>
       <c r="B643" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="C643">
         <v>1</v>
@@ -72084,10 +72084,10 @@
         <v>43623</v>
       </c>
       <c r="E643" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="F643" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G643" t="s">
         <v>2520</v>
@@ -72096,7 +72096,7 @@
         <v>2521</v>
       </c>
       <c r="I643" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J643" s="172" t="s">
         <v>139</v>
@@ -72114,19 +72114,19 @@
         <v>485</v>
       </c>
       <c r="S643" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U643" t="s">
+        <v>3627</v>
+      </c>
+      <c r="V643" t="s">
         <v>3628</v>
-      </c>
-      <c r="V643" t="s">
-        <v>3629</v>
       </c>
       <c r="AL643" t="s">
         <v>50</v>
       </c>
       <c r="AM643" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="644" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72134,7 +72134,7 @@
         <v>3255</v>
       </c>
       <c r="B644" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="C644">
         <v>1</v>
@@ -72143,10 +72143,10 @@
         <v>43623</v>
       </c>
       <c r="E644" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="F644" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G644" t="s">
         <v>2520</v>
@@ -72155,7 +72155,7 @@
         <v>2521</v>
       </c>
       <c r="I644" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J644" s="172" t="s">
         <v>139</v>
@@ -72173,19 +72173,19 @@
         <v>484</v>
       </c>
       <c r="S644" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U644" t="s">
+        <v>3629</v>
+      </c>
+      <c r="V644" t="s">
         <v>3630</v>
-      </c>
-      <c r="V644" t="s">
-        <v>3631</v>
       </c>
       <c r="AL644" t="s">
         <v>50</v>
       </c>
       <c r="AM644" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="645" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72193,7 +72193,7 @@
         <v>3256</v>
       </c>
       <c r="B645" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="C645">
         <v>1</v>
@@ -72202,10 +72202,10 @@
         <v>43623</v>
       </c>
       <c r="E645" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="F645" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G645" t="s">
         <v>2520</v>
@@ -72214,7 +72214,7 @@
         <v>2521</v>
       </c>
       <c r="I645" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J645" s="172" t="s">
         <v>139</v>
@@ -72232,19 +72232,19 @@
         <v>471</v>
       </c>
       <c r="S645" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U645" t="s">
+        <v>3631</v>
+      </c>
+      <c r="V645" t="s">
         <v>3632</v>
-      </c>
-      <c r="V645" t="s">
-        <v>3633</v>
       </c>
       <c r="AL645" t="s">
         <v>50</v>
       </c>
       <c r="AM645" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="646" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72252,7 +72252,7 @@
         <v>3257</v>
       </c>
       <c r="B646" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="C646">
         <v>1</v>
@@ -72261,10 +72261,10 @@
         <v>43623</v>
       </c>
       <c r="E646" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="F646" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G646" t="s">
         <v>2520</v>
@@ -72273,7 +72273,7 @@
         <v>2521</v>
       </c>
       <c r="I646" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J646" s="172" t="s">
         <v>139</v>
@@ -72291,19 +72291,19 @@
         <v>469</v>
       </c>
       <c r="S646" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U646" t="s">
+        <v>3633</v>
+      </c>
+      <c r="V646" t="s">
         <v>3634</v>
-      </c>
-      <c r="V646" t="s">
-        <v>3635</v>
       </c>
       <c r="AL646" t="s">
         <v>50</v>
       </c>
       <c r="AM646" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="647" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72311,7 +72311,7 @@
         <v>3258</v>
       </c>
       <c r="B647" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="C647">
         <v>1</v>
@@ -72320,10 +72320,10 @@
         <v>43624</v>
       </c>
       <c r="E647" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="F647" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G647" t="s">
         <v>2520</v>
@@ -72332,7 +72332,7 @@
         <v>2521</v>
       </c>
       <c r="I647" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J647" s="172" t="s">
         <v>139</v>
@@ -72350,19 +72350,19 @@
         <v>477</v>
       </c>
       <c r="S647" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U647" t="s">
+        <v>3635</v>
+      </c>
+      <c r="V647" t="s">
         <v>3636</v>
-      </c>
-      <c r="V647" t="s">
-        <v>3637</v>
       </c>
       <c r="AL647" t="s">
         <v>50</v>
       </c>
       <c r="AM647" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="648" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72370,7 +72370,7 @@
         <v>3259</v>
       </c>
       <c r="B648" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="C648">
         <v>1</v>
@@ -72379,10 +72379,10 @@
         <v>43623</v>
       </c>
       <c r="E648" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="F648" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G648" t="s">
         <v>2520</v>
@@ -72391,7 +72391,7 @@
         <v>2521</v>
       </c>
       <c r="I648" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J648" s="172" t="s">
         <v>139</v>
@@ -72409,19 +72409,19 @@
         <v>481</v>
       </c>
       <c r="S648" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U648" t="s">
+        <v>3637</v>
+      </c>
+      <c r="V648" t="s">
         <v>3638</v>
-      </c>
-      <c r="V648" t="s">
-        <v>3639</v>
       </c>
       <c r="AL648" t="s">
         <v>50</v>
       </c>
       <c r="AM648" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="649" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72429,7 +72429,7 @@
         <v>3260</v>
       </c>
       <c r="B649" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="C649">
         <v>1</v>
@@ -72438,10 +72438,10 @@
         <v>43623</v>
       </c>
       <c r="E649" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="F649" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G649" t="s">
         <v>2520</v>
@@ -72450,7 +72450,7 @@
         <v>2521</v>
       </c>
       <c r="I649" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J649" s="172" t="s">
         <v>139</v>
@@ -72468,19 +72468,19 @@
         <v>479</v>
       </c>
       <c r="S649" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U649" t="s">
+        <v>3639</v>
+      </c>
+      <c r="V649" t="s">
         <v>3640</v>
-      </c>
-      <c r="V649" t="s">
-        <v>3641</v>
       </c>
       <c r="AL649" t="s">
         <v>50</v>
       </c>
       <c r="AM649" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="650" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72488,7 +72488,7 @@
         <v>3261</v>
       </c>
       <c r="B650" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="C650">
         <v>1</v>
@@ -72497,10 +72497,10 @@
         <v>43629</v>
       </c>
       <c r="E650" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="F650" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G650" t="s">
         <v>2520</v>
@@ -72509,7 +72509,7 @@
         <v>2521</v>
       </c>
       <c r="I650" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J650" s="172" t="s">
         <v>139</v>
@@ -72527,19 +72527,19 @@
         <v>259</v>
       </c>
       <c r="S650" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U650" t="s">
+        <v>3641</v>
+      </c>
+      <c r="V650" t="s">
         <v>3642</v>
-      </c>
-      <c r="V650" t="s">
-        <v>3643</v>
       </c>
       <c r="AL650" t="s">
         <v>50</v>
       </c>
       <c r="AM650" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="651" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72547,7 +72547,7 @@
         <v>3262</v>
       </c>
       <c r="B651" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="C651">
         <v>1</v>
@@ -72556,10 +72556,10 @@
         <v>43629</v>
       </c>
       <c r="E651" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="F651" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G651" t="s">
         <v>2520</v>
@@ -72568,7 +72568,7 @@
         <v>2521</v>
       </c>
       <c r="I651" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J651" s="172" t="s">
         <v>139</v>
@@ -72586,19 +72586,19 @@
         <v>246</v>
       </c>
       <c r="S651" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U651" t="s">
+        <v>3643</v>
+      </c>
+      <c r="V651" t="s">
         <v>3644</v>
-      </c>
-      <c r="V651" t="s">
-        <v>3645</v>
       </c>
       <c r="AL651" t="s">
         <v>50</v>
       </c>
       <c r="AM651" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="652" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72606,7 +72606,7 @@
         <v>3263</v>
       </c>
       <c r="B652" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="C652">
         <v>1</v>
@@ -72615,10 +72615,10 @@
         <v>43629</v>
       </c>
       <c r="E652" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="F652" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G652" t="s">
         <v>2520</v>
@@ -72627,7 +72627,7 @@
         <v>2521</v>
       </c>
       <c r="I652" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J652" s="172" t="s">
         <v>139</v>
@@ -72645,19 +72645,19 @@
         <v>242</v>
       </c>
       <c r="S652" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U652" t="s">
+        <v>3645</v>
+      </c>
+      <c r="V652" t="s">
         <v>3646</v>
-      </c>
-      <c r="V652" t="s">
-        <v>3647</v>
       </c>
       <c r="AL652" t="s">
         <v>50</v>
       </c>
       <c r="AM652" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="653" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72665,7 +72665,7 @@
         <v>3264</v>
       </c>
       <c r="B653" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="C653">
         <v>1</v>
@@ -72674,10 +72674,10 @@
         <v>43628</v>
       </c>
       <c r="E653" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="F653" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G653" t="s">
         <v>2520</v>
@@ -72686,7 +72686,7 @@
         <v>2521</v>
       </c>
       <c r="I653" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J653" s="172" t="s">
         <v>139</v>
@@ -72704,19 +72704,19 @@
         <v>284</v>
       </c>
       <c r="S653" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U653" t="s">
+        <v>3647</v>
+      </c>
+      <c r="V653" t="s">
         <v>3648</v>
-      </c>
-      <c r="V653" t="s">
-        <v>3649</v>
       </c>
       <c r="AL653" t="s">
         <v>50</v>
       </c>
       <c r="AM653" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="654" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72724,7 +72724,7 @@
         <v>3265</v>
       </c>
       <c r="B654" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="C654">
         <v>1</v>
@@ -72733,10 +72733,10 @@
         <v>43628</v>
       </c>
       <c r="E654" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="F654" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G654" t="s">
         <v>2520</v>
@@ -72745,7 +72745,7 @@
         <v>2521</v>
       </c>
       <c r="I654" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J654" s="172" t="s">
         <v>139</v>
@@ -72763,19 +72763,19 @@
         <v>264</v>
       </c>
       <c r="S654" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U654" t="s">
+        <v>3649</v>
+      </c>
+      <c r="V654" t="s">
         <v>3650</v>
-      </c>
-      <c r="V654" t="s">
-        <v>3651</v>
       </c>
       <c r="AL654" t="s">
         <v>50</v>
       </c>
       <c r="AM654" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="655" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72783,7 +72783,7 @@
         <v>3266</v>
       </c>
       <c r="B655" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="C655">
         <v>1</v>
@@ -72792,10 +72792,10 @@
         <v>43629</v>
       </c>
       <c r="E655" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="F655" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G655" t="s">
         <v>2520</v>
@@ -72804,7 +72804,7 @@
         <v>2521</v>
       </c>
       <c r="I655" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J655" s="172" t="s">
         <v>139</v>
@@ -72822,19 +72822,19 @@
         <v>253</v>
       </c>
       <c r="S655" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U655" t="s">
+        <v>3651</v>
+      </c>
+      <c r="V655" t="s">
         <v>3652</v>
-      </c>
-      <c r="V655" t="s">
-        <v>3653</v>
       </c>
       <c r="AL655" t="s">
         <v>50</v>
       </c>
       <c r="AM655" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="656" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72842,7 +72842,7 @@
         <v>3267</v>
       </c>
       <c r="B656" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="C656">
         <v>1</v>
@@ -72851,10 +72851,10 @@
         <v>43629</v>
       </c>
       <c r="E656" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="F656" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G656" t="s">
         <v>2520</v>
@@ -72863,7 +72863,7 @@
         <v>2521</v>
       </c>
       <c r="I656" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J656" s="172" t="s">
         <v>139</v>
@@ -72881,19 +72881,19 @@
         <v>260</v>
       </c>
       <c r="S656" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U656" t="s">
+        <v>3653</v>
+      </c>
+      <c r="V656" t="s">
         <v>3654</v>
-      </c>
-      <c r="V656" t="s">
-        <v>3655</v>
       </c>
       <c r="AL656" t="s">
         <v>50</v>
       </c>
       <c r="AM656" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="657" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72901,7 +72901,7 @@
         <v>3268</v>
       </c>
       <c r="B657" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="C657">
         <v>1</v>
@@ -72910,10 +72910,10 @@
         <v>43630</v>
       </c>
       <c r="E657" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="F657" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G657" t="s">
         <v>2520</v>
@@ -72922,7 +72922,7 @@
         <v>2521</v>
       </c>
       <c r="I657" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J657" s="172" t="s">
         <v>139</v>
@@ -72940,19 +72940,19 @@
         <v>268</v>
       </c>
       <c r="S657" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U657" t="s">
+        <v>3655</v>
+      </c>
+      <c r="V657" t="s">
         <v>3656</v>
-      </c>
-      <c r="V657" t="s">
-        <v>3657</v>
       </c>
       <c r="AL657" t="s">
         <v>50</v>
       </c>
       <c r="AM657" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="658" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -72960,7 +72960,7 @@
         <v>3269</v>
       </c>
       <c r="B658" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="C658">
         <v>1</v>
@@ -72969,10 +72969,10 @@
         <v>43629</v>
       </c>
       <c r="E658" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="F658" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G658" t="s">
         <v>2520</v>
@@ -72981,7 +72981,7 @@
         <v>2521</v>
       </c>
       <c r="I658" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J658" s="172" t="s">
         <v>139</v>
@@ -72999,19 +72999,19 @@
         <v>261</v>
       </c>
       <c r="S658" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U658" t="s">
+        <v>3657</v>
+      </c>
+      <c r="V658" t="s">
         <v>3658</v>
-      </c>
-      <c r="V658" t="s">
-        <v>3659</v>
       </c>
       <c r="AL658" t="s">
         <v>50</v>
       </c>
       <c r="AM658" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="659" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -73019,7 +73019,7 @@
         <v>3270</v>
       </c>
       <c r="B659" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="C659">
         <v>1</v>
@@ -73028,10 +73028,10 @@
         <v>43630</v>
       </c>
       <c r="E659" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="F659" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G659" t="s">
         <v>2520</v>
@@ -73040,7 +73040,7 @@
         <v>2521</v>
       </c>
       <c r="I659" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J659" s="172" t="s">
         <v>139</v>
@@ -73058,19 +73058,19 @@
         <v>313</v>
       </c>
       <c r="S659" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U659" t="s">
+        <v>3659</v>
+      </c>
+      <c r="V659" t="s">
         <v>3660</v>
-      </c>
-      <c r="V659" t="s">
-        <v>3661</v>
       </c>
       <c r="AL659" t="s">
         <v>50</v>
       </c>
       <c r="AM659" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="660" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -73078,7 +73078,7 @@
         <v>3271</v>
       </c>
       <c r="B660" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="C660">
         <v>1</v>
@@ -73087,10 +73087,10 @@
         <v>43635</v>
       </c>
       <c r="E660" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="F660" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G660" t="s">
         <v>2520</v>
@@ -73099,7 +73099,7 @@
         <v>2521</v>
       </c>
       <c r="I660" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J660" s="172" t="s">
         <v>139</v>
@@ -73117,19 +73117,19 @@
         <v>488</v>
       </c>
       <c r="S660" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U660" t="s">
+        <v>3788</v>
+      </c>
+      <c r="V660" t="s">
         <v>3789</v>
-      </c>
-      <c r="V660" t="s">
-        <v>3790</v>
       </c>
       <c r="AL660" t="s">
         <v>50</v>
       </c>
       <c r="AM660" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="661" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -73137,7 +73137,7 @@
         <v>3272</v>
       </c>
       <c r="B661" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="C661">
         <v>1</v>
@@ -73146,10 +73146,10 @@
         <v>43630</v>
       </c>
       <c r="E661" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="F661" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G661" t="s">
         <v>2520</v>
@@ -73158,7 +73158,7 @@
         <v>2521</v>
       </c>
       <c r="I661" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J661" s="172" t="s">
         <v>139</v>
@@ -73176,19 +73176,19 @@
         <v>488</v>
       </c>
       <c r="S661" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U661" t="s">
+        <v>3661</v>
+      </c>
+      <c r="V661" t="s">
         <v>3662</v>
-      </c>
-      <c r="V661" t="s">
-        <v>3663</v>
       </c>
       <c r="AL661" t="s">
         <v>50</v>
       </c>
       <c r="AM661" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="662" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -73196,7 +73196,7 @@
         <v>3273</v>
       </c>
       <c r="B662" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="C662">
         <v>1</v>
@@ -73205,10 +73205,10 @@
         <v>43631</v>
       </c>
       <c r="E662" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="F662" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G662" t="s">
         <v>2520</v>
@@ -73217,7 +73217,7 @@
         <v>2521</v>
       </c>
       <c r="I662" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J662" s="172" t="s">
         <v>139</v>
@@ -73235,19 +73235,19 @@
         <v>466</v>
       </c>
       <c r="S662" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U662" t="s">
+        <v>3663</v>
+      </c>
+      <c r="V662" t="s">
         <v>3664</v>
-      </c>
-      <c r="V662" t="s">
-        <v>3665</v>
       </c>
       <c r="AL662" t="s">
         <v>50</v>
       </c>
       <c r="AM662" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="663" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -73255,7 +73255,7 @@
         <v>3274</v>
       </c>
       <c r="B663" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="C663">
         <v>1</v>
@@ -73264,10 +73264,10 @@
         <v>43631</v>
       </c>
       <c r="E663" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="F663" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G663" t="s">
         <v>2520</v>
@@ -73276,7 +73276,7 @@
         <v>2521</v>
       </c>
       <c r="I663" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J663" s="172" t="s">
         <v>139</v>
@@ -73294,19 +73294,19 @@
         <v>484</v>
       </c>
       <c r="S663" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U663" t="s">
+        <v>3665</v>
+      </c>
+      <c r="V663" t="s">
         <v>3666</v>
-      </c>
-      <c r="V663" t="s">
-        <v>3667</v>
       </c>
       <c r="AL663" t="s">
         <v>50</v>
       </c>
       <c r="AM663" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="664" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -73314,7 +73314,7 @@
         <v>3275</v>
       </c>
       <c r="B664" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="C664">
         <v>1</v>
@@ -73323,10 +73323,10 @@
         <v>43631</v>
       </c>
       <c r="E664" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="F664" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G664" t="s">
         <v>2520</v>
@@ -73335,7 +73335,7 @@
         <v>2521</v>
       </c>
       <c r="I664" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J664" s="172" t="s">
         <v>139</v>
@@ -73353,19 +73353,19 @@
         <v>471</v>
       </c>
       <c r="S664" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U664" t="s">
+        <v>3667</v>
+      </c>
+      <c r="V664" t="s">
         <v>3668</v>
-      </c>
-      <c r="V664" t="s">
-        <v>3669</v>
       </c>
       <c r="AL664" t="s">
         <v>50</v>
       </c>
       <c r="AM664" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="665" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -73373,7 +73373,7 @@
         <v>3276</v>
       </c>
       <c r="B665" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="C665">
         <v>1</v>
@@ -73382,10 +73382,10 @@
         <v>43630</v>
       </c>
       <c r="E665" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="F665" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G665" t="s">
         <v>2520</v>
@@ -73394,7 +73394,7 @@
         <v>2521</v>
       </c>
       <c r="I665" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J665" s="172" t="s">
         <v>139</v>
@@ -73412,19 +73412,19 @@
         <v>476</v>
       </c>
       <c r="S665" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U665" t="s">
+        <v>3669</v>
+      </c>
+      <c r="V665" t="s">
         <v>3670</v>
-      </c>
-      <c r="V665" t="s">
-        <v>3671</v>
       </c>
       <c r="AL665" t="s">
         <v>50</v>
       </c>
       <c r="AM665" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="666" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -73432,7 +73432,7 @@
         <v>3277</v>
       </c>
       <c r="B666" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="C666">
         <v>1</v>
@@ -73441,10 +73441,10 @@
         <v>43630</v>
       </c>
       <c r="E666" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F666" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G666" t="s">
         <v>2520</v>
@@ -73453,7 +73453,7 @@
         <v>2521</v>
       </c>
       <c r="I666" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J666" s="172" t="s">
         <v>139</v>
@@ -73471,19 +73471,19 @@
         <v>486</v>
       </c>
       <c r="S666" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U666" t="s">
+        <v>3671</v>
+      </c>
+      <c r="V666" t="s">
         <v>3672</v>
-      </c>
-      <c r="V666" t="s">
-        <v>3673</v>
       </c>
       <c r="AL666" t="s">
         <v>50</v>
       </c>
       <c r="AM666" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="667" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -73491,7 +73491,7 @@
         <v>3278</v>
       </c>
       <c r="B667" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="C667">
         <v>1</v>
@@ -73500,10 +73500,10 @@
         <v>43630</v>
       </c>
       <c r="E667" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="F667" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G667" t="s">
         <v>2520</v>
@@ -73512,7 +73512,7 @@
         <v>2521</v>
       </c>
       <c r="I667" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J667" s="172" t="s">
         <v>139</v>
@@ -73530,19 +73530,19 @@
         <v>480</v>
       </c>
       <c r="S667" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U667" t="s">
+        <v>3673</v>
+      </c>
+      <c r="V667" t="s">
         <v>3674</v>
-      </c>
-      <c r="V667" t="s">
-        <v>3675</v>
       </c>
       <c r="AL667" t="s">
         <v>50</v>
       </c>
       <c r="AM667" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="668" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -73550,7 +73550,7 @@
         <v>3279</v>
       </c>
       <c r="B668" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="C668">
         <v>1</v>
@@ -73559,10 +73559,10 @@
         <v>43630</v>
       </c>
       <c r="E668" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="F668" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G668" t="s">
         <v>2520</v>
@@ -73571,7 +73571,7 @@
         <v>2521</v>
       </c>
       <c r="I668" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J668" s="172" t="s">
         <v>139</v>
@@ -73589,19 +73589,19 @@
         <v>439</v>
       </c>
       <c r="S668" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U668" t="s">
+        <v>3675</v>
+      </c>
+      <c r="V668" t="s">
         <v>3676</v>
-      </c>
-      <c r="V668" t="s">
-        <v>3677</v>
       </c>
       <c r="AL668" t="s">
         <v>50</v>
       </c>
       <c r="AM668" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="669" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -73609,7 +73609,7 @@
         <v>3280</v>
       </c>
       <c r="B669" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="C669">
         <v>1</v>
@@ -73618,10 +73618,10 @@
         <v>43630</v>
       </c>
       <c r="E669" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="F669" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G669" t="s">
         <v>2520</v>
@@ -73630,7 +73630,7 @@
         <v>2521</v>
       </c>
       <c r="I669" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J669" s="172" t="s">
         <v>139</v>
@@ -73648,27 +73648,27 @@
         <v>461</v>
       </c>
       <c r="S669" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U669" t="s">
+        <v>3677</v>
+      </c>
+      <c r="V669" t="s">
         <v>3678</v>
-      </c>
-      <c r="V669" t="s">
-        <v>3679</v>
       </c>
       <c r="AL669" t="s">
         <v>50</v>
       </c>
       <c r="AM669" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="670" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>3281</v>
+        <v>3790</v>
       </c>
       <c r="B670" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="C670">
         <v>1</v>
@@ -73677,10 +73677,10 @@
         <v>43633</v>
       </c>
       <c r="E670" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="F670" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G670" t="s">
         <v>2520</v>
@@ -73689,7 +73689,7 @@
         <v>2521</v>
       </c>
       <c r="I670" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J670" s="172" t="s">
         <v>139</v>
@@ -73707,27 +73707,27 @@
         <v>244</v>
       </c>
       <c r="S670" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U670" t="s">
+        <v>3679</v>
+      </c>
+      <c r="V670" t="s">
         <v>3680</v>
-      </c>
-      <c r="V670" t="s">
-        <v>3681</v>
       </c>
       <c r="AL670" t="s">
         <v>50</v>
       </c>
       <c r="AM670" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="671" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="B671" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="C671">
         <v>1</v>
@@ -73736,10 +73736,10 @@
         <v>43633</v>
       </c>
       <c r="E671" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="F671" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G671" t="s">
         <v>2520</v>
@@ -73748,7 +73748,7 @@
         <v>2521</v>
       </c>
       <c r="I671" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J671" s="172" t="s">
         <v>139</v>
@@ -73766,27 +73766,27 @@
         <v>312</v>
       </c>
       <c r="S671" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U671" t="s">
+        <v>3681</v>
+      </c>
+      <c r="V671" t="s">
         <v>3682</v>
-      </c>
-      <c r="V671" t="s">
-        <v>3683</v>
       </c>
       <c r="AL671" t="s">
         <v>50</v>
       </c>
       <c r="AM671" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="672" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B672" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -73795,10 +73795,10 @@
         <v>43632</v>
       </c>
       <c r="E672" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="F672" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G672" t="s">
         <v>2520</v>
@@ -73807,7 +73807,7 @@
         <v>2521</v>
       </c>
       <c r="I672" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J672" s="172" t="s">
         <v>139</v>
@@ -73825,27 +73825,27 @@
         <v>284</v>
       </c>
       <c r="S672" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U672" t="s">
+        <v>3683</v>
+      </c>
+      <c r="V672" t="s">
         <v>3684</v>
-      </c>
-      <c r="V672" t="s">
-        <v>3685</v>
       </c>
       <c r="AL672" t="s">
         <v>50</v>
       </c>
       <c r="AM672" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="673" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="B673" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="C673">
         <v>1</v>
@@ -73854,10 +73854,10 @@
         <v>43633</v>
       </c>
       <c r="E673" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F673" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G673" t="s">
         <v>2520</v>
@@ -73866,7 +73866,7 @@
         <v>2521</v>
       </c>
       <c r="I673" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J673" s="172" t="s">
         <v>139</v>
@@ -73884,27 +73884,27 @@
         <v>265</v>
       </c>
       <c r="S673" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U673" t="s">
+        <v>3685</v>
+      </c>
+      <c r="V673" t="s">
         <v>3686</v>
-      </c>
-      <c r="V673" t="s">
-        <v>3687</v>
       </c>
       <c r="AL673" t="s">
         <v>50</v>
       </c>
       <c r="AM673" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="674" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="B674" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C674">
         <v>1</v>
@@ -73913,10 +73913,10 @@
         <v>43633</v>
       </c>
       <c r="E674" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="F674" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G674" t="s">
         <v>2520</v>
@@ -73925,7 +73925,7 @@
         <v>2521</v>
       </c>
       <c r="I674" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J674" s="172" t="s">
         <v>139</v>
@@ -73943,27 +73943,27 @@
         <v>238</v>
       </c>
       <c r="S674" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U674" t="s">
+        <v>3687</v>
+      </c>
+      <c r="V674" t="s">
         <v>3688</v>
-      </c>
-      <c r="V674" t="s">
-        <v>3689</v>
       </c>
       <c r="AL674" t="s">
         <v>50</v>
       </c>
       <c r="AM674" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="675" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="B675" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="C675">
         <v>1</v>
@@ -73972,10 +73972,10 @@
         <v>43632</v>
       </c>
       <c r="E675" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="F675" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G675" t="s">
         <v>2520</v>
@@ -73984,7 +73984,7 @@
         <v>2521</v>
       </c>
       <c r="I675" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J675" s="172" t="s">
         <v>139</v>
@@ -74002,27 +74002,27 @@
         <v>242</v>
       </c>
       <c r="S675" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U675" t="s">
+        <v>3689</v>
+      </c>
+      <c r="V675" t="s">
         <v>3690</v>
-      </c>
-      <c r="V675" t="s">
-        <v>3691</v>
       </c>
       <c r="AL675" t="s">
         <v>50</v>
       </c>
       <c r="AM675" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="676" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="B676" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="C676">
         <v>1</v>
@@ -74031,10 +74031,10 @@
         <v>43632</v>
       </c>
       <c r="E676" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="F676" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G676" t="s">
         <v>2520</v>
@@ -74043,7 +74043,7 @@
         <v>2521</v>
       </c>
       <c r="I676" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J676" s="172" t="s">
         <v>139</v>
@@ -74061,27 +74061,27 @@
         <v>273</v>
       </c>
       <c r="S676" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U676" t="s">
+        <v>3691</v>
+      </c>
+      <c r="V676" t="s">
         <v>3692</v>
-      </c>
-      <c r="V676" t="s">
-        <v>3693</v>
       </c>
       <c r="AL676" t="s">
         <v>50</v>
       </c>
       <c r="AM676" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="677" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B677" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="C677">
         <v>1</v>
@@ -74090,10 +74090,10 @@
         <v>43632</v>
       </c>
       <c r="E677" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="F677" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G677" t="s">
         <v>2520</v>
@@ -74102,7 +74102,7 @@
         <v>2521</v>
       </c>
       <c r="I677" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J677" s="172" t="s">
         <v>139</v>
@@ -74120,27 +74120,27 @@
         <v>261</v>
       </c>
       <c r="S677" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U677" t="s">
+        <v>3693</v>
+      </c>
+      <c r="V677" t="s">
         <v>3694</v>
-      </c>
-      <c r="V677" t="s">
-        <v>3695</v>
       </c>
       <c r="AL677" t="s">
         <v>50</v>
       </c>
       <c r="AM677" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="678" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="B678" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="C678">
         <v>1</v>
@@ -74149,10 +74149,10 @@
         <v>43632</v>
       </c>
       <c r="E678" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="F678" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G678" t="s">
         <v>2520</v>
@@ -74161,7 +74161,7 @@
         <v>2521</v>
       </c>
       <c r="I678" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J678" s="172" t="s">
         <v>139</v>
@@ -74179,27 +74179,27 @@
         <v>325</v>
       </c>
       <c r="S678" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U678" t="s">
+        <v>3695</v>
+      </c>
+      <c r="V678" t="s">
         <v>3696</v>
-      </c>
-      <c r="V678" t="s">
-        <v>3697</v>
       </c>
       <c r="AL678" t="s">
         <v>50</v>
       </c>
       <c r="AM678" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="679" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="B679" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="C679">
         <v>1</v>
@@ -74208,10 +74208,10 @@
         <v>43632</v>
       </c>
       <c r="E679" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="F679" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G679" t="s">
         <v>2520</v>
@@ -74220,7 +74220,7 @@
         <v>2521</v>
       </c>
       <c r="I679" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J679" s="172" t="s">
         <v>139</v>
@@ -74238,27 +74238,27 @@
         <v>263</v>
       </c>
       <c r="S679" s="174" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="U679" t="s">
+        <v>3697</v>
+      </c>
+      <c r="V679" t="s">
         <v>3698</v>
-      </c>
-      <c r="V679" t="s">
-        <v>3699</v>
       </c>
       <c r="AL679" t="s">
         <v>50</v>
       </c>
       <c r="AM679" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="680" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="B680" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="C680">
         <v>1</v>
@@ -74267,10 +74267,10 @@
         <v>43560</v>
       </c>
       <c r="E680" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="F680" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G680" t="s">
         <v>2520</v>
@@ -74279,7 +74279,7 @@
         <v>2521</v>
       </c>
       <c r="I680" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J680" s="172" t="s">
         <v>139</v>
@@ -74297,27 +74297,27 @@
         <v>1000</v>
       </c>
       <c r="S680" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U680" t="s">
+        <v>3699</v>
+      </c>
+      <c r="V680" t="s">
         <v>3700</v>
-      </c>
-      <c r="V680" t="s">
-        <v>3701</v>
       </c>
       <c r="AL680" t="s">
         <v>50</v>
       </c>
       <c r="AM680" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="681" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="B681" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="C681">
         <v>1</v>
@@ -74326,10 +74326,10 @@
         <v>43560</v>
       </c>
       <c r="E681" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="F681" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G681" t="s">
         <v>2520</v>
@@ -74338,7 +74338,7 @@
         <v>2521</v>
       </c>
       <c r="I681" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J681" s="172" t="s">
         <v>139</v>
@@ -74356,27 +74356,27 @@
         <v>500</v>
       </c>
       <c r="S681" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U681" t="s">
+        <v>3699</v>
+      </c>
+      <c r="V681" t="s">
         <v>3700</v>
-      </c>
-      <c r="V681" t="s">
-        <v>3701</v>
       </c>
       <c r="AL681" t="s">
         <v>50</v>
       </c>
       <c r="AM681" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="682" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="B682" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="C682">
         <v>1</v>
@@ -74385,10 +74385,10 @@
         <v>43560</v>
       </c>
       <c r="E682" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G682" t="s">
         <v>2520</v>
@@ -74397,7 +74397,7 @@
         <v>2521</v>
       </c>
       <c r="I682" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J682" s="172" t="s">
         <v>139</v>
@@ -74415,27 +74415,27 @@
         <v>250</v>
       </c>
       <c r="S682" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U682" t="s">
+        <v>3699</v>
+      </c>
+      <c r="V682" t="s">
         <v>3700</v>
-      </c>
-      <c r="V682" t="s">
-        <v>3701</v>
       </c>
       <c r="AL682" t="s">
         <v>50</v>
       </c>
       <c r="AM682" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="683" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B683" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="C683">
         <v>1</v>
@@ -74444,10 +74444,10 @@
         <v>43560</v>
       </c>
       <c r="E683" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G683" t="s">
         <v>2520</v>
@@ -74456,7 +74456,7 @@
         <v>2521</v>
       </c>
       <c r="I683" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J683" s="172" t="s">
         <v>139</v>
@@ -74472,27 +74472,27 @@
         <v>150</v>
       </c>
       <c r="S683" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U683" t="s">
+        <v>3701</v>
+      </c>
+      <c r="V683" t="s">
         <v>3702</v>
-      </c>
-      <c r="V683" t="s">
-        <v>3703</v>
       </c>
       <c r="AL683" t="s">
         <v>50</v>
       </c>
       <c r="AM683" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="684" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="B684" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="C684">
         <v>1</v>
@@ -74501,10 +74501,10 @@
         <v>43560</v>
       </c>
       <c r="E684" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="F684" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G684" t="s">
         <v>2520</v>
@@ -74513,7 +74513,7 @@
         <v>2521</v>
       </c>
       <c r="I684" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J684" s="172" t="s">
         <v>139</v>
@@ -74529,27 +74529,27 @@
         <v>80</v>
       </c>
       <c r="S684" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U684" t="s">
+        <v>3701</v>
+      </c>
+      <c r="V684" t="s">
         <v>3702</v>
-      </c>
-      <c r="V684" t="s">
-        <v>3703</v>
       </c>
       <c r="AL684" t="s">
         <v>50</v>
       </c>
       <c r="AM684" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="685" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="B685" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="C685">
         <v>1</v>
@@ -74558,10 +74558,10 @@
         <v>43560</v>
       </c>
       <c r="E685" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G685" t="s">
         <v>2520</v>
@@ -74570,7 +74570,7 @@
         <v>2521</v>
       </c>
       <c r="I685" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J685" s="172" t="s">
         <v>139</v>
@@ -74586,27 +74586,27 @@
         <v>20</v>
       </c>
       <c r="S685" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U685" t="s">
+        <v>3701</v>
+      </c>
+      <c r="V685" t="s">
         <v>3702</v>
-      </c>
-      <c r="V685" t="s">
-        <v>3703</v>
       </c>
       <c r="AL685" t="s">
         <v>50</v>
       </c>
       <c r="AM685" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="686" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="B686" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="C686">
         <v>1</v>
@@ -74615,10 +74615,10 @@
         <v>43562</v>
       </c>
       <c r="E686" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G686" t="s">
         <v>2520</v>
@@ -74627,7 +74627,7 @@
         <v>2521</v>
       </c>
       <c r="I686" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J686" s="172" t="s">
         <v>139</v>
@@ -74645,27 +74645,27 @@
         <v>1000</v>
       </c>
       <c r="S686" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U686" t="s">
+        <v>3703</v>
+      </c>
+      <c r="V686" t="s">
         <v>3704</v>
-      </c>
-      <c r="V686" t="s">
-        <v>3705</v>
       </c>
       <c r="AL686" t="s">
         <v>50</v>
       </c>
       <c r="AM686" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="687" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="B687" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="C687">
         <v>1</v>
@@ -74674,10 +74674,10 @@
         <v>43562</v>
       </c>
       <c r="E687" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G687" t="s">
         <v>2520</v>
@@ -74686,7 +74686,7 @@
         <v>2521</v>
       </c>
       <c r="I687" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J687" s="172" t="s">
         <v>139</v>
@@ -74704,27 +74704,27 @@
         <v>500</v>
       </c>
       <c r="S687" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U687" t="s">
+        <v>3703</v>
+      </c>
+      <c r="V687" t="s">
         <v>3704</v>
-      </c>
-      <c r="V687" t="s">
-        <v>3705</v>
       </c>
       <c r="AL687" t="s">
         <v>50</v>
       </c>
       <c r="AM687" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="688" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="B688" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="C688">
         <v>1</v>
@@ -74733,10 +74733,10 @@
         <v>43562</v>
       </c>
       <c r="E688" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="F688" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G688" t="s">
         <v>2520</v>
@@ -74745,7 +74745,7 @@
         <v>2521</v>
       </c>
       <c r="I688" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J688" s="172" t="s">
         <v>139</v>
@@ -74763,27 +74763,27 @@
         <v>250</v>
       </c>
       <c r="S688" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U688" t="s">
+        <v>3703</v>
+      </c>
+      <c r="V688" t="s">
         <v>3704</v>
-      </c>
-      <c r="V688" t="s">
-        <v>3705</v>
       </c>
       <c r="AL688" t="s">
         <v>50</v>
       </c>
       <c r="AM688" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="689" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="B689" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="C689">
         <v>1</v>
@@ -74792,10 +74792,10 @@
         <v>43562</v>
       </c>
       <c r="E689" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G689" t="s">
         <v>2520</v>
@@ -74804,7 +74804,7 @@
         <v>2521</v>
       </c>
       <c r="I689" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J689" s="172" t="s">
         <v>139</v>
@@ -74822,27 +74822,27 @@
         <v>150</v>
       </c>
       <c r="S689" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U689" t="s">
+        <v>3705</v>
+      </c>
+      <c r="V689" t="s">
         <v>3706</v>
-      </c>
-      <c r="V689" t="s">
-        <v>3707</v>
       </c>
       <c r="AL689" t="s">
         <v>50</v>
       </c>
       <c r="AM689" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="690" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="B690" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="C690">
         <v>1</v>
@@ -74851,10 +74851,10 @@
         <v>43562</v>
       </c>
       <c r="E690" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G690" t="s">
         <v>2520</v>
@@ -74863,7 +74863,7 @@
         <v>2521</v>
       </c>
       <c r="I690" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J690" s="172" t="s">
         <v>139</v>
@@ -74881,27 +74881,27 @@
         <v>80</v>
       </c>
       <c r="S690" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U690" t="s">
+        <v>3705</v>
+      </c>
+      <c r="V690" t="s">
         <v>3706</v>
-      </c>
-      <c r="V690" t="s">
-        <v>3707</v>
       </c>
       <c r="AL690" t="s">
         <v>50</v>
       </c>
       <c r="AM690" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="691" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="B691" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="C691">
         <v>1</v>
@@ -74910,10 +74910,10 @@
         <v>43562</v>
       </c>
       <c r="E691" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="F691" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G691" t="s">
         <v>2520</v>
@@ -74922,7 +74922,7 @@
         <v>2521</v>
       </c>
       <c r="I691" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J691" s="172" t="s">
         <v>139</v>
@@ -74940,27 +74940,27 @@
         <v>20</v>
       </c>
       <c r="S691" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U691" t="s">
+        <v>3705</v>
+      </c>
+      <c r="V691" t="s">
         <v>3706</v>
-      </c>
-      <c r="V691" t="s">
-        <v>3707</v>
       </c>
       <c r="AL691" t="s">
         <v>50</v>
       </c>
       <c r="AM691" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="692" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="B692" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="C692">
         <v>1</v>
@@ -74969,10 +74969,10 @@
         <v>43564</v>
       </c>
       <c r="E692" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="F692" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G692" t="s">
         <v>2520</v>
@@ -74981,7 +74981,7 @@
         <v>2521</v>
       </c>
       <c r="I692" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J692" s="172" t="s">
         <v>139</v>
@@ -74999,27 +74999,27 @@
         <v>1000</v>
       </c>
       <c r="S692" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U692" t="s">
+        <v>3707</v>
+      </c>
+      <c r="V692" t="s">
         <v>3708</v>
-      </c>
-      <c r="V692" t="s">
-        <v>3709</v>
       </c>
       <c r="AL692" t="s">
         <v>50</v>
       </c>
       <c r="AM692" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="693" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="B693" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="C693">
         <v>1</v>
@@ -75028,10 +75028,10 @@
         <v>43564</v>
       </c>
       <c r="E693" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="F693" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G693" t="s">
         <v>2520</v>
@@ -75040,7 +75040,7 @@
         <v>2521</v>
       </c>
       <c r="I693" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J693" s="172" t="s">
         <v>139</v>
@@ -75058,27 +75058,27 @@
         <v>500</v>
       </c>
       <c r="S693" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U693" t="s">
+        <v>3707</v>
+      </c>
+      <c r="V693" t="s">
         <v>3708</v>
-      </c>
-      <c r="V693" t="s">
-        <v>3709</v>
       </c>
       <c r="AL693" t="s">
         <v>50</v>
       </c>
       <c r="AM693" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="694" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="B694" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="C694">
         <v>1</v>
@@ -75087,10 +75087,10 @@
         <v>43564</v>
       </c>
       <c r="E694" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="F694" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G694" t="s">
         <v>2520</v>
@@ -75099,7 +75099,7 @@
         <v>2521</v>
       </c>
       <c r="I694" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J694" s="172" t="s">
         <v>139</v>
@@ -75117,27 +75117,27 @@
         <v>250</v>
       </c>
       <c r="S694" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U694" t="s">
+        <v>3707</v>
+      </c>
+      <c r="V694" t="s">
         <v>3708</v>
-      </c>
-      <c r="V694" t="s">
-        <v>3709</v>
       </c>
       <c r="AL694" t="s">
         <v>50</v>
       </c>
       <c r="AM694" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="695" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="B695" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="C695">
         <v>1</v>
@@ -75146,10 +75146,10 @@
         <v>43564</v>
       </c>
       <c r="E695" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="F695" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G695" t="s">
         <v>2520</v>
@@ -75158,7 +75158,7 @@
         <v>2521</v>
       </c>
       <c r="I695" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J695" s="172" t="s">
         <v>139</v>
@@ -75176,27 +75176,27 @@
         <v>150</v>
       </c>
       <c r="S695" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U695" t="s">
+        <v>3709</v>
+      </c>
+      <c r="V695" t="s">
         <v>3710</v>
-      </c>
-      <c r="V695" t="s">
-        <v>3711</v>
       </c>
       <c r="AL695" t="s">
         <v>50</v>
       </c>
       <c r="AM695" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="696" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="B696" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="C696">
         <v>1</v>
@@ -75205,10 +75205,10 @@
         <v>43564</v>
       </c>
       <c r="E696" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="F696" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G696" t="s">
         <v>2520</v>
@@ -75217,7 +75217,7 @@
         <v>2521</v>
       </c>
       <c r="I696" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J696" s="172" t="s">
         <v>139</v>
@@ -75235,27 +75235,27 @@
         <v>80</v>
       </c>
       <c r="S696" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U696" t="s">
+        <v>3709</v>
+      </c>
+      <c r="V696" t="s">
         <v>3710</v>
-      </c>
-      <c r="V696" t="s">
-        <v>3711</v>
       </c>
       <c r="AL696" t="s">
         <v>50</v>
       </c>
       <c r="AM696" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="697" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B697" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="C697">
         <v>1</v>
@@ -75264,10 +75264,10 @@
         <v>43564</v>
       </c>
       <c r="E697" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="F697" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G697" t="s">
         <v>2520</v>
@@ -75276,7 +75276,7 @@
         <v>2521</v>
       </c>
       <c r="I697" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J697" s="172" t="s">
         <v>139</v>
@@ -75294,27 +75294,27 @@
         <v>20</v>
       </c>
       <c r="S697" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U697" t="s">
+        <v>3709</v>
+      </c>
+      <c r="V697" t="s">
         <v>3710</v>
-      </c>
-      <c r="V697" t="s">
-        <v>3711</v>
       </c>
       <c r="AL697" t="s">
         <v>50</v>
       </c>
       <c r="AM697" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="698" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="B698" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="C698">
         <v>1</v>
@@ -75323,10 +75323,10 @@
         <v>43564</v>
       </c>
       <c r="E698" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="F698" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G698" t="s">
         <v>2520</v>
@@ -75335,7 +75335,7 @@
         <v>2521</v>
       </c>
       <c r="I698" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J698" s="172" t="s">
         <v>139</v>
@@ -75353,27 +75353,27 @@
         <v>1000</v>
       </c>
       <c r="S698" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U698" t="s">
+        <v>3711</v>
+      </c>
+      <c r="V698" t="s">
         <v>3712</v>
-      </c>
-      <c r="V698" t="s">
-        <v>3713</v>
       </c>
       <c r="AL698" t="s">
         <v>50</v>
       </c>
       <c r="AM698" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="699" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="B699" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="C699">
         <v>1</v>
@@ -75382,10 +75382,10 @@
         <v>43564</v>
       </c>
       <c r="E699" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="F699" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G699" t="s">
         <v>2520</v>
@@ -75394,7 +75394,7 @@
         <v>2521</v>
       </c>
       <c r="I699" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J699" s="172" t="s">
         <v>139</v>
@@ -75412,27 +75412,27 @@
         <v>500</v>
       </c>
       <c r="S699" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U699" t="s">
+        <v>3711</v>
+      </c>
+      <c r="V699" t="s">
         <v>3712</v>
-      </c>
-      <c r="V699" t="s">
-        <v>3713</v>
       </c>
       <c r="AL699" t="s">
         <v>50</v>
       </c>
       <c r="AM699" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="700" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="B700" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="C700">
         <v>1</v>
@@ -75441,10 +75441,10 @@
         <v>43564</v>
       </c>
       <c r="E700" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="F700" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G700" t="s">
         <v>2520</v>
@@ -75453,7 +75453,7 @@
         <v>2521</v>
       </c>
       <c r="I700" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J700" s="172" t="s">
         <v>139</v>
@@ -75471,27 +75471,27 @@
         <v>250</v>
       </c>
       <c r="S700" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U700" t="s">
+        <v>3711</v>
+      </c>
+      <c r="V700" t="s">
         <v>3712</v>
-      </c>
-      <c r="V700" t="s">
-        <v>3713</v>
       </c>
       <c r="AL700" t="s">
         <v>50</v>
       </c>
       <c r="AM700" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="701" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="B701" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="C701">
         <v>1</v>
@@ -75500,10 +75500,10 @@
         <v>43564</v>
       </c>
       <c r="E701" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="F701" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G701" t="s">
         <v>2520</v>
@@ -75512,7 +75512,7 @@
         <v>2521</v>
       </c>
       <c r="I701" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J701" s="172" t="s">
         <v>139</v>
@@ -75530,27 +75530,27 @@
         <v>150</v>
       </c>
       <c r="S701" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U701" t="s">
+        <v>3713</v>
+      </c>
+      <c r="V701" t="s">
         <v>3714</v>
-      </c>
-      <c r="V701" t="s">
-        <v>3715</v>
       </c>
       <c r="AL701" t="s">
         <v>50</v>
       </c>
       <c r="AM701" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="702" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B702" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="C702">
         <v>1</v>
@@ -75559,10 +75559,10 @@
         <v>43564</v>
       </c>
       <c r="E702" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="F702" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G702" t="s">
         <v>2520</v>
@@ -75571,7 +75571,7 @@
         <v>2521</v>
       </c>
       <c r="I702" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J702" s="172" t="s">
         <v>139</v>
@@ -75589,27 +75589,27 @@
         <v>80</v>
       </c>
       <c r="S702" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U702" t="s">
+        <v>3713</v>
+      </c>
+      <c r="V702" t="s">
         <v>3714</v>
-      </c>
-      <c r="V702" t="s">
-        <v>3715</v>
       </c>
       <c r="AL702" t="s">
         <v>50</v>
       </c>
       <c r="AM702" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="703" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B703" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C703">
         <v>1</v>
@@ -75618,10 +75618,10 @@
         <v>43564</v>
       </c>
       <c r="E703" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="F703" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G703" t="s">
         <v>2520</v>
@@ -75630,7 +75630,7 @@
         <v>2521</v>
       </c>
       <c r="I703" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J703" s="172" t="s">
         <v>139</v>
@@ -75648,27 +75648,27 @@
         <v>20</v>
       </c>
       <c r="S703" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U703" t="s">
+        <v>3713</v>
+      </c>
+      <c r="V703" t="s">
         <v>3714</v>
-      </c>
-      <c r="V703" t="s">
-        <v>3715</v>
       </c>
       <c r="AL703" t="s">
         <v>50</v>
       </c>
       <c r="AM703" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="704" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B704" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="C704">
         <v>1</v>
@@ -75677,10 +75677,10 @@
         <v>43624</v>
       </c>
       <c r="E704" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="F704" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G704" t="s">
         <v>2520</v>
@@ -75689,7 +75689,7 @@
         <v>2521</v>
       </c>
       <c r="I704" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J704" s="172" t="s">
         <v>139</v>
@@ -75707,27 +75707,27 @@
         <v>1000</v>
       </c>
       <c r="S704" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U704" t="s">
+        <v>3715</v>
+      </c>
+      <c r="V704" t="s">
         <v>3716</v>
-      </c>
-      <c r="V704" t="s">
-        <v>3717</v>
       </c>
       <c r="AL704" t="s">
         <v>50</v>
       </c>
       <c r="AM704" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="705" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="B705" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="C705">
         <v>1</v>
@@ -75736,10 +75736,10 @@
         <v>43624</v>
       </c>
       <c r="E705" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="F705" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G705" t="s">
         <v>2520</v>
@@ -75748,7 +75748,7 @@
         <v>2521</v>
       </c>
       <c r="I705" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J705" s="172" t="s">
         <v>139</v>
@@ -75766,27 +75766,27 @@
         <v>500</v>
       </c>
       <c r="S705" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U705" t="s">
+        <v>3715</v>
+      </c>
+      <c r="V705" t="s">
         <v>3716</v>
-      </c>
-      <c r="V705" t="s">
-        <v>3717</v>
       </c>
       <c r="AL705" t="s">
         <v>50</v>
       </c>
       <c r="AM705" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="706" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="B706" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="C706">
         <v>1</v>
@@ -75795,10 +75795,10 @@
         <v>43624</v>
       </c>
       <c r="E706" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="F706" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G706" t="s">
         <v>2520</v>
@@ -75807,7 +75807,7 @@
         <v>2521</v>
       </c>
       <c r="I706" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J706" s="172" t="s">
         <v>139</v>
@@ -75825,27 +75825,27 @@
         <v>250</v>
       </c>
       <c r="S706" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U706" t="s">
+        <v>3715</v>
+      </c>
+      <c r="V706" t="s">
         <v>3716</v>
-      </c>
-      <c r="V706" t="s">
-        <v>3717</v>
       </c>
       <c r="AL706" t="s">
         <v>50</v>
       </c>
       <c r="AM706" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="707" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="B707" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="C707">
         <v>1</v>
@@ -75854,10 +75854,10 @@
         <v>43624</v>
       </c>
       <c r="E707" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="F707" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G707" t="s">
         <v>2520</v>
@@ -75866,7 +75866,7 @@
         <v>2521</v>
       </c>
       <c r="I707" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J707" s="172" t="s">
         <v>139</v>
@@ -75884,27 +75884,27 @@
         <v>150</v>
       </c>
       <c r="S707" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U707" t="s">
+        <v>3717</v>
+      </c>
+      <c r="V707" t="s">
         <v>3718</v>
-      </c>
-      <c r="V707" t="s">
-        <v>3719</v>
       </c>
       <c r="AL707" t="s">
         <v>50</v>
       </c>
       <c r="AM707" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="708" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="B708" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="C708">
         <v>1</v>
@@ -75913,10 +75913,10 @@
         <v>43624</v>
       </c>
       <c r="E708" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="F708" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G708" t="s">
         <v>2520</v>
@@ -75925,7 +75925,7 @@
         <v>2521</v>
       </c>
       <c r="I708" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J708" s="172" t="s">
         <v>139</v>
@@ -75943,27 +75943,27 @@
         <v>80</v>
       </c>
       <c r="S708" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U708" t="s">
+        <v>3717</v>
+      </c>
+      <c r="V708" t="s">
         <v>3718</v>
-      </c>
-      <c r="V708" t="s">
-        <v>3719</v>
       </c>
       <c r="AL708" t="s">
         <v>50</v>
       </c>
       <c r="AM708" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="709" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="B709" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="C709">
         <v>1</v>
@@ -75972,10 +75972,10 @@
         <v>43624</v>
       </c>
       <c r="E709" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="F709" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G709" t="s">
         <v>2520</v>
@@ -75984,7 +75984,7 @@
         <v>2521</v>
       </c>
       <c r="I709" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J709" s="172" t="s">
         <v>139</v>
@@ -76002,27 +76002,27 @@
         <v>20</v>
       </c>
       <c r="S709" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U709" t="s">
+        <v>3717</v>
+      </c>
+      <c r="V709" t="s">
         <v>3718</v>
-      </c>
-      <c r="V709" t="s">
-        <v>3719</v>
       </c>
       <c r="AL709" t="s">
         <v>50</v>
       </c>
       <c r="AM709" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="710" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="B710" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="C710">
         <v>1</v>
@@ -76031,10 +76031,10 @@
         <v>43624</v>
       </c>
       <c r="E710" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="F710" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G710" t="s">
         <v>2520</v>
@@ -76043,7 +76043,7 @@
         <v>2521</v>
       </c>
       <c r="I710" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J710" s="172" t="s">
         <v>139</v>
@@ -76061,27 +76061,27 @@
         <v>1000</v>
       </c>
       <c r="S710" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U710" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="V710" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="AL710" t="s">
         <v>50</v>
       </c>
       <c r="AM710" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="711" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="B711" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="C711">
         <v>1</v>
@@ -76090,10 +76090,10 @@
         <v>43624</v>
       </c>
       <c r="E711" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="F711" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G711" t="s">
         <v>2520</v>
@@ -76102,7 +76102,7 @@
         <v>2521</v>
       </c>
       <c r="I711" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J711" s="172" t="s">
         <v>139</v>
@@ -76120,27 +76120,27 @@
         <v>500</v>
       </c>
       <c r="S711" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U711" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="V711" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="AL711" t="s">
         <v>50</v>
       </c>
       <c r="AM711" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="712" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="B712" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="C712">
         <v>1</v>
@@ -76149,10 +76149,10 @@
         <v>43624</v>
       </c>
       <c r="E712" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="F712" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G712" t="s">
         <v>2520</v>
@@ -76161,7 +76161,7 @@
         <v>2521</v>
       </c>
       <c r="I712" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J712" s="172" t="s">
         <v>139</v>
@@ -76179,27 +76179,27 @@
         <v>250</v>
       </c>
       <c r="S712" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U712" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="V712" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="AL712" t="s">
         <v>50</v>
       </c>
       <c r="AM712" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="713" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="B713" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="C713">
         <v>1</v>
@@ -76208,10 +76208,10 @@
         <v>43624</v>
       </c>
       <c r="E713" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="F713" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G713" t="s">
         <v>2520</v>
@@ -76220,7 +76220,7 @@
         <v>2521</v>
       </c>
       <c r="I713" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J713" s="172" t="s">
         <v>139</v>
@@ -76238,27 +76238,27 @@
         <v>150</v>
       </c>
       <c r="S713" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U713" t="s">
+        <v>3720</v>
+      </c>
+      <c r="V713" t="s">
         <v>3721</v>
-      </c>
-      <c r="V713" t="s">
-        <v>3722</v>
       </c>
       <c r="AL713" t="s">
         <v>50</v>
       </c>
       <c r="AM713" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="714" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="B714" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="C714">
         <v>1</v>
@@ -76267,10 +76267,10 @@
         <v>43624</v>
       </c>
       <c r="E714" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="F714" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G714" t="s">
         <v>2520</v>
@@ -76279,7 +76279,7 @@
         <v>2521</v>
       </c>
       <c r="I714" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J714" s="172" t="s">
         <v>139</v>
@@ -76297,27 +76297,27 @@
         <v>80</v>
       </c>
       <c r="S714" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U714" t="s">
+        <v>3720</v>
+      </c>
+      <c r="V714" t="s">
         <v>3721</v>
-      </c>
-      <c r="V714" t="s">
-        <v>3722</v>
       </c>
       <c r="AL714" t="s">
         <v>50</v>
       </c>
       <c r="AM714" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="715" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="B715" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="C715">
         <v>1</v>
@@ -76326,10 +76326,10 @@
         <v>43624</v>
       </c>
       <c r="E715" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="F715" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G715" t="s">
         <v>2520</v>
@@ -76338,7 +76338,7 @@
         <v>2521</v>
       </c>
       <c r="I715" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J715" s="172" t="s">
         <v>139</v>
@@ -76356,27 +76356,27 @@
         <v>20</v>
       </c>
       <c r="S715" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U715" t="s">
+        <v>3720</v>
+      </c>
+      <c r="V715" t="s">
         <v>3721</v>
-      </c>
-      <c r="V715" t="s">
-        <v>3722</v>
       </c>
       <c r="AL715" t="s">
         <v>50</v>
       </c>
       <c r="AM715" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="716" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="B716" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="C716">
         <v>1</v>
@@ -76385,7 +76385,7 @@
         <v>43624</v>
       </c>
       <c r="E716" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="F716"/>
       <c r="G716" t="s">
@@ -76395,7 +76395,7 @@
         <v>2521</v>
       </c>
       <c r="I716" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J716" s="172" t="s">
         <v>139</v>
@@ -76415,15 +76415,15 @@
         <v>50</v>
       </c>
       <c r="AM716" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="717" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="B717" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="C717">
         <v>1</v>
@@ -76432,10 +76432,10 @@
         <v>43628</v>
       </c>
       <c r="E717" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="F717" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G717" t="s">
         <v>2520</v>
@@ -76444,7 +76444,7 @@
         <v>2521</v>
       </c>
       <c r="I717" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J717" s="172" t="s">
         <v>139</v>
@@ -76462,27 +76462,27 @@
         <v>1000</v>
       </c>
       <c r="S717" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U717" t="s">
+        <v>3722</v>
+      </c>
+      <c r="V717" t="s">
         <v>3723</v>
-      </c>
-      <c r="V717" t="s">
-        <v>3724</v>
       </c>
       <c r="AL717" t="s">
         <v>50</v>
       </c>
       <c r="AM717" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="718" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="B718" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="C718">
         <v>1</v>
@@ -76491,10 +76491,10 @@
         <v>43628</v>
       </c>
       <c r="E718" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="F718" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G718" t="s">
         <v>2520</v>
@@ -76503,7 +76503,7 @@
         <v>2521</v>
       </c>
       <c r="I718" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J718" s="172" t="s">
         <v>139</v>
@@ -76521,27 +76521,27 @@
         <v>500</v>
       </c>
       <c r="S718" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U718" t="s">
+        <v>3722</v>
+      </c>
+      <c r="V718" t="s">
         <v>3723</v>
-      </c>
-      <c r="V718" t="s">
-        <v>3724</v>
       </c>
       <c r="AL718" t="s">
         <v>50</v>
       </c>
       <c r="AM718" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="719" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="B719" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="C719">
         <v>1</v>
@@ -76550,10 +76550,10 @@
         <v>43628</v>
       </c>
       <c r="E719" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="F719" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G719" t="s">
         <v>2520</v>
@@ -76562,7 +76562,7 @@
         <v>2521</v>
       </c>
       <c r="I719" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J719" s="172" t="s">
         <v>139</v>
@@ -76580,27 +76580,27 @@
         <v>250</v>
       </c>
       <c r="S719" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U719" t="s">
+        <v>3722</v>
+      </c>
+      <c r="V719" t="s">
         <v>3723</v>
-      </c>
-      <c r="V719" t="s">
-        <v>3724</v>
       </c>
       <c r="AL719" t="s">
         <v>50</v>
       </c>
       <c r="AM719" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="720" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="B720" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="C720">
         <v>1</v>
@@ -76609,10 +76609,10 @@
         <v>43628</v>
       </c>
       <c r="E720" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="F720" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G720" t="s">
         <v>2520</v>
@@ -76621,7 +76621,7 @@
         <v>2521</v>
       </c>
       <c r="I720" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J720" s="172" t="s">
         <v>139</v>
@@ -76639,27 +76639,27 @@
         <v>150</v>
       </c>
       <c r="S720" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U720" t="s">
+        <v>3724</v>
+      </c>
+      <c r="V720" t="s">
         <v>3725</v>
-      </c>
-      <c r="V720" t="s">
-        <v>3726</v>
       </c>
       <c r="AL720" t="s">
         <v>50</v>
       </c>
       <c r="AM720" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="721" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="B721" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="C721">
         <v>1</v>
@@ -76668,10 +76668,10 @@
         <v>43628</v>
       </c>
       <c r="E721" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="F721" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G721" t="s">
         <v>2520</v>
@@ -76680,7 +76680,7 @@
         <v>2521</v>
       </c>
       <c r="I721" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J721" s="172" t="s">
         <v>139</v>
@@ -76698,27 +76698,27 @@
         <v>80</v>
       </c>
       <c r="S721" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U721" t="s">
+        <v>3724</v>
+      </c>
+      <c r="V721" t="s">
         <v>3725</v>
-      </c>
-      <c r="V721" t="s">
-        <v>3726</v>
       </c>
       <c r="AL721" t="s">
         <v>50</v>
       </c>
       <c r="AM721" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="722" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="B722" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="C722">
         <v>1</v>
@@ -76727,10 +76727,10 @@
         <v>43628</v>
       </c>
       <c r="E722" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="F722" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G722" t="s">
         <v>2520</v>
@@ -76739,7 +76739,7 @@
         <v>2521</v>
       </c>
       <c r="I722" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J722" s="172" t="s">
         <v>139</v>
@@ -76757,27 +76757,27 @@
         <v>20</v>
       </c>
       <c r="S722" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U722" t="s">
+        <v>3724</v>
+      </c>
+      <c r="V722" t="s">
         <v>3725</v>
-      </c>
-      <c r="V722" t="s">
-        <v>3726</v>
       </c>
       <c r="AL722" t="s">
         <v>50</v>
       </c>
       <c r="AM722" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="723" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="B723" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="C723">
         <v>1</v>
@@ -76786,10 +76786,10 @@
         <v>43628</v>
       </c>
       <c r="E723" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F723" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G723" t="s">
         <v>2520</v>
@@ -76798,7 +76798,7 @@
         <v>2521</v>
       </c>
       <c r="I723" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J723" s="172" t="s">
         <v>139</v>
@@ -76816,27 +76816,27 @@
         <v>1000</v>
       </c>
       <c r="S723" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U723" t="s">
+        <v>3726</v>
+      </c>
+      <c r="V723" t="s">
         <v>3727</v>
-      </c>
-      <c r="V723" t="s">
-        <v>3728</v>
       </c>
       <c r="AL723" t="s">
         <v>50</v>
       </c>
       <c r="AM723" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="724" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="B724" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="C724">
         <v>1</v>
@@ -76845,10 +76845,10 @@
         <v>43628</v>
       </c>
       <c r="E724" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F724" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G724" t="s">
         <v>2520</v>
@@ -76857,7 +76857,7 @@
         <v>2521</v>
       </c>
       <c r="I724" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J724" s="172" t="s">
         <v>139</v>
@@ -76875,27 +76875,27 @@
         <v>500</v>
       </c>
       <c r="S724" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U724" t="s">
+        <v>3726</v>
+      </c>
+      <c r="V724" t="s">
         <v>3727</v>
-      </c>
-      <c r="V724" t="s">
-        <v>3728</v>
       </c>
       <c r="AL724" t="s">
         <v>50</v>
       </c>
       <c r="AM724" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="725" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="B725" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="C725">
         <v>1</v>
@@ -76904,10 +76904,10 @@
         <v>43628</v>
       </c>
       <c r="E725" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F725" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G725" t="s">
         <v>2520</v>
@@ -76916,7 +76916,7 @@
         <v>2521</v>
       </c>
       <c r="I725" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J725" s="172" t="s">
         <v>139</v>
@@ -76934,27 +76934,27 @@
         <v>250</v>
       </c>
       <c r="S725" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U725" t="s">
+        <v>3726</v>
+      </c>
+      <c r="V725" t="s">
         <v>3727</v>
-      </c>
-      <c r="V725" t="s">
-        <v>3728</v>
       </c>
       <c r="AL725" t="s">
         <v>50</v>
       </c>
       <c r="AM725" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="726" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="B726" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="C726">
         <v>1</v>
@@ -76963,10 +76963,10 @@
         <v>43628</v>
       </c>
       <c r="E726" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F726" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G726" t="s">
         <v>2520</v>
@@ -76975,7 +76975,7 @@
         <v>2521</v>
       </c>
       <c r="I726" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J726" s="172" t="s">
         <v>139</v>
@@ -76993,27 +76993,27 @@
         <v>150</v>
       </c>
       <c r="S726" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U726" t="s">
+        <v>3728</v>
+      </c>
+      <c r="V726" t="s">
         <v>3729</v>
-      </c>
-      <c r="V726" t="s">
-        <v>3730</v>
       </c>
       <c r="AL726" t="s">
         <v>50</v>
       </c>
       <c r="AM726" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="727" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B727" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="C727">
         <v>1</v>
@@ -77022,10 +77022,10 @@
         <v>43628</v>
       </c>
       <c r="E727" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F727" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G727" t="s">
         <v>2520</v>
@@ -77034,7 +77034,7 @@
         <v>2521</v>
       </c>
       <c r="I727" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J727" s="172" t="s">
         <v>139</v>
@@ -77052,27 +77052,27 @@
         <v>80</v>
       </c>
       <c r="S727" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U727" t="s">
+        <v>3728</v>
+      </c>
+      <c r="V727" t="s">
         <v>3729</v>
-      </c>
-      <c r="V727" t="s">
-        <v>3730</v>
       </c>
       <c r="AL727" t="s">
         <v>50</v>
       </c>
       <c r="AM727" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="728" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="B728" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="C728">
         <v>1</v>
@@ -77081,10 +77081,10 @@
         <v>43628</v>
       </c>
       <c r="E728" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F728" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G728" t="s">
         <v>2520</v>
@@ -77093,7 +77093,7 @@
         <v>2521</v>
       </c>
       <c r="I728" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J728" s="172" t="s">
         <v>139</v>
@@ -77111,27 +77111,27 @@
         <v>20</v>
       </c>
       <c r="S728" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U728" t="s">
+        <v>3728</v>
+      </c>
+      <c r="V728" t="s">
         <v>3729</v>
-      </c>
-      <c r="V728" t="s">
-        <v>3730</v>
       </c>
       <c r="AL728" t="s">
         <v>50</v>
       </c>
       <c r="AM728" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="729" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="B729" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="C729">
         <v>1</v>
@@ -77140,7 +77140,7 @@
         <v>43628</v>
       </c>
       <c r="E729" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F729"/>
       <c r="G729" t="s">
@@ -77150,7 +77150,7 @@
         <v>2521</v>
       </c>
       <c r="I729" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J729" s="172" t="s">
         <v>139</v>
@@ -77170,15 +77170,15 @@
         <v>50</v>
       </c>
       <c r="AM729" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="730" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="B730" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="C730">
         <v>1</v>
@@ -77187,10 +77187,10 @@
         <v>43628</v>
       </c>
       <c r="E730" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="F730" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G730" t="s">
         <v>2520</v>
@@ -77199,7 +77199,7 @@
         <v>2521</v>
       </c>
       <c r="I730" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J730" s="172" t="s">
         <v>139</v>
@@ -77217,27 +77217,27 @@
         <v>1000</v>
       </c>
       <c r="S730" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U730" t="s">
+        <v>3730</v>
+      </c>
+      <c r="V730" t="s">
         <v>3731</v>
-      </c>
-      <c r="V730" t="s">
-        <v>3732</v>
       </c>
       <c r="AL730" t="s">
         <v>50</v>
       </c>
       <c r="AM730" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="731" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="B731" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="C731">
         <v>1</v>
@@ -77246,10 +77246,10 @@
         <v>43628</v>
       </c>
       <c r="E731" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="F731" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G731" t="s">
         <v>2520</v>
@@ -77258,7 +77258,7 @@
         <v>2521</v>
       </c>
       <c r="I731" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J731" s="172" t="s">
         <v>139</v>
@@ -77276,27 +77276,27 @@
         <v>500</v>
       </c>
       <c r="S731" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U731" t="s">
+        <v>3732</v>
+      </c>
+      <c r="V731" t="s">
         <v>3733</v>
-      </c>
-      <c r="V731" t="s">
-        <v>3734</v>
       </c>
       <c r="AL731" t="s">
         <v>50</v>
       </c>
       <c r="AM731" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="732" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="B732" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="C732">
         <v>1</v>
@@ -77305,10 +77305,10 @@
         <v>43628</v>
       </c>
       <c r="E732" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="F732" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G732" t="s">
         <v>2520</v>
@@ -77317,7 +77317,7 @@
         <v>2521</v>
       </c>
       <c r="I732" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J732" s="172" t="s">
         <v>139</v>
@@ -77335,27 +77335,27 @@
         <v>250</v>
       </c>
       <c r="S732" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U732" t="s">
+        <v>3734</v>
+      </c>
+      <c r="V732" t="s">
         <v>3735</v>
-      </c>
-      <c r="V732" t="s">
-        <v>3736</v>
       </c>
       <c r="AL732" t="s">
         <v>50</v>
       </c>
       <c r="AM732" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="733" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="B733" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="C733">
         <v>1</v>
@@ -77364,10 +77364,10 @@
         <v>43628</v>
       </c>
       <c r="E733" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="F733" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G733" t="s">
         <v>2520</v>
@@ -77376,7 +77376,7 @@
         <v>2521</v>
       </c>
       <c r="I733" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J733" s="172" t="s">
         <v>139</v>
@@ -77394,27 +77394,27 @@
         <v>150</v>
       </c>
       <c r="S733" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U733" t="s">
+        <v>3736</v>
+      </c>
+      <c r="V733" t="s">
         <v>3737</v>
-      </c>
-      <c r="V733" t="s">
-        <v>3738</v>
       </c>
       <c r="AL733" t="s">
         <v>50</v>
       </c>
       <c r="AM733" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="734" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B734" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="C734">
         <v>1</v>
@@ -77423,10 +77423,10 @@
         <v>43628</v>
       </c>
       <c r="E734" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="F734" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G734" t="s">
         <v>2520</v>
@@ -77435,7 +77435,7 @@
         <v>2521</v>
       </c>
       <c r="I734" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J734" s="172" t="s">
         <v>139</v>
@@ -77453,27 +77453,27 @@
         <v>80</v>
       </c>
       <c r="S734" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U734" t="s">
+        <v>3738</v>
+      </c>
+      <c r="V734" t="s">
         <v>3739</v>
-      </c>
-      <c r="V734" t="s">
-        <v>3740</v>
       </c>
       <c r="AL734" t="s">
         <v>50</v>
       </c>
       <c r="AM734" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="735" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="B735" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="C735">
         <v>1</v>
@@ -77482,10 +77482,10 @@
         <v>43628</v>
       </c>
       <c r="E735" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="F735" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G735" t="s">
         <v>2520</v>
@@ -77494,7 +77494,7 @@
         <v>2521</v>
       </c>
       <c r="I735" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J735" s="172" t="s">
         <v>139</v>
@@ -77512,27 +77512,27 @@
         <v>20</v>
       </c>
       <c r="S735" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U735" t="s">
+        <v>3740</v>
+      </c>
+      <c r="V735" t="s">
         <v>3741</v>
-      </c>
-      <c r="V735" t="s">
-        <v>3742</v>
       </c>
       <c r="AL735" t="s">
         <v>50</v>
       </c>
       <c r="AM735" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="736" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="B736" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="C736">
         <v>1</v>
@@ -77541,10 +77541,10 @@
         <v>43630</v>
       </c>
       <c r="E736" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="F736" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G736" t="s">
         <v>2520</v>
@@ -77553,7 +77553,7 @@
         <v>2521</v>
       </c>
       <c r="I736" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J736" s="172" t="s">
         <v>139</v>
@@ -77571,27 +77571,27 @@
         <v>1000</v>
       </c>
       <c r="S736" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U736" t="s">
+        <v>3742</v>
+      </c>
+      <c r="V736" t="s">
         <v>3743</v>
-      </c>
-      <c r="V736" t="s">
-        <v>3744</v>
       </c>
       <c r="AL736" t="s">
         <v>50</v>
       </c>
       <c r="AM736" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="737" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="B737" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="C737">
         <v>1</v>
@@ -77600,10 +77600,10 @@
         <v>43630</v>
       </c>
       <c r="E737" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="F737" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G737" t="s">
         <v>2520</v>
@@ -77612,7 +77612,7 @@
         <v>2521</v>
       </c>
       <c r="I737" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J737" s="172" t="s">
         <v>139</v>
@@ -77630,27 +77630,27 @@
         <v>500</v>
       </c>
       <c r="S737" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U737" t="s">
+        <v>3744</v>
+      </c>
+      <c r="V737" t="s">
         <v>3745</v>
-      </c>
-      <c r="V737" t="s">
-        <v>3746</v>
       </c>
       <c r="AL737" t="s">
         <v>50</v>
       </c>
       <c r="AM737" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="738" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="B738" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="C738">
         <v>1</v>
@@ -77659,10 +77659,10 @@
         <v>43630</v>
       </c>
       <c r="E738" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="F738" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G738" t="s">
         <v>2520</v>
@@ -77671,7 +77671,7 @@
         <v>2521</v>
       </c>
       <c r="I738" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J738" s="172" t="s">
         <v>139</v>
@@ -77689,27 +77689,27 @@
         <v>250</v>
       </c>
       <c r="S738" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U738" t="s">
+        <v>3746</v>
+      </c>
+      <c r="V738" t="s">
         <v>3747</v>
-      </c>
-      <c r="V738" t="s">
-        <v>3748</v>
       </c>
       <c r="AL738" t="s">
         <v>50</v>
       </c>
       <c r="AM738" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="739" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="B739" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="C739">
         <v>1</v>
@@ -77718,10 +77718,10 @@
         <v>43630</v>
       </c>
       <c r="E739" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="F739" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G739" t="s">
         <v>2520</v>
@@ -77730,7 +77730,7 @@
         <v>2521</v>
       </c>
       <c r="I739" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J739" s="172" t="s">
         <v>139</v>
@@ -77748,27 +77748,27 @@
         <v>150</v>
       </c>
       <c r="S739" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U739" t="s">
+        <v>3748</v>
+      </c>
+      <c r="V739" t="s">
         <v>3749</v>
-      </c>
-      <c r="V739" t="s">
-        <v>3750</v>
       </c>
       <c r="AL739" t="s">
         <v>50</v>
       </c>
       <c r="AM739" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="740" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="B740" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="C740">
         <v>1</v>
@@ -77777,10 +77777,10 @@
         <v>43630</v>
       </c>
       <c r="E740" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="F740" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G740" t="s">
         <v>2520</v>
@@ -77789,7 +77789,7 @@
         <v>2521</v>
       </c>
       <c r="I740" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J740" s="172" t="s">
         <v>139</v>
@@ -77807,27 +77807,27 @@
         <v>80</v>
       </c>
       <c r="S740" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U740" t="s">
+        <v>3750</v>
+      </c>
+      <c r="V740" t="s">
         <v>3751</v>
-      </c>
-      <c r="V740" t="s">
-        <v>3752</v>
       </c>
       <c r="AL740" t="s">
         <v>50</v>
       </c>
       <c r="AM740" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="741" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="B741" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="C741">
         <v>1</v>
@@ -77836,10 +77836,10 @@
         <v>43630</v>
       </c>
       <c r="E741" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="F741" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G741" t="s">
         <v>2520</v>
@@ -77848,7 +77848,7 @@
         <v>2521</v>
       </c>
       <c r="I741" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J741" s="172" t="s">
         <v>139</v>
@@ -77866,27 +77866,27 @@
         <v>20</v>
       </c>
       <c r="S741" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U741" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="V741" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="AL741" t="s">
         <v>50</v>
       </c>
       <c r="AM741" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="742" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="B742" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="C742">
         <v>1</v>
@@ -77895,7 +77895,7 @@
         <v>43630</v>
       </c>
       <c r="E742" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="F742"/>
       <c r="G742" t="s">
@@ -77905,7 +77905,7 @@
         <v>2521</v>
       </c>
       <c r="I742" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J742" s="172" t="s">
         <v>139</v>
@@ -77925,15 +77925,15 @@
         <v>50</v>
       </c>
       <c r="AM742" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="743" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="B743" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="C743">
         <v>1</v>
@@ -77942,10 +77942,10 @@
         <v>43631</v>
       </c>
       <c r="E743" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="F743" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G743" t="s">
         <v>2520</v>
@@ -77954,7 +77954,7 @@
         <v>2521</v>
       </c>
       <c r="I743" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J743" s="172" t="s">
         <v>139</v>
@@ -77972,27 +77972,27 @@
         <v>1000</v>
       </c>
       <c r="S743" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U743" t="s">
+        <v>3753</v>
+      </c>
+      <c r="V743" t="s">
         <v>3754</v>
-      </c>
-      <c r="V743" t="s">
-        <v>3755</v>
       </c>
       <c r="AL743" t="s">
         <v>50</v>
       </c>
       <c r="AM743" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="744" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="B744" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="C744">
         <v>1</v>
@@ -78001,10 +78001,10 @@
         <v>43631</v>
       </c>
       <c r="E744" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="F744" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G744" t="s">
         <v>2520</v>
@@ -78013,7 +78013,7 @@
         <v>2521</v>
       </c>
       <c r="I744" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J744" s="172" t="s">
         <v>139</v>
@@ -78031,27 +78031,27 @@
         <v>500</v>
       </c>
       <c r="S744" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U744" t="s">
+        <v>3755</v>
+      </c>
+      <c r="V744" t="s">
         <v>3756</v>
-      </c>
-      <c r="V744" t="s">
-        <v>3757</v>
       </c>
       <c r="AL744" t="s">
         <v>50</v>
       </c>
       <c r="AM744" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="745" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="B745" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="C745">
         <v>1</v>
@@ -78060,10 +78060,10 @@
         <v>43631</v>
       </c>
       <c r="E745" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="F745" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G745" t="s">
         <v>2520</v>
@@ -78072,7 +78072,7 @@
         <v>2521</v>
       </c>
       <c r="I745" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J745" s="172" t="s">
         <v>139</v>
@@ -78090,27 +78090,27 @@
         <v>250</v>
       </c>
       <c r="S745" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U745" t="s">
+        <v>3757</v>
+      </c>
+      <c r="V745" t="s">
         <v>3758</v>
-      </c>
-      <c r="V745" t="s">
-        <v>3759</v>
       </c>
       <c r="AL745" t="s">
         <v>50</v>
       </c>
       <c r="AM745" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="746" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="B746" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="C746">
         <v>1</v>
@@ -78119,10 +78119,10 @@
         <v>43631</v>
       </c>
       <c r="E746" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="F746" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G746" t="s">
         <v>2520</v>
@@ -78131,7 +78131,7 @@
         <v>2521</v>
       </c>
       <c r="I746" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J746" s="172" t="s">
         <v>139</v>
@@ -78149,27 +78149,27 @@
         <v>150</v>
       </c>
       <c r="S746" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U746" t="s">
+        <v>3759</v>
+      </c>
+      <c r="V746" t="s">
         <v>3760</v>
-      </c>
-      <c r="V746" t="s">
-        <v>3761</v>
       </c>
       <c r="AL746" t="s">
         <v>50</v>
       </c>
       <c r="AM746" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="747" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="B747" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="C747">
         <v>1</v>
@@ -78178,10 +78178,10 @@
         <v>43631</v>
       </c>
       <c r="E747" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="F747" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G747" t="s">
         <v>2520</v>
@@ -78190,7 +78190,7 @@
         <v>2521</v>
       </c>
       <c r="I747" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J747" s="172" t="s">
         <v>139</v>
@@ -78208,27 +78208,27 @@
         <v>80</v>
       </c>
       <c r="S747" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U747" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="V747" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="AL747" t="s">
         <v>50</v>
       </c>
       <c r="AM747" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="748" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="B748" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="C748">
         <v>1</v>
@@ -78237,10 +78237,10 @@
         <v>43631</v>
       </c>
       <c r="E748" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="F748" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G748" t="s">
         <v>2520</v>
@@ -78249,7 +78249,7 @@
         <v>2521</v>
       </c>
       <c r="I748" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J748" s="172" t="s">
         <v>139</v>
@@ -78267,27 +78267,27 @@
         <v>20</v>
       </c>
       <c r="S748" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U748" t="s">
+        <v>3762</v>
+      </c>
+      <c r="V748" t="s">
         <v>3763</v>
-      </c>
-      <c r="V748" t="s">
-        <v>3764</v>
       </c>
       <c r="AL748" t="s">
         <v>50</v>
       </c>
       <c r="AM748" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="749" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="B749" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="C749">
         <v>1</v>
@@ -78296,10 +78296,10 @@
         <v>43635</v>
       </c>
       <c r="E749" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="F749" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G749" t="s">
         <v>2520</v>
@@ -78308,7 +78308,7 @@
         <v>2521</v>
       </c>
       <c r="I749" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J749" s="172" t="s">
         <v>139</v>
@@ -78326,27 +78326,27 @@
         <v>1000</v>
       </c>
       <c r="S749" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U749" t="s">
+        <v>3764</v>
+      </c>
+      <c r="V749" t="s">
         <v>3765</v>
-      </c>
-      <c r="V749" t="s">
-        <v>3766</v>
       </c>
       <c r="AL749" t="s">
         <v>50</v>
       </c>
       <c r="AM749" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="750" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="B750" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="C750">
         <v>1</v>
@@ -78355,10 +78355,10 @@
         <v>43635</v>
       </c>
       <c r="E750" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="F750" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G750" t="s">
         <v>2520</v>
@@ -78367,7 +78367,7 @@
         <v>2521</v>
       </c>
       <c r="I750" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J750" s="172" t="s">
         <v>139</v>
@@ -78385,27 +78385,27 @@
         <v>500</v>
       </c>
       <c r="S750" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U750" t="s">
+        <v>3766</v>
+      </c>
+      <c r="V750" t="s">
         <v>3767</v>
-      </c>
-      <c r="V750" t="s">
-        <v>3768</v>
       </c>
       <c r="AL750" t="s">
         <v>50</v>
       </c>
       <c r="AM750" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="751" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="B751" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="C751">
         <v>1</v>
@@ -78414,10 +78414,10 @@
         <v>43635</v>
       </c>
       <c r="E751" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="F751" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G751" t="s">
         <v>2520</v>
@@ -78426,7 +78426,7 @@
         <v>2521</v>
       </c>
       <c r="I751" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J751" s="172" t="s">
         <v>139</v>
@@ -78444,27 +78444,27 @@
         <v>250</v>
       </c>
       <c r="S751" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U751" t="s">
+        <v>3768</v>
+      </c>
+      <c r="V751" t="s">
         <v>3769</v>
-      </c>
-      <c r="V751" t="s">
-        <v>3770</v>
       </c>
       <c r="AL751" t="s">
         <v>50</v>
       </c>
       <c r="AM751" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="752" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="B752" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="C752">
         <v>1</v>
@@ -78473,10 +78473,10 @@
         <v>43635</v>
       </c>
       <c r="E752" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="F752" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G752" t="s">
         <v>2520</v>
@@ -78485,7 +78485,7 @@
         <v>2521</v>
       </c>
       <c r="I752" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J752" s="172" t="s">
         <v>139</v>
@@ -78503,27 +78503,27 @@
         <v>150</v>
       </c>
       <c r="S752" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U752" t="s">
+        <v>3770</v>
+      </c>
+      <c r="V752" t="s">
         <v>3771</v>
-      </c>
-      <c r="V752" t="s">
-        <v>3772</v>
       </c>
       <c r="AL752" t="s">
         <v>50</v>
       </c>
       <c r="AM752" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="753" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="B753" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="C753">
         <v>1</v>
@@ -78532,10 +78532,10 @@
         <v>43635</v>
       </c>
       <c r="E753" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="F753" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G753" t="s">
         <v>2520</v>
@@ -78544,7 +78544,7 @@
         <v>2521</v>
       </c>
       <c r="I753" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J753" s="172" t="s">
         <v>139</v>
@@ -78562,27 +78562,27 @@
         <v>80</v>
       </c>
       <c r="S753" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U753" t="s">
+        <v>3770</v>
+      </c>
+      <c r="V753" t="s">
         <v>3771</v>
-      </c>
-      <c r="V753" t="s">
-        <v>3772</v>
       </c>
       <c r="AL753" t="s">
         <v>50</v>
       </c>
       <c r="AM753" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="754" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="B754" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="C754">
         <v>1</v>
@@ -78591,10 +78591,10 @@
         <v>43635</v>
       </c>
       <c r="E754" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="F754" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G754" t="s">
         <v>2520</v>
@@ -78603,7 +78603,7 @@
         <v>2521</v>
       </c>
       <c r="I754" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J754" s="172" t="s">
         <v>139</v>
@@ -78621,27 +78621,27 @@
         <v>20</v>
       </c>
       <c r="S754" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U754" t="s">
+        <v>3770</v>
+      </c>
+      <c r="V754" t="s">
         <v>3771</v>
-      </c>
-      <c r="V754" t="s">
-        <v>3772</v>
       </c>
       <c r="AL754" t="s">
         <v>50</v>
       </c>
       <c r="AM754" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="755" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="B755" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="C755">
         <v>1</v>
@@ -78650,10 +78650,10 @@
         <v>43633</v>
       </c>
       <c r="E755" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="F755" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G755" t="s">
         <v>2520</v>
@@ -78662,7 +78662,7 @@
         <v>2521</v>
       </c>
       <c r="I755" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J755" s="172" t="s">
         <v>139</v>
@@ -78680,27 +78680,27 @@
         <v>1000</v>
       </c>
       <c r="S755" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U755" t="s">
+        <v>3772</v>
+      </c>
+      <c r="V755" t="s">
         <v>3773</v>
-      </c>
-      <c r="V755" t="s">
-        <v>3774</v>
       </c>
       <c r="AL755" t="s">
         <v>50</v>
       </c>
       <c r="AM755" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="756" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="B756" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="C756">
         <v>1</v>
@@ -78709,10 +78709,10 @@
         <v>43633</v>
       </c>
       <c r="E756" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="F756" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G756" t="s">
         <v>2520</v>
@@ -78721,7 +78721,7 @@
         <v>2521</v>
       </c>
       <c r="I756" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J756" s="172" t="s">
         <v>139</v>
@@ -78739,27 +78739,27 @@
         <v>500</v>
       </c>
       <c r="S756" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U756" t="s">
+        <v>3772</v>
+      </c>
+      <c r="V756" t="s">
         <v>3773</v>
-      </c>
-      <c r="V756" t="s">
-        <v>3774</v>
       </c>
       <c r="AL756" t="s">
         <v>50</v>
       </c>
       <c r="AM756" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="757" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="B757" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="C757">
         <v>1</v>
@@ -78768,10 +78768,10 @@
         <v>43633</v>
       </c>
       <c r="E757" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="F757" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G757" t="s">
         <v>2520</v>
@@ -78780,7 +78780,7 @@
         <v>2521</v>
       </c>
       <c r="I757" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J757" s="172" t="s">
         <v>139</v>
@@ -78798,27 +78798,27 @@
         <v>250</v>
       </c>
       <c r="S757" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U757" t="s">
+        <v>3772</v>
+      </c>
+      <c r="V757" t="s">
         <v>3773</v>
-      </c>
-      <c r="V757" t="s">
-        <v>3774</v>
       </c>
       <c r="AL757" t="s">
         <v>50</v>
       </c>
       <c r="AM757" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="758" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="B758" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="C758">
         <v>1</v>
@@ -78827,10 +78827,10 @@
         <v>43633</v>
       </c>
       <c r="E758" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="F758" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G758" t="s">
         <v>2520</v>
@@ -78839,7 +78839,7 @@
         <v>2521</v>
       </c>
       <c r="I758" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J758" s="172" t="s">
         <v>139</v>
@@ -78857,27 +78857,27 @@
         <v>150</v>
       </c>
       <c r="S758" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U758" t="s">
+        <v>3774</v>
+      </c>
+      <c r="V758" t="s">
         <v>3775</v>
-      </c>
-      <c r="V758" t="s">
-        <v>3776</v>
       </c>
       <c r="AL758" t="s">
         <v>50</v>
       </c>
       <c r="AM758" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="759" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="B759" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="C759">
         <v>1</v>
@@ -78886,10 +78886,10 @@
         <v>43633</v>
       </c>
       <c r="E759" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="F759" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G759" t="s">
         <v>2520</v>
@@ -78898,7 +78898,7 @@
         <v>2521</v>
       </c>
       <c r="I759" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J759" s="172" t="s">
         <v>139</v>
@@ -78916,27 +78916,27 @@
         <v>80</v>
       </c>
       <c r="S759" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U759" t="s">
+        <v>3774</v>
+      </c>
+      <c r="V759" t="s">
         <v>3775</v>
-      </c>
-      <c r="V759" t="s">
-        <v>3776</v>
       </c>
       <c r="AL759" t="s">
         <v>50</v>
       </c>
       <c r="AM759" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="760" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="B760" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="C760">
         <v>1</v>
@@ -78945,10 +78945,10 @@
         <v>43633</v>
       </c>
       <c r="E760" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="F760" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G760" t="s">
         <v>2520</v>
@@ -78957,7 +78957,7 @@
         <v>2521</v>
       </c>
       <c r="I760" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J760" s="172" t="s">
         <v>139</v>
@@ -78975,27 +78975,27 @@
         <v>20</v>
       </c>
       <c r="S760" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U760" t="s">
+        <v>3774</v>
+      </c>
+      <c r="V760" t="s">
         <v>3775</v>
-      </c>
-      <c r="V760" t="s">
-        <v>3776</v>
       </c>
       <c r="AL760" t="s">
         <v>50</v>
       </c>
       <c r="AM760" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="761" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="B761" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="C761">
         <v>1</v>
@@ -79004,10 +79004,10 @@
         <v>43633</v>
       </c>
       <c r="E761" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="F761" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G761" t="s">
         <v>2520</v>
@@ -79016,7 +79016,7 @@
         <v>2521</v>
       </c>
       <c r="I761" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J761" s="172" t="s">
         <v>139</v>
@@ -79034,27 +79034,27 @@
         <v>1000</v>
       </c>
       <c r="S761" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U761" t="s">
+        <v>3776</v>
+      </c>
+      <c r="V761" t="s">
         <v>3777</v>
-      </c>
-      <c r="V761" t="s">
-        <v>3778</v>
       </c>
       <c r="AL761" t="s">
         <v>50</v>
       </c>
       <c r="AM761" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="762" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="B762" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="C762">
         <v>1</v>
@@ -79063,10 +79063,10 @@
         <v>43633</v>
       </c>
       <c r="E762" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="F762" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G762" t="s">
         <v>2520</v>
@@ -79075,7 +79075,7 @@
         <v>2521</v>
       </c>
       <c r="I762" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J762" s="172" t="s">
         <v>139</v>
@@ -79093,27 +79093,27 @@
         <v>500</v>
       </c>
       <c r="S762" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U762" t="s">
+        <v>3778</v>
+      </c>
+      <c r="V762" t="s">
         <v>3779</v>
-      </c>
-      <c r="V762" t="s">
-        <v>3780</v>
       </c>
       <c r="AL762" t="s">
         <v>50</v>
       </c>
       <c r="AM762" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="763" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B763" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="C763">
         <v>1</v>
@@ -79122,10 +79122,10 @@
         <v>43633</v>
       </c>
       <c r="E763" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="F763" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G763" t="s">
         <v>2520</v>
@@ -79134,7 +79134,7 @@
         <v>2521</v>
       </c>
       <c r="I763" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J763" s="172" t="s">
         <v>139</v>
@@ -79152,27 +79152,27 @@
         <v>250</v>
       </c>
       <c r="S763" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U763" t="s">
+        <v>3780</v>
+      </c>
+      <c r="V763" t="s">
         <v>3781</v>
-      </c>
-      <c r="V763" t="s">
-        <v>3782</v>
       </c>
       <c r="AL763" t="s">
         <v>50</v>
       </c>
       <c r="AM763" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="764" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B764" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="C764">
         <v>1</v>
@@ -79181,10 +79181,10 @@
         <v>43633</v>
       </c>
       <c r="E764" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="F764" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G764" t="s">
         <v>2520</v>
@@ -79193,7 +79193,7 @@
         <v>2521</v>
       </c>
       <c r="I764" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J764" s="172" t="s">
         <v>139</v>
@@ -79211,27 +79211,27 @@
         <v>150</v>
       </c>
       <c r="S764" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U764" t="s">
+        <v>3782</v>
+      </c>
+      <c r="V764" t="s">
         <v>3783</v>
-      </c>
-      <c r="V764" t="s">
-        <v>3784</v>
       </c>
       <c r="AL764" t="s">
         <v>50</v>
       </c>
       <c r="AM764" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="765" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="B765" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="C765">
         <v>1</v>
@@ -79240,10 +79240,10 @@
         <v>43633</v>
       </c>
       <c r="E765" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="F765" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G765" t="s">
         <v>2520</v>
@@ -79252,7 +79252,7 @@
         <v>2521</v>
       </c>
       <c r="I765" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J765" s="172" t="s">
         <v>139</v>
@@ -79270,27 +79270,27 @@
         <v>80</v>
       </c>
       <c r="S765" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U765" t="s">
+        <v>3784</v>
+      </c>
+      <c r="V765" t="s">
         <v>3785</v>
-      </c>
-      <c r="V765" t="s">
-        <v>3786</v>
       </c>
       <c r="AL765" t="s">
         <v>50</v>
       </c>
       <c r="AM765" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="766" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="B766" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="C766">
         <v>1</v>
@@ -79299,10 +79299,10 @@
         <v>43633</v>
       </c>
       <c r="E766" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="F766" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G766" t="s">
         <v>2520</v>
@@ -79311,7 +79311,7 @@
         <v>2521</v>
       </c>
       <c r="I766" s="5" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="J766" s="172" t="s">
         <v>139</v>
@@ -79329,19 +79329,19 @@
         <v>20</v>
       </c>
       <c r="S766" s="174" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="U766" t="s">
+        <v>3786</v>
+      </c>
+      <c r="V766" t="s">
         <v>3787</v>
-      </c>
-      <c r="V766" t="s">
-        <v>3788</v>
       </c>
       <c r="AL766" t="s">
         <v>50</v>
       </c>
       <c r="AM766" s="5" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="767" spans="1:39" x14ac:dyDescent="0.25">

--- a/metadata/Metadata_eDNA_global_V4.xlsx
+++ b/metadata/Metadata_eDNA_global_V4.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Variables" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metadata_eDNA_global_V4_filtere!$S$1:$S$1428</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metadata_eDNA_global_V4_filtere!$A$1:$A$1428</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13549" uniqueCount="3793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13549" uniqueCount="3794">
   <si>
     <t>code_spygen</t>
   </si>
@@ -11409,6 +11409,9 @@
   </si>
   <si>
     <t>RECIF_BARRIERE</t>
+  </si>
+  <si>
+    <t>SPY192299</t>
   </si>
 </sst>
 </file>
@@ -12480,11 +12483,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AP1428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T607" sqref="T536:T607"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1433" sqref="B1433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12648,7 +12652,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -12754,7 +12758,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>52</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>54</v>
       </c>
@@ -12966,7 +12970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
@@ -13072,7 +13076,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -13178,7 +13182,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>71</v>
       </c>
@@ -13284,7 +13288,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>72</v>
       </c>
@@ -13388,7 +13392,7 @@
       </c>
       <c r="AP8" s="2"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>79</v>
       </c>
@@ -13492,7 +13496,7 @@
       </c>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
@@ -13596,7 +13600,7 @@
       </c>
       <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>87</v>
       </c>
@@ -13700,7 +13704,7 @@
       </c>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>88</v>
       </c>
@@ -13804,7 +13808,7 @@
       </c>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
@@ -13908,7 +13912,7 @@
       </c>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>96</v>
       </c>
@@ -14012,7 +14016,7 @@
       </c>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>103</v>
       </c>
@@ -14118,7 +14122,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>104</v>
       </c>
@@ -14222,7 +14226,7 @@
       </c>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
@@ -14326,7 +14330,7 @@
       </c>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>112</v>
       </c>
@@ -14430,7 +14434,7 @@
       </c>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>119</v>
       </c>
@@ -14534,7 +14538,7 @@
       </c>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>120</v>
       </c>
@@ -14640,7 +14644,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>128</v>
       </c>
@@ -14744,7 +14748,7 @@
       </c>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>129</v>
       </c>
@@ -14828,7 +14832,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>136</v>
       </c>
@@ -14918,7 +14922,7 @@
       </c>
       <c r="AP23" s="18"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>144</v>
       </c>
@@ -15010,7 +15014,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>151</v>
       </c>
@@ -15100,7 +15104,7 @@
       </c>
       <c r="AP25" s="18"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>157</v>
       </c>
@@ -15190,7 +15194,7 @@
       </c>
       <c r="AP26" s="18"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>159</v>
       </c>
@@ -15280,7 +15284,7 @@
       </c>
       <c r="AP27" s="18"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>163</v>
       </c>
@@ -15370,7 +15374,7 @@
       </c>
       <c r="AP28" s="18"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>167</v>
       </c>
@@ -15460,7 +15464,7 @@
       </c>
       <c r="AP29" s="18"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>171</v>
       </c>
@@ -15572,7 +15576,7 @@
       </c>
       <c r="AP30" s="18"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>189</v>
       </c>
@@ -15684,7 +15688,7 @@
       </c>
       <c r="AP31" s="18"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>190</v>
       </c>
@@ -15770,7 +15774,7 @@
       </c>
       <c r="AP32" s="18"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>196</v>
       </c>
@@ -15882,7 +15886,7 @@
       </c>
       <c r="AP33" s="18"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>211</v>
       </c>
@@ -15994,7 +15998,7 @@
       </c>
       <c r="AP34" s="18"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>227</v>
       </c>
@@ -16108,7 +16112,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>229</v>
       </c>
@@ -16220,7 +16224,7 @@
       </c>
       <c r="AP36" s="18"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>244</v>
       </c>
@@ -16334,7 +16338,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>261</v>
       </c>
@@ -16448,7 +16452,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>262</v>
       </c>
@@ -16560,7 +16564,7 @@
       </c>
       <c r="AP39" s="18"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>263</v>
       </c>
@@ -16672,7 +16676,7 @@
       </c>
       <c r="AP40" s="18"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>278</v>
       </c>
@@ -16764,7 +16768,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>285</v>
       </c>
@@ -16876,7 +16880,7 @@
       </c>
       <c r="AP42" s="18"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>286</v>
       </c>
@@ -16990,7 +16994,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>288</v>
       </c>
@@ -17090,7 +17094,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>299</v>
       </c>
@@ -17188,7 +17192,7 @@
       </c>
       <c r="AP45" s="39"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>300</v>
       </c>
@@ -17288,7 +17292,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>310</v>
       </c>
@@ -17386,7 +17390,7 @@
       </c>
       <c r="AP47" s="39"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>311</v>
       </c>
@@ -17484,7 +17488,7 @@
       </c>
       <c r="AP48" s="39"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>320</v>
       </c>
@@ -17582,7 +17586,7 @@
       </c>
       <c r="AP49" s="39"/>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>321</v>
       </c>
@@ -17698,7 +17702,7 @@
       </c>
       <c r="AP50" s="39"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>338</v>
       </c>
@@ -17814,7 +17818,7 @@
       </c>
       <c r="AP51" s="39"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>339</v>
       </c>
@@ -17932,7 +17936,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>354</v>
       </c>
@@ -18048,7 +18052,7 @@
       </c>
       <c r="AP53" s="39"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>355</v>
       </c>
@@ -18148,7 +18152,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>364</v>
       </c>
@@ -18246,7 +18250,7 @@
       </c>
       <c r="AP55" s="39"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>370</v>
       </c>
@@ -18346,7 +18350,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>379</v>
       </c>
@@ -18444,7 +18448,7 @@
       </c>
       <c r="AP57" s="39"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="139" t="s">
         <v>2376</v>
       </c>
@@ -18564,7 +18568,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="139" t="s">
         <v>2377</v>
       </c>
@@ -18684,7 +18688,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="139" t="s">
         <v>2378</v>
       </c>
@@ -18804,7 +18808,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="139" t="s">
         <v>2379</v>
       </c>
@@ -18924,7 +18928,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="139" t="s">
         <v>2380</v>
       </c>
@@ -19044,7 +19048,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="139" t="s">
         <v>2381</v>
       </c>
@@ -19164,7 +19168,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="139" t="s">
         <v>2382</v>
       </c>
@@ -19284,7 +19288,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="139" t="s">
         <v>2383</v>
       </c>
@@ -19404,7 +19408,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="139" t="s">
         <v>2395</v>
       </c>
@@ -19524,7 +19528,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="139" t="s">
         <v>2390</v>
       </c>
@@ -19644,7 +19648,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="139" t="s">
         <v>2391</v>
       </c>
@@ -19764,7 +19768,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="139" t="s">
         <v>2388</v>
       </c>
@@ -19882,7 +19886,7 @@
       </c>
       <c r="AP69" s="57"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="139" t="s">
         <v>2389</v>
       </c>
@@ -20000,7 +20004,7 @@
       </c>
       <c r="AP70" s="57"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="139" t="s">
         <v>2366</v>
       </c>
@@ -20118,7 +20122,7 @@
       </c>
       <c r="AP71" s="43"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="139" t="s">
         <v>2367</v>
       </c>
@@ -20236,7 +20240,7 @@
       </c>
       <c r="AP72" s="43"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="139" t="s">
         <v>2365</v>
       </c>
@@ -20356,7 +20360,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="140" t="s">
         <v>396</v>
       </c>
@@ -20476,7 +20480,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="139" t="s">
         <v>2396</v>
       </c>
@@ -20584,7 +20588,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="139" t="s">
         <v>2397</v>
       </c>
@@ -20692,7 +20696,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="139" t="s">
         <v>2394</v>
       </c>
@@ -20812,7 +20816,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="139" t="s">
         <v>2374</v>
       </c>
@@ -20926,7 +20930,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="139" t="s">
         <v>2375</v>
       </c>
@@ -21040,7 +21044,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="139" t="s">
         <v>2386</v>
       </c>
@@ -21160,7 +21164,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="139" t="s">
         <v>2387</v>
       </c>
@@ -21280,7 +21284,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="139" t="s">
         <v>2368</v>
       </c>
@@ -21388,7 +21392,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="139" t="s">
         <v>2369</v>
       </c>
@@ -21496,7 +21500,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="139" t="s">
         <v>2370</v>
       </c>
@@ -21616,7 +21620,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="139" t="s">
         <v>2371</v>
       </c>
@@ -21736,7 +21740,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="139" t="s">
         <v>2372</v>
       </c>
@@ -21856,7 +21860,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="139" t="s">
         <v>2373</v>
       </c>
@@ -21976,7 +21980,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="139" t="s">
         <v>2384</v>
       </c>
@@ -22084,7 +22088,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="139" t="s">
         <v>2385</v>
       </c>
@@ -22192,7 +22196,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="139" t="s">
         <v>2392</v>
       </c>
@@ -22312,7 +22316,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="139" t="s">
         <v>2393</v>
       </c>
@@ -22432,7 +22436,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>620</v>
       </c>
@@ -22537,7 +22541,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>630</v>
       </c>
@@ -22642,7 +22646,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>631</v>
       </c>
@@ -22747,7 +22751,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>639</v>
       </c>
@@ -22852,7 +22856,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>647</v>
       </c>
@@ -22957,7 +22961,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>656</v>
       </c>
@@ -23056,7 +23060,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>662</v>
       </c>
@@ -23161,7 +23165,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>670</v>
       </c>
@@ -23266,7 +23270,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>679</v>
       </c>
@@ -23371,7 +23375,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>686</v>
       </c>
@@ -23470,7 +23474,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>693</v>
       </c>
@@ -23569,7 +23573,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>699</v>
       </c>
@@ -23659,7 +23663,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>704</v>
       </c>
@@ -23749,7 +23753,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>705</v>
       </c>
@@ -23839,7 +23843,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>707</v>
       </c>
@@ -23929,7 +23933,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>708</v>
       </c>
@@ -24019,7 +24023,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>713</v>
       </c>
@@ -24109,7 +24113,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>715</v>
       </c>
@@ -24199,7 +24203,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>717</v>
       </c>
@@ -24289,7 +24293,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>721</v>
       </c>
@@ -24379,7 +24383,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>723</v>
       </c>
@@ -24469,7 +24473,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>725</v>
       </c>
@@ -24559,7 +24563,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>727</v>
       </c>
@@ -24649,7 +24653,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>730</v>
       </c>
@@ -24739,7 +24743,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>732</v>
       </c>
@@ -24829,7 +24833,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>734</v>
       </c>
@@ -24919,7 +24923,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>736</v>
       </c>
@@ -25009,7 +25013,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>738</v>
       </c>
@@ -25099,7 +25103,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>740</v>
       </c>
@@ -25189,7 +25193,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>742</v>
       </c>
@@ -25279,7 +25283,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>744</v>
       </c>
@@ -25383,7 +25387,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>754</v>
       </c>
@@ -25487,7 +25491,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>755</v>
       </c>
@@ -25591,7 +25595,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>764</v>
       </c>
@@ -25695,7 +25699,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="70" t="s">
         <v>765</v>
       </c>
@@ -25799,7 +25803,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="70" t="s">
         <v>774</v>
       </c>
@@ -25903,7 +25907,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="70" t="s">
         <v>775</v>
       </c>
@@ -26003,7 +26007,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="70" t="s">
         <v>784</v>
       </c>
@@ -26103,7 +26107,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="70" t="s">
         <v>785</v>
       </c>
@@ -26203,7 +26207,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="70" t="s">
         <v>792</v>
       </c>
@@ -26303,7 +26307,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="70" t="s">
         <v>793</v>
       </c>
@@ -26403,7 +26407,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="70" t="s">
         <v>801</v>
       </c>
@@ -26503,7 +26507,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="70" t="s">
         <v>802</v>
       </c>
@@ -26597,7 +26601,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="70" t="s">
         <v>808</v>
       </c>
@@ -26691,7 +26695,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="70" t="s">
         <v>811</v>
       </c>
@@ -26785,7 +26789,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="70" t="s">
         <v>814</v>
       </c>
@@ -26879,7 +26883,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="70" t="s">
         <v>820</v>
       </c>
@@ -26973,7 +26977,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="70" t="s">
         <v>823</v>
       </c>
@@ -27067,7 +27071,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="70" t="s">
         <v>826</v>
       </c>
@@ -27167,7 +27171,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="70" t="s">
         <v>832</v>
       </c>
@@ -27267,7 +27271,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="70" t="s">
         <v>833</v>
       </c>
@@ -27367,7 +27371,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="70" t="s">
         <v>836</v>
       </c>
@@ -27467,7 +27471,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="70" t="s">
         <v>837</v>
       </c>
@@ -27567,7 +27571,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="70" t="s">
         <v>840</v>
       </c>
@@ -27667,7 +27671,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="70" t="s">
         <v>841</v>
       </c>
@@ -27767,7 +27771,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="70" t="s">
         <v>847</v>
       </c>
@@ -27867,7 +27871,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="70" t="s">
         <v>848</v>
       </c>
@@ -27971,7 +27975,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="70" t="s">
         <v>859</v>
       </c>
@@ -28075,7 +28079,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="70" t="s">
         <v>860</v>
       </c>
@@ -28179,7 +28183,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="70" t="s">
         <v>871</v>
       </c>
@@ -28283,7 +28287,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="70" t="s">
         <v>872</v>
       </c>
@@ -28387,7 +28391,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="70" t="s">
         <v>881</v>
       </c>
@@ -28491,7 +28495,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="70" t="s">
         <v>882</v>
       </c>
@@ -28591,7 +28595,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="70" t="s">
         <v>888</v>
       </c>
@@ -28691,7 +28695,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="70" t="s">
         <v>889</v>
       </c>
@@ -28795,7 +28799,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="70" t="s">
         <v>898</v>
       </c>
@@ -28899,7 +28903,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="70" t="s">
         <v>899</v>
       </c>
@@ -28999,7 +29003,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="70" t="s">
         <v>905</v>
       </c>
@@ -29099,7 +29103,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="40" t="s">
         <v>906</v>
       </c>
@@ -29203,7 +29207,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="40" t="s">
         <v>917</v>
       </c>
@@ -29307,7 +29311,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="40" t="s">
         <v>918</v>
       </c>
@@ -29411,7 +29415,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="40" t="s">
         <v>928</v>
       </c>
@@ -29515,7 +29519,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
         <v>929</v>
       </c>
@@ -29619,7 +29623,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="40" t="s">
         <v>939</v>
       </c>
@@ -29723,7 +29727,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="40" t="s">
         <v>940</v>
       </c>
@@ -29827,7 +29831,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="40" t="s">
         <v>950</v>
       </c>
@@ -29931,7 +29935,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="40" t="s">
         <v>951</v>
       </c>
@@ -30035,7 +30039,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="40" t="s">
         <v>961</v>
       </c>
@@ -30139,7 +30143,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="40" t="s">
         <v>962</v>
       </c>
@@ -30225,7 +30229,7 @@
       </c>
       <c r="AP170" s="80"/>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="40" t="s">
         <v>967</v>
       </c>
@@ -30309,7 +30313,7 @@
       </c>
       <c r="AP171" s="80"/>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="40" t="s">
         <v>970</v>
       </c>
@@ -30393,7 +30397,7 @@
       </c>
       <c r="AP172" s="80"/>
     </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="40" t="s">
         <v>973</v>
       </c>
@@ -30477,7 +30481,7 @@
       </c>
       <c r="AP173" s="80"/>
     </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="40" t="s">
         <v>976</v>
       </c>
@@ -30561,7 +30565,7 @@
       </c>
       <c r="AP174" s="80"/>
     </row>
-    <row r="175" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:42" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="40" t="s">
         <v>979</v>
       </c>
@@ -30649,7 +30653,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="40" t="s">
         <v>983</v>
       </c>
@@ -30733,7 +30737,7 @@
       </c>
       <c r="AP176" s="80"/>
     </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="40" t="s">
         <v>988</v>
       </c>
@@ -30817,7 +30821,7 @@
       </c>
       <c r="AP177" s="80"/>
     </row>
-    <row r="178" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:42" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="40" t="s">
         <v>991</v>
       </c>
@@ -30903,7 +30907,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="40" t="s">
         <v>995</v>
       </c>
@@ -31007,7 +31011,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="40" t="s">
         <v>1005</v>
       </c>
@@ -31111,7 +31115,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="52" t="s">
         <v>1006</v>
       </c>
@@ -31197,7 +31201,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="52" t="s">
         <v>1012</v>
       </c>
@@ -31283,7 +31287,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="52" t="s">
         <v>1015</v>
       </c>
@@ -31369,7 +31373,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="52" t="s">
         <v>1021</v>
       </c>
@@ -31455,7 +31459,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="52" t="s">
         <v>1024</v>
       </c>
@@ -31541,7 +31545,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="52" t="s">
         <v>1028</v>
       </c>
@@ -31639,7 +31643,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="52" t="s">
         <v>1036</v>
       </c>
@@ -31737,7 +31741,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="52" t="s">
         <v>1037</v>
       </c>
@@ -31841,7 +31845,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="52" t="s">
         <v>1046</v>
       </c>
@@ -31945,7 +31949,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="52" t="s">
         <v>1047</v>
       </c>
@@ -32043,7 +32047,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="52" t="s">
         <v>1054</v>
       </c>
@@ -32141,7 +32145,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="52" t="s">
         <v>1055</v>
       </c>
@@ -32245,7 +32249,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="52" t="s">
         <v>1064</v>
       </c>
@@ -32349,7 +32353,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="52" t="s">
         <v>1065</v>
       </c>
@@ -32433,7 +32437,7 @@
       </c>
       <c r="AP194" s="57"/>
     </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="52" t="s">
         <v>1070</v>
       </c>
@@ -32517,7 +32521,7 @@
       </c>
       <c r="AP195" s="57"/>
     </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="52" t="s">
         <v>1073</v>
       </c>
@@ -32601,7 +32605,7 @@
       </c>
       <c r="AP196" s="57"/>
     </row>
-    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="52" t="s">
         <v>1076</v>
       </c>
@@ -32685,7 +32689,7 @@
       </c>
       <c r="AP197" s="57"/>
     </row>
-    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="52" t="s">
         <v>1079</v>
       </c>
@@ -32769,7 +32773,7 @@
       </c>
       <c r="AP198" s="57"/>
     </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="52" t="s">
         <v>1082</v>
       </c>
@@ -32853,7 +32857,7 @@
       </c>
       <c r="AP199" s="57"/>
     </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="52" t="s">
         <v>1085</v>
       </c>
@@ -32955,7 +32959,7 @@
       </c>
       <c r="AP200" s="57"/>
     </row>
-    <row r="201" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="52" t="s">
         <v>1094</v>
       </c>
@@ -33057,7 +33061,7 @@
       </c>
       <c r="AP201" s="57"/>
     </row>
-    <row r="202" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="52" t="s">
         <v>1095</v>
       </c>
@@ -33143,7 +33147,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="203" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="52" t="s">
         <v>1100</v>
       </c>
@@ -33227,7 +33231,7 @@
       </c>
       <c r="AP203" s="44"/>
     </row>
-    <row r="204" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="144" t="s">
         <v>1102</v>
       </c>
@@ -33325,7 +33329,7 @@
       </c>
       <c r="AP204" s="85"/>
     </row>
-    <row r="205" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="144" t="s">
         <v>1112</v>
       </c>
@@ -33423,7 +33427,7 @@
       </c>
       <c r="AP205" s="85"/>
     </row>
-    <row r="206" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="144" t="s">
         <v>1113</v>
       </c>
@@ -33527,7 +33531,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="207" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="144" t="s">
         <v>1123</v>
       </c>
@@ -33631,7 +33635,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="208" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="144" t="s">
         <v>1124</v>
       </c>
@@ -33733,7 +33737,7 @@
       </c>
       <c r="AP208" s="85"/>
     </row>
-    <row r="209" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="144" t="s">
         <v>1133</v>
       </c>
@@ -33835,7 +33839,7 @@
       </c>
       <c r="AP209" s="85"/>
     </row>
-    <row r="210" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="144" t="s">
         <v>1134</v>
       </c>
@@ -33937,7 +33941,7 @@
       </c>
       <c r="AP210" s="85"/>
     </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="144" t="s">
         <v>1143</v>
       </c>
@@ -34039,7 +34043,7 @@
       </c>
       <c r="AP211" s="85"/>
     </row>
-    <row r="212" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="144" t="s">
         <v>1144</v>
       </c>
@@ -34143,7 +34147,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="213" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="144" t="s">
         <v>1154</v>
       </c>
@@ -34245,7 +34249,7 @@
       </c>
       <c r="AP213" s="85"/>
     </row>
-    <row r="214" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="144" t="s">
         <v>1155</v>
       </c>
@@ -34331,7 +34335,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="215" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="144" t="s">
         <v>1161</v>
       </c>
@@ -34415,7 +34419,7 @@
       </c>
       <c r="AP215" s="85"/>
     </row>
-    <row r="216" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="144" t="s">
         <v>1164</v>
       </c>
@@ -34499,7 +34503,7 @@
       </c>
       <c r="AP216" s="85"/>
     </row>
-    <row r="217" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="144" t="s">
         <v>1167</v>
       </c>
@@ -34583,7 +34587,7 @@
       </c>
       <c r="AP217" s="85"/>
     </row>
-    <row r="218" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="144" t="s">
         <v>1170</v>
       </c>
@@ -34667,7 +34671,7 @@
       </c>
       <c r="AP218" s="85"/>
     </row>
-    <row r="219" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="144" t="s">
         <v>1173</v>
       </c>
@@ -34751,7 +34755,7 @@
       </c>
       <c r="AP219" s="85"/>
     </row>
-    <row r="220" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="144" t="s">
         <v>1176</v>
       </c>
@@ -34835,7 +34839,7 @@
       </c>
       <c r="AP220" s="85"/>
     </row>
-    <row r="221" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="144" t="s">
         <v>1181</v>
       </c>
@@ -34919,7 +34923,7 @@
       </c>
       <c r="AP221" s="85"/>
     </row>
-    <row r="222" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="144" t="s">
         <v>1184</v>
       </c>
@@ -35003,7 +35007,7 @@
       </c>
       <c r="AP222" s="85"/>
     </row>
-    <row r="223" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="144" t="s">
         <v>1187</v>
       </c>
@@ -35087,7 +35091,7 @@
       </c>
       <c r="AP223" s="85"/>
     </row>
-    <row r="224" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="144" t="s">
         <v>1190</v>
       </c>
@@ -35171,7 +35175,7 @@
       </c>
       <c r="AP224" s="85"/>
     </row>
-    <row r="225" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="144" t="s">
         <v>1193</v>
       </c>
@@ -35255,7 +35259,7 @@
       </c>
       <c r="AP225" s="85"/>
     </row>
-    <row r="226" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="144" t="s">
         <v>1196</v>
       </c>
@@ -35357,7 +35361,7 @@
       </c>
       <c r="AP226" s="85"/>
     </row>
-    <row r="227" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="144" t="s">
         <v>1205</v>
       </c>
@@ -35461,7 +35465,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="228" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="144" t="s">
         <v>1206</v>
       </c>
@@ -35559,7 +35563,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="229" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="144" t="s">
         <v>1214</v>
       </c>
@@ -35657,7 +35661,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="230" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="144" t="s">
         <v>1215</v>
       </c>
@@ -35761,7 +35765,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="231" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="144" t="s">
         <v>1224</v>
       </c>
@@ -35865,7 +35869,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="232" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="144" t="s">
         <v>1225</v>
       </c>
@@ -35955,7 +35959,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="233" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="144" t="s">
         <v>1230</v>
       </c>
@@ -36043,7 +36047,7 @@
       </c>
       <c r="AP233" s="85"/>
     </row>
-    <row r="234" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="144" t="s">
         <v>1233</v>
       </c>
@@ -36131,7 +36135,7 @@
       </c>
       <c r="AP234" s="85"/>
     </row>
-    <row r="235" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="145" t="s">
         <v>1236</v>
       </c>
@@ -36218,7 +36222,7 @@
       </c>
       <c r="AO235" s="96"/>
     </row>
-    <row r="236" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="145" t="s">
         <v>1244</v>
       </c>
@@ -36305,7 +36309,7 @@
       </c>
       <c r="AO236" s="96"/>
     </row>
-    <row r="237" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="145" t="s">
         <v>1245</v>
       </c>
@@ -36392,7 +36396,7 @@
       </c>
       <c r="AO237" s="96"/>
     </row>
-    <row r="238" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="145" t="s">
         <v>1251</v>
       </c>
@@ -36479,7 +36483,7 @@
       </c>
       <c r="AO238" s="96"/>
     </row>
-    <row r="239" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="145" t="s">
         <v>1252</v>
       </c>
@@ -36566,7 +36570,7 @@
       </c>
       <c r="AO239" s="96"/>
     </row>
-    <row r="240" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="145" t="s">
         <v>1257</v>
       </c>
@@ -36653,7 +36657,7 @@
       </c>
       <c r="AO240" s="96"/>
     </row>
-    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="145" t="s">
         <v>1258</v>
       </c>
@@ -36740,7 +36744,7 @@
       </c>
       <c r="AO241" s="96"/>
     </row>
-    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="145" t="s">
         <v>1264</v>
       </c>
@@ -36827,7 +36831,7 @@
       </c>
       <c r="AO242" s="96"/>
     </row>
-    <row r="243" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="145" t="s">
         <v>1265</v>
       </c>
@@ -36914,7 +36918,7 @@
       </c>
       <c r="AO243" s="96"/>
     </row>
-    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="145" t="s">
         <v>1270</v>
       </c>
@@ -37001,7 +37005,7 @@
       </c>
       <c r="AO244" s="96"/>
     </row>
-    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="145" t="s">
         <v>1271</v>
       </c>
@@ -37088,7 +37092,7 @@
       </c>
       <c r="AO245" s="96"/>
     </row>
-    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="145" t="s">
         <v>1277</v>
       </c>
@@ -37175,7 +37179,7 @@
       </c>
       <c r="AO246" s="96"/>
     </row>
-    <row r="247" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="145" t="s">
         <v>1278</v>
       </c>
@@ -37262,7 +37266,7 @@
       </c>
       <c r="AO247" s="96"/>
     </row>
-    <row r="248" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="145" t="s">
         <v>1284</v>
       </c>
@@ -37349,7 +37353,7 @@
       </c>
       <c r="AO248" s="96"/>
     </row>
-    <row r="249" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="145" t="s">
         <v>1285</v>
       </c>
@@ -37436,7 +37440,7 @@
       </c>
       <c r="AO249" s="96"/>
     </row>
-    <row r="250" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="145" t="s">
         <v>1291</v>
       </c>
@@ -37523,7 +37527,7 @@
       </c>
       <c r="AO250" s="96"/>
     </row>
-    <row r="251" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="145" t="s">
         <v>1292</v>
       </c>
@@ -37610,7 +37614,7 @@
       </c>
       <c r="AO251" s="96"/>
     </row>
-    <row r="252" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="145" t="s">
         <v>1297</v>
       </c>
@@ -37697,7 +37701,7 @@
       </c>
       <c r="AO252" s="96"/>
     </row>
-    <row r="253" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="145" t="s">
         <v>1298</v>
       </c>
@@ -37784,7 +37788,7 @@
       </c>
       <c r="AO253" s="96"/>
     </row>
-    <row r="254" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="145" t="s">
         <v>1304</v>
       </c>
@@ -37871,7 +37875,7 @@
       </c>
       <c r="AO254" s="96"/>
     </row>
-    <row r="255" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="145" t="s">
         <v>1305</v>
       </c>
@@ -37958,7 +37962,7 @@
       </c>
       <c r="AO255" s="96"/>
     </row>
-    <row r="256" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="145" t="s">
         <v>1311</v>
       </c>
@@ -38045,7 +38049,7 @@
       </c>
       <c r="AO256" s="96"/>
     </row>
-    <row r="257" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="145" t="s">
         <v>1312</v>
       </c>
@@ -38132,7 +38136,7 @@
       </c>
       <c r="AO257" s="96"/>
     </row>
-    <row r="258" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="145" t="s">
         <v>1317</v>
       </c>
@@ -38219,7 +38223,7 @@
       </c>
       <c r="AO258" s="96"/>
     </row>
-    <row r="259" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="145" t="s">
         <v>1318</v>
       </c>
@@ -38306,7 +38310,7 @@
       </c>
       <c r="AO259" s="96"/>
     </row>
-    <row r="260" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="145" t="s">
         <v>1324</v>
       </c>
@@ -38393,7 +38397,7 @@
       </c>
       <c r="AO260" s="96"/>
     </row>
-    <row r="261" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="145" t="s">
         <v>1325</v>
       </c>
@@ -38480,7 +38484,7 @@
       </c>
       <c r="AO261" s="96"/>
     </row>
-    <row r="262" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="145" t="s">
         <v>1330</v>
       </c>
@@ -38567,7 +38571,7 @@
       </c>
       <c r="AO262" s="96"/>
     </row>
-    <row r="263" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="145" t="s">
         <v>1332</v>
       </c>
@@ -38654,7 +38658,7 @@
       </c>
       <c r="AO263" s="96"/>
     </row>
-    <row r="264" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="145" t="s">
         <v>1338</v>
       </c>
@@ -38741,7 +38745,7 @@
       </c>
       <c r="AO264" s="96"/>
     </row>
-    <row r="265" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="104" t="s">
         <v>1339</v>
       </c>
@@ -38853,7 +38857,7 @@
       </c>
       <c r="AP265" s="104"/>
     </row>
-    <row r="266" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="104" t="s">
         <v>1354</v>
       </c>
@@ -38965,7 +38969,7 @@
       </c>
       <c r="AP266" s="104"/>
     </row>
-    <row r="267" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="104" t="s">
         <v>1366</v>
       </c>
@@ -39077,7 +39081,7 @@
       </c>
       <c r="AP267" s="104"/>
     </row>
-    <row r="268" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="104" t="s">
         <v>1378</v>
       </c>
@@ -39189,7 +39193,7 @@
       </c>
       <c r="AP268" s="104"/>
     </row>
-    <row r="269" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="104" t="s">
         <v>1390</v>
       </c>
@@ -39301,7 +39305,7 @@
       </c>
       <c r="AP269" s="104"/>
     </row>
-    <row r="270" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="104" t="s">
         <v>1400</v>
       </c>
@@ -39413,7 +39417,7 @@
       </c>
       <c r="AP270" s="104"/>
     </row>
-    <row r="271" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="104" t="s">
         <v>1410</v>
       </c>
@@ -39525,7 +39529,7 @@
       </c>
       <c r="AP271" s="104"/>
     </row>
-    <row r="272" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="104" t="s">
         <v>1422</v>
       </c>
@@ -39637,7 +39641,7 @@
       </c>
       <c r="AP272" s="104"/>
     </row>
-    <row r="273" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="104" t="s">
         <v>1431</v>
       </c>
@@ -39749,7 +39753,7 @@
       </c>
       <c r="AP273" s="104"/>
     </row>
-    <row r="274" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="104" t="s">
         <v>1441</v>
       </c>
@@ -39861,7 +39865,7 @@
       </c>
       <c r="AP274" s="104"/>
     </row>
-    <row r="275" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="104" t="s">
         <v>1451</v>
       </c>
@@ -39973,7 +39977,7 @@
       </c>
       <c r="AP275" s="104"/>
     </row>
-    <row r="276" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="104" t="s">
         <v>1461</v>
       </c>
@@ -40081,7 +40085,7 @@
       </c>
       <c r="AP276" s="104"/>
     </row>
-    <row r="277" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="104" t="s">
         <v>1463</v>
       </c>
@@ -40193,7 +40197,7 @@
       </c>
       <c r="AP277" s="104"/>
     </row>
-    <row r="278" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="104" t="s">
         <v>1473</v>
       </c>
@@ -40301,7 +40305,7 @@
       </c>
       <c r="AP278" s="104"/>
     </row>
-    <row r="279" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="104" t="s">
         <v>1475</v>
       </c>
@@ -40413,7 +40417,7 @@
       </c>
       <c r="AP279" s="104"/>
     </row>
-    <row r="280" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="104" t="s">
         <v>1485</v>
       </c>
@@ -40521,7 +40525,7 @@
       </c>
       <c r="AP280" s="104"/>
     </row>
-    <row r="281" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="104" t="s">
         <v>1487</v>
       </c>
@@ -40633,7 +40637,7 @@
       </c>
       <c r="AP281" s="104"/>
     </row>
-    <row r="282" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="104" t="s">
         <v>1497</v>
       </c>
@@ -40741,7 +40745,7 @@
       </c>
       <c r="AP282" s="104"/>
     </row>
-    <row r="283" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="104" t="s">
         <v>1499</v>
       </c>
@@ -40853,7 +40857,7 @@
       </c>
       <c r="AP283" s="104"/>
     </row>
-    <row r="284" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="104" t="s">
         <v>1509</v>
       </c>
@@ -40961,7 +40965,7 @@
       </c>
       <c r="AP284" s="104"/>
     </row>
-    <row r="285" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="104" t="s">
         <v>1511</v>
       </c>
@@ -41073,7 +41077,7 @@
       </c>
       <c r="AP285" s="104"/>
     </row>
-    <row r="286" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="104" t="s">
         <v>1521</v>
       </c>
@@ -41185,7 +41189,7 @@
       </c>
       <c r="AP286" s="104"/>
     </row>
-    <row r="287" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="104" t="s">
         <v>1531</v>
       </c>
@@ -41297,7 +41301,7 @@
       </c>
       <c r="AP287" s="104"/>
     </row>
-    <row r="288" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="104" t="s">
         <v>1542</v>
       </c>
@@ -41405,7 +41409,7 @@
       </c>
       <c r="AP288" s="104"/>
     </row>
-    <row r="289" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="104" t="s">
         <v>1544</v>
       </c>
@@ -41517,7 +41521,7 @@
       </c>
       <c r="AP289" s="104"/>
     </row>
-    <row r="290" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="104" t="s">
         <v>1554</v>
       </c>
@@ -41625,7 +41629,7 @@
       </c>
       <c r="AP290" s="104"/>
     </row>
-    <row r="291" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="104" t="s">
         <v>1556</v>
       </c>
@@ -41737,7 +41741,7 @@
       </c>
       <c r="AP291" s="104"/>
     </row>
-    <row r="292" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="104" t="s">
         <v>1566</v>
       </c>
@@ -41845,7 +41849,7 @@
       </c>
       <c r="AP292" s="104"/>
     </row>
-    <row r="293" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="104" t="s">
         <v>1568</v>
       </c>
@@ -41957,7 +41961,7 @@
       </c>
       <c r="AP293" s="104"/>
     </row>
-    <row r="294" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="104" t="s">
         <v>1578</v>
       </c>
@@ -42065,7 +42069,7 @@
       </c>
       <c r="AP294" s="104"/>
     </row>
-    <row r="295" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="104" t="s">
         <v>1580</v>
       </c>
@@ -42177,7 +42181,7 @@
       </c>
       <c r="AP295" s="104"/>
     </row>
-    <row r="296" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="104" t="s">
         <v>1590</v>
       </c>
@@ -42285,7 +42289,7 @@
       </c>
       <c r="AP296" s="104"/>
     </row>
-    <row r="297" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="104" t="s">
         <v>1592</v>
       </c>
@@ -42393,7 +42397,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="298" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="104" t="s">
         <v>1601</v>
       </c>
@@ -42501,7 +42505,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="299" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="104" t="s">
         <v>1603</v>
       </c>
@@ -42597,7 +42601,7 @@
       </c>
       <c r="AP299" s="104"/>
     </row>
-    <row r="300" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="104" t="s">
         <v>1608</v>
       </c>
@@ -42693,7 +42697,7 @@
       </c>
       <c r="AP300" s="104"/>
     </row>
-    <row r="301" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="104" t="s">
         <v>1610</v>
       </c>
@@ -42789,7 +42793,7 @@
       </c>
       <c r="AP301" s="104"/>
     </row>
-    <row r="302" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="104" t="s">
         <v>1616</v>
       </c>
@@ -42885,7 +42889,7 @@
       </c>
       <c r="AP302" s="104"/>
     </row>
-    <row r="303" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="104" t="s">
         <v>1618</v>
       </c>
@@ -42981,7 +42985,7 @@
       </c>
       <c r="AP303" s="104"/>
     </row>
-    <row r="304" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="104" t="s">
         <v>1624</v>
       </c>
@@ -43077,7 +43081,7 @@
       </c>
       <c r="AP304" s="104"/>
     </row>
-    <row r="305" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="104" t="s">
         <v>1626</v>
       </c>
@@ -43173,7 +43177,7 @@
       </c>
       <c r="AP305" s="104"/>
     </row>
-    <row r="306" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="104" t="s">
         <v>1632</v>
       </c>
@@ -43269,7 +43273,7 @@
       </c>
       <c r="AP306" s="104"/>
     </row>
-    <row r="307" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="104" t="s">
         <v>1634</v>
       </c>
@@ -43365,7 +43369,7 @@
       </c>
       <c r="AP307" s="104"/>
     </row>
-    <row r="308" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="104" t="s">
         <v>1640</v>
       </c>
@@ -43461,7 +43465,7 @@
       </c>
       <c r="AP308" s="104"/>
     </row>
-    <row r="309" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="104" t="s">
         <v>1642</v>
       </c>
@@ -43557,7 +43561,7 @@
       </c>
       <c r="AP309" s="104"/>
     </row>
-    <row r="310" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="104" t="s">
         <v>1648</v>
       </c>
@@ -43653,7 +43657,7 @@
       </c>
       <c r="AP310" s="104"/>
     </row>
-    <row r="311" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="104" t="s">
         <v>1650</v>
       </c>
@@ -43749,7 +43753,7 @@
       </c>
       <c r="AP311" s="104"/>
     </row>
-    <row r="312" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="104" t="s">
         <v>1656</v>
       </c>
@@ -43845,7 +43849,7 @@
       </c>
       <c r="AP312" s="104"/>
     </row>
-    <row r="313" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="104" t="s">
         <v>1658</v>
       </c>
@@ -43953,7 +43957,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="314" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="104" t="s">
         <v>1666</v>
       </c>
@@ -44055,7 +44059,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="315" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="104" t="s">
         <v>1668</v>
       </c>
@@ -44163,7 +44167,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="316" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="104" t="s">
         <v>1674</v>
       </c>
@@ -44267,7 +44271,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="317" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="104" t="s">
         <v>1676</v>
       </c>
@@ -44367,7 +44371,7 @@
       </c>
       <c r="AP317" s="104"/>
     </row>
-    <row r="318" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="104" t="s">
         <v>1682</v>
       </c>
@@ -44463,7 +44467,7 @@
       </c>
       <c r="AP318" s="104"/>
     </row>
-    <row r="319" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="104" t="s">
         <v>1684</v>
       </c>
@@ -44563,7 +44567,7 @@
       </c>
       <c r="AP319" s="104"/>
     </row>
-    <row r="320" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="104" t="s">
         <v>1690</v>
       </c>
@@ -44659,7 +44663,7 @@
       </c>
       <c r="AP320" s="104"/>
     </row>
-    <row r="321" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="104" t="s">
         <v>1692</v>
       </c>
@@ -44759,7 +44763,7 @@
       </c>
       <c r="AP321" s="104"/>
     </row>
-    <row r="322" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="104" t="s">
         <v>1698</v>
       </c>
@@ -44855,7 +44859,7 @@
       </c>
       <c r="AP322" s="104"/>
     </row>
-    <row r="323" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="104" t="s">
         <v>1700</v>
       </c>
@@ -44955,7 +44959,7 @@
       </c>
       <c r="AP323" s="104"/>
     </row>
-    <row r="324" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="104" t="s">
         <v>1706</v>
       </c>
@@ -45051,7 +45055,7 @@
       </c>
       <c r="AP324" s="104"/>
     </row>
-    <row r="325" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="104" t="s">
         <v>1708</v>
       </c>
@@ -45151,7 +45155,7 @@
       </c>
       <c r="AP325" s="104"/>
     </row>
-    <row r="326" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="104" t="s">
         <v>1714</v>
       </c>
@@ -45247,7 +45251,7 @@
       </c>
       <c r="AP326" s="104"/>
     </row>
-    <row r="327" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="104" t="s">
         <v>1716</v>
       </c>
@@ -45347,7 +45351,7 @@
       </c>
       <c r="AP327" s="104"/>
     </row>
-    <row r="328" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="104" t="s">
         <v>1722</v>
       </c>
@@ -45443,7 +45447,7 @@
       </c>
       <c r="AP328" s="104"/>
     </row>
-    <row r="329" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="104" t="s">
         <v>1724</v>
       </c>
@@ -45543,7 +45547,7 @@
       </c>
       <c r="AP329" s="104"/>
     </row>
-    <row r="330" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="104" t="s">
         <v>1730</v>
       </c>
@@ -45639,7 +45643,7 @@
       </c>
       <c r="AP330" s="104"/>
     </row>
-    <row r="331" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="104" t="s">
         <v>1732</v>
       </c>
@@ -45739,7 +45743,7 @@
       </c>
       <c r="AP331" s="104"/>
     </row>
-    <row r="332" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="104" t="s">
         <v>1738</v>
       </c>
@@ -45835,7 +45839,7 @@
       </c>
       <c r="AP332" s="104"/>
     </row>
-    <row r="333" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="104" t="s">
         <v>1740</v>
       </c>
@@ -45935,7 +45939,7 @@
       </c>
       <c r="AP333" s="104"/>
     </row>
-    <row r="334" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="104" t="s">
         <v>1746</v>
       </c>
@@ -46031,7 +46035,7 @@
       </c>
       <c r="AP334" s="104"/>
     </row>
-    <row r="335" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="104" t="s">
         <v>1748</v>
       </c>
@@ -46139,7 +46143,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="336" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="104" t="s">
         <v>1754</v>
       </c>
@@ -46241,7 +46245,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="337" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="104" t="s">
         <v>1756</v>
       </c>
@@ -46343,7 +46347,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="338" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="104" t="s">
         <v>1762</v>
       </c>
@@ -46441,7 +46445,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="339" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="104" t="s">
         <v>1764</v>
       </c>
@@ -46541,7 +46545,7 @@
       </c>
       <c r="AP339" s="104"/>
     </row>
-    <row r="340" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="104" t="s">
         <v>1770</v>
       </c>
@@ -46637,7 +46641,7 @@
       </c>
       <c r="AP340" s="104"/>
     </row>
-    <row r="341" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="104" t="s">
         <v>1772</v>
       </c>
@@ -46737,7 +46741,7 @@
       </c>
       <c r="AP341" s="104"/>
     </row>
-    <row r="342" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="104" t="s">
         <v>1778</v>
       </c>
@@ -46833,7 +46837,7 @@
       </c>
       <c r="AP342" s="104"/>
     </row>
-    <row r="343" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="104" t="s">
         <v>1780</v>
       </c>
@@ -46941,7 +46945,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="344" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="104" t="s">
         <v>1788</v>
       </c>
@@ -47043,7 +47047,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="345" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="104" t="s">
         <v>1790</v>
       </c>
@@ -47143,7 +47147,7 @@
       </c>
       <c r="AP345" s="104"/>
     </row>
-    <row r="346" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="104" t="s">
         <v>1796</v>
       </c>
@@ -47239,7 +47243,7 @@
       </c>
       <c r="AP346" s="104"/>
     </row>
-    <row r="347" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="104" t="s">
         <v>1798</v>
       </c>
@@ -47339,7 +47343,7 @@
       </c>
       <c r="AP347" s="104"/>
     </row>
-    <row r="348" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="104" t="s">
         <v>1804</v>
       </c>
@@ -47435,7 +47439,7 @@
       </c>
       <c r="AP348" s="104"/>
     </row>
-    <row r="349" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="104" t="s">
         <v>1841</v>
       </c>
@@ -47543,7 +47547,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="350" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="104" t="s">
         <v>1850</v>
       </c>
@@ -47651,7 +47655,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="351" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="104" t="s">
         <v>1852</v>
       </c>
@@ -47759,7 +47763,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="352" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="104" t="s">
         <v>1858</v>
       </c>
@@ -47867,7 +47871,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="353" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="104" t="s">
         <v>1862</v>
       </c>
@@ -47967,7 +47971,7 @@
       </c>
       <c r="AP353" s="104"/>
     </row>
-    <row r="354" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="104" t="s">
         <v>1868</v>
       </c>
@@ -48063,7 +48067,7 @@
       </c>
       <c r="AP354" s="104"/>
     </row>
-    <row r="355" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="104" t="s">
         <v>1870</v>
       </c>
@@ -48163,7 +48167,7 @@
       </c>
       <c r="AP355" s="104"/>
     </row>
-    <row r="356" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="104" t="s">
         <v>1874</v>
       </c>
@@ -48259,7 +48263,7 @@
       </c>
       <c r="AP356" s="104"/>
     </row>
-    <row r="357" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="104" t="s">
         <v>1876</v>
       </c>
@@ -48359,7 +48363,7 @@
       </c>
       <c r="AP357" s="104"/>
     </row>
-    <row r="358" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="104" t="s">
         <v>1882</v>
       </c>
@@ -48455,7 +48459,7 @@
       </c>
       <c r="AP358" s="104"/>
     </row>
-    <row r="359" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="104" t="s">
         <v>1884</v>
       </c>
@@ -48555,7 +48559,7 @@
       </c>
       <c r="AP359" s="104"/>
     </row>
-    <row r="360" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="104" t="s">
         <v>1888</v>
       </c>
@@ -48651,7 +48655,7 @@
       </c>
       <c r="AP360" s="104"/>
     </row>
-    <row r="361" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="110" t="s">
         <v>1900</v>
       </c>
@@ -48735,7 +48739,7 @@
       </c>
       <c r="AP361" s="115"/>
     </row>
-    <row r="362" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="110" t="s">
         <v>1905</v>
       </c>
@@ -48819,7 +48823,7 @@
       </c>
       <c r="AP362" s="115"/>
     </row>
-    <row r="363" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="110" t="s">
         <v>1906</v>
       </c>
@@ -48903,7 +48907,7 @@
       </c>
       <c r="AP363" s="115"/>
     </row>
-    <row r="364" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="110" t="s">
         <v>1907</v>
       </c>
@@ -48987,7 +48991,7 @@
       </c>
       <c r="AP364" s="115"/>
     </row>
-    <row r="365" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="125" t="s">
         <v>1986</v>
       </c>
@@ -49075,7 +49079,7 @@
       </c>
       <c r="AP365" s="115"/>
     </row>
-    <row r="366" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="125" t="s">
         <v>1991</v>
       </c>
@@ -49163,7 +49167,7 @@
       </c>
       <c r="AP366" s="115"/>
     </row>
-    <row r="367" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="125" t="s">
         <v>1992</v>
       </c>
@@ -49251,7 +49255,7 @@
       </c>
       <c r="AP367" s="115"/>
     </row>
-    <row r="368" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="125" t="s">
         <v>1953</v>
       </c>
@@ -49341,7 +49345,7 @@
       </c>
       <c r="AP368" s="115"/>
     </row>
-    <row r="369" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="125" t="s">
         <v>1955</v>
       </c>
@@ -49431,7 +49435,7 @@
       </c>
       <c r="AP369" s="115"/>
     </row>
-    <row r="370" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="125" t="s">
         <v>1959</v>
       </c>
@@ -49521,7 +49525,7 @@
       </c>
       <c r="AP370" s="115"/>
     </row>
-    <row r="371" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="125" t="s">
         <v>1963</v>
       </c>
@@ -49611,7 +49615,7 @@
       </c>
       <c r="AP371" s="115"/>
     </row>
-    <row r="372" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="125" t="s">
         <v>1967</v>
       </c>
@@ -49709,7 +49713,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="373" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="125" t="s">
         <v>1974</v>
       </c>
@@ -49807,7 +49811,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="374" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="125" t="s">
         <v>1975</v>
       </c>
@@ -49905,7 +49909,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="375" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="125" t="s">
         <v>1980</v>
       </c>
@@ -49993,7 +49997,7 @@
       </c>
       <c r="AP375" s="115"/>
     </row>
-    <row r="376" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="125" t="s">
         <v>1984</v>
       </c>
@@ -50081,7 +50085,7 @@
       </c>
       <c r="AP376" s="115"/>
     </row>
-    <row r="377" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="125" t="s">
         <v>1985</v>
       </c>
@@ -50169,7 +50173,7 @@
       </c>
       <c r="AP377" s="115"/>
     </row>
-    <row r="378" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="110" t="s">
         <v>1890</v>
       </c>
@@ -50253,7 +50257,7 @@
       </c>
       <c r="AP378" s="115"/>
     </row>
-    <row r="379" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="110" t="s">
         <v>1895</v>
       </c>
@@ -50337,7 +50341,7 @@
       </c>
       <c r="AP379" s="115"/>
     </row>
-    <row r="380" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="110" t="s">
         <v>1896</v>
       </c>
@@ -50421,7 +50425,7 @@
       </c>
       <c r="AP380" s="115"/>
     </row>
-    <row r="381" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="110" t="s">
         <v>1899</v>
       </c>
@@ -50505,7 +50509,7 @@
       </c>
       <c r="AP381" s="115"/>
     </row>
-    <row r="382" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="110" t="s">
         <v>1908</v>
       </c>
@@ -50589,7 +50593,7 @@
       </c>
       <c r="AP382" s="115"/>
     </row>
-    <row r="383" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="110" t="s">
         <v>1910</v>
       </c>
@@ -50673,7 +50677,7 @@
       </c>
       <c r="AP383" s="115"/>
     </row>
-    <row r="384" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="110" t="s">
         <v>1912</v>
       </c>
@@ -50757,7 +50761,7 @@
       </c>
       <c r="AP384" s="115"/>
     </row>
-    <row r="385" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="110" t="s">
         <v>1914</v>
       </c>
@@ -50841,7 +50845,7 @@
       </c>
       <c r="AP385" s="115"/>
     </row>
-    <row r="386" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="110" t="s">
         <v>1916</v>
       </c>
@@ -50925,7 +50929,7 @@
       </c>
       <c r="AP386" s="115"/>
     </row>
-    <row r="387" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="125" t="s">
         <v>1993</v>
       </c>
@@ -51021,7 +51025,7 @@
       </c>
       <c r="AP387" s="115"/>
     </row>
-    <row r="388" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="125" t="s">
         <v>1999</v>
       </c>
@@ -51117,7 +51121,7 @@
       </c>
       <c r="AP388" s="115"/>
     </row>
-    <row r="389" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="125" t="s">
         <v>2000</v>
       </c>
@@ -51213,7 +51217,7 @@
       </c>
       <c r="AP389" s="115"/>
     </row>
-    <row r="390" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="125" t="s">
         <v>2003</v>
       </c>
@@ -51303,7 +51307,7 @@
       </c>
       <c r="AP390" s="115"/>
     </row>
-    <row r="391" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="125" t="s">
         <v>2007</v>
       </c>
@@ -51393,7 +51397,7 @@
       </c>
       <c r="AP391" s="115"/>
     </row>
-    <row r="392" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="125" t="s">
         <v>2011</v>
       </c>
@@ -51483,7 +51487,7 @@
       </c>
       <c r="AP392" s="115"/>
     </row>
-    <row r="393" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="125" t="s">
         <v>2015</v>
       </c>
@@ -51573,7 +51577,7 @@
       </c>
       <c r="AP393" s="115"/>
     </row>
-    <row r="394" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="125" t="s">
         <v>2019</v>
       </c>
@@ -51663,7 +51667,7 @@
       </c>
       <c r="AP394" s="115"/>
     </row>
-    <row r="395" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="125" t="s">
         <v>2023</v>
       </c>
@@ -51751,7 +51755,7 @@
       </c>
       <c r="AP395" s="115"/>
     </row>
-    <row r="396" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="125" t="s">
         <v>2027</v>
       </c>
@@ -51927,7 +51931,7 @@
       </c>
       <c r="AP397" s="115"/>
     </row>
-    <row r="398" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="125" t="s">
         <v>2036</v>
       </c>
@@ -52025,7 +52029,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="399" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="125" t="s">
         <v>2042</v>
       </c>
@@ -52121,7 +52125,7 @@
       </c>
       <c r="AP399" s="115"/>
     </row>
-    <row r="400" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="125" t="s">
         <v>2043</v>
       </c>
@@ -52217,7 +52221,7 @@
       </c>
       <c r="AP400" s="115"/>
     </row>
-    <row r="401" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="125" t="s">
         <v>2044</v>
       </c>
@@ -52303,7 +52307,7 @@
       <c r="AO401" s="115"/>
       <c r="AP401" s="115"/>
     </row>
-    <row r="402" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="125" t="s">
         <v>2048</v>
       </c>
@@ -52389,7 +52393,7 @@
       <c r="AO402" s="115"/>
       <c r="AP402" s="115"/>
     </row>
-    <row r="403" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="125" t="s">
         <v>2049</v>
       </c>
@@ -52475,7 +52479,7 @@
       <c r="AO403" s="115"/>
       <c r="AP403" s="115"/>
     </row>
-    <row r="404" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="125" t="s">
         <v>1814</v>
       </c>
@@ -52571,7 +52575,7 @@
       </c>
       <c r="AP404" s="115"/>
     </row>
-    <row r="405" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="125" t="s">
         <v>1818</v>
       </c>
@@ -52667,7 +52671,7 @@
       </c>
       <c r="AP405" s="115"/>
     </row>
-    <row r="406" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="125" t="s">
         <v>1822</v>
       </c>
@@ -52763,7 +52767,7 @@
       </c>
       <c r="AP406" s="115"/>
     </row>
-    <row r="407" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="125" t="s">
         <v>1825</v>
       </c>
@@ -52859,7 +52863,7 @@
       </c>
       <c r="AP407" s="115"/>
     </row>
-    <row r="408" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="123" t="s">
         <v>1921</v>
       </c>
@@ -52949,7 +52953,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="409" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="125" t="s">
         <v>1927</v>
       </c>
@@ -53039,7 +53043,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="410" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="125" t="s">
         <v>1806</v>
       </c>
@@ -53135,7 +53139,7 @@
       </c>
       <c r="AP410" s="115"/>
     </row>
-    <row r="411" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="125" t="s">
         <v>1809</v>
       </c>
@@ -53231,7 +53235,7 @@
       </c>
       <c r="AP411" s="115"/>
     </row>
-    <row r="412" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="125" t="s">
         <v>1810</v>
       </c>
@@ -53327,7 +53331,7 @@
       </c>
       <c r="AP412" s="115"/>
     </row>
-    <row r="413" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="125" t="s">
         <v>1813</v>
       </c>
@@ -53423,7 +53427,7 @@
       </c>
       <c r="AP413" s="115"/>
     </row>
-    <row r="414" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="125" t="s">
         <v>1828</v>
       </c>
@@ -53521,7 +53525,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="415" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="125" t="s">
         <v>1831</v>
       </c>
@@ -53619,7 +53623,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="416" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="125" t="s">
         <v>1835</v>
       </c>
@@ -53717,7 +53721,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="417" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="125" t="s">
         <v>1838</v>
       </c>
@@ -53815,7 +53819,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="418" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="125" t="s">
         <v>2029</v>
       </c>
@@ -53903,7 +53907,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="419" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="125" t="s">
         <v>2035</v>
       </c>
@@ -53993,7 +53997,7 @@
     </row>
     <row r="420" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A420" s="125" t="s">
-        <v>2028</v>
+        <v>3793</v>
       </c>
       <c r="B420" s="125" t="s">
         <v>2030</v>
@@ -54079,7 +54083,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="421" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="130" t="s">
         <v>2054</v>
       </c>
@@ -54163,7 +54167,7 @@
       <c r="AO421" s="135"/>
       <c r="AP421" s="130"/>
     </row>
-    <row r="422" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="130" t="s">
         <v>2055</v>
       </c>
@@ -54247,7 +54251,7 @@
       <c r="AO422" s="135"/>
       <c r="AP422" s="130"/>
     </row>
-    <row r="423" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="130" t="s">
         <v>2056</v>
       </c>
@@ -54331,7 +54335,7 @@
       <c r="AO423" s="135"/>
       <c r="AP423" s="130"/>
     </row>
-    <row r="424" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="130" t="s">
         <v>2057</v>
       </c>
@@ -54417,7 +54421,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="425" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="130" t="s">
         <v>2058</v>
       </c>
@@ -54501,7 +54505,7 @@
       <c r="AO425" s="135"/>
       <c r="AP425" s="130"/>
     </row>
-    <row r="426" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="130" t="s">
         <v>2059</v>
       </c>
@@ -54585,7 +54589,7 @@
       <c r="AO426" s="135"/>
       <c r="AP426" s="130"/>
     </row>
-    <row r="427" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="130" t="s">
         <v>2060</v>
       </c>
@@ -54671,7 +54675,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="428" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="130" t="s">
         <v>2061</v>
       </c>
@@ -54757,7 +54761,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="429" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="130" t="s">
         <v>2062</v>
       </c>
@@ -54843,7 +54847,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="430" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="130" t="s">
         <v>2063</v>
       </c>
@@ -54929,7 +54933,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="431" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="130" t="s">
         <v>2064</v>
       </c>
@@ -55013,7 +55017,7 @@
       <c r="AO431" s="135"/>
       <c r="AP431" s="130"/>
     </row>
-    <row r="432" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="130" t="s">
         <v>2065</v>
       </c>
@@ -55097,7 +55101,7 @@
       <c r="AO432" s="135"/>
       <c r="AP432" s="130"/>
     </row>
-    <row r="433" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="130" t="s">
         <v>2066</v>
       </c>
@@ -55181,7 +55185,7 @@
       <c r="AO433" s="135"/>
       <c r="AP433" s="130"/>
     </row>
-    <row r="434" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="130" t="s">
         <v>2067</v>
       </c>
@@ -55265,7 +55269,7 @@
       <c r="AO434" s="135"/>
       <c r="AP434" s="130"/>
     </row>
-    <row r="435" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="130" t="s">
         <v>2068</v>
       </c>
@@ -55351,7 +55355,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="436" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="130" t="s">
         <v>2069</v>
       </c>
@@ -55435,7 +55439,7 @@
       <c r="AO436" s="135"/>
       <c r="AP436" s="130"/>
     </row>
-    <row r="437" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="130" t="s">
         <v>2070</v>
       </c>
@@ -55521,7 +55525,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="438" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="130" t="s">
         <v>2071</v>
       </c>
@@ -55607,7 +55611,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="439" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="130" t="s">
         <v>2072</v>
       </c>
@@ -55689,7 +55693,7 @@
       <c r="AO439" s="135"/>
       <c r="AP439" s="130"/>
     </row>
-    <row r="440" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="130" t="s">
         <v>2073</v>
       </c>
@@ -55771,7 +55775,7 @@
       <c r="AO440" s="135"/>
       <c r="AP440" s="130"/>
     </row>
-    <row r="441" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="130" t="s">
         <v>2074</v>
       </c>
@@ -55853,7 +55857,7 @@
       <c r="AO441" s="135"/>
       <c r="AP441" s="130"/>
     </row>
-    <row r="442" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="130" t="s">
         <v>2075</v>
       </c>
@@ -55935,7 +55939,7 @@
       <c r="AO442" s="135"/>
       <c r="AP442" s="130"/>
     </row>
-    <row r="443" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="130" t="s">
         <v>2076</v>
       </c>
@@ -56017,7 +56021,7 @@
       <c r="AO443" s="135"/>
       <c r="AP443" s="130"/>
     </row>
-    <row r="444" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="130" t="s">
         <v>2077</v>
       </c>
@@ -56099,7 +56103,7 @@
       <c r="AO444" s="135"/>
       <c r="AP444" s="130"/>
     </row>
-    <row r="445" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="130" t="s">
         <v>2078</v>
       </c>
@@ -56181,7 +56185,7 @@
       <c r="AO445" s="135"/>
       <c r="AP445" s="130"/>
     </row>
-    <row r="446" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="130" t="s">
         <v>2079</v>
       </c>
@@ -56263,7 +56267,7 @@
       <c r="AO446" s="135"/>
       <c r="AP446" s="130"/>
     </row>
-    <row r="447" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="130" t="s">
         <v>2080</v>
       </c>
@@ -56347,7 +56351,7 @@
       <c r="AO447" s="135"/>
       <c r="AP447" s="130"/>
     </row>
-    <row r="448" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="130" t="s">
         <v>2081</v>
       </c>
@@ -56431,7 +56435,7 @@
       <c r="AO448" s="135"/>
       <c r="AP448" s="130"/>
     </row>
-    <row r="449" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="130" t="s">
         <v>2082</v>
       </c>
@@ -56513,7 +56517,7 @@
       <c r="AO449" s="135"/>
       <c r="AP449" s="130"/>
     </row>
-    <row r="450" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="130" t="s">
         <v>2083</v>
       </c>
@@ -56595,7 +56599,7 @@
       <c r="AO450" s="135"/>
       <c r="AP450" s="130"/>
     </row>
-    <row r="451" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="130" t="s">
         <v>2084</v>
       </c>
@@ -56677,7 +56681,7 @@
       <c r="AO451" s="135"/>
       <c r="AP451" s="130"/>
     </row>
-    <row r="452" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="130" t="s">
         <v>2085</v>
       </c>
@@ -56759,7 +56763,7 @@
       <c r="AO452" s="135"/>
       <c r="AP452" s="130"/>
     </row>
-    <row r="453" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="130" t="s">
         <v>2086</v>
       </c>
@@ -56841,7 +56845,7 @@
       <c r="AO453" s="135"/>
       <c r="AP453" s="130"/>
     </row>
-    <row r="454" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="130" t="s">
         <v>2087</v>
       </c>
@@ -56923,7 +56927,7 @@
       <c r="AO454" s="135"/>
       <c r="AP454" s="130"/>
     </row>
-    <row r="455" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="130" t="s">
         <v>2088</v>
       </c>
@@ -57005,7 +57009,7 @@
       <c r="AO455" s="135"/>
       <c r="AP455" s="130"/>
     </row>
-    <row r="456" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="130" t="s">
         <v>2089</v>
       </c>
@@ -57087,7 +57091,7 @@
       <c r="AO456" s="135"/>
       <c r="AP456" s="130"/>
     </row>
-    <row r="457" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="130" t="s">
         <v>2090</v>
       </c>
@@ -57169,7 +57173,7 @@
       <c r="AO457" s="135"/>
       <c r="AP457" s="130"/>
     </row>
-    <row r="458" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="130" t="s">
         <v>2091</v>
       </c>
@@ -57251,7 +57255,7 @@
       <c r="AO458" s="135"/>
       <c r="AP458" s="130"/>
     </row>
-    <row r="459" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="130" t="s">
         <v>2092</v>
       </c>
@@ -57333,7 +57337,7 @@
       <c r="AO459" s="135"/>
       <c r="AP459" s="130"/>
     </row>
-    <row r="460" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="130" t="s">
         <v>2093</v>
       </c>
@@ -57415,7 +57419,7 @@
       <c r="AO460" s="135"/>
       <c r="AP460" s="130"/>
     </row>
-    <row r="461" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="130" t="s">
         <v>2094</v>
       </c>
@@ -57497,7 +57501,7 @@
       <c r="AO461" s="135"/>
       <c r="AP461" s="130"/>
     </row>
-    <row r="462" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="130" t="s">
         <v>2095</v>
       </c>
@@ -57579,7 +57583,7 @@
       <c r="AO462" s="135"/>
       <c r="AP462" s="130"/>
     </row>
-    <row r="463" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="130" t="s">
         <v>2096</v>
       </c>
@@ -57661,7 +57665,7 @@
       <c r="AO463" s="135"/>
       <c r="AP463" s="130"/>
     </row>
-    <row r="464" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="130" t="s">
         <v>2097</v>
       </c>
@@ -57743,7 +57747,7 @@
       <c r="AO464" s="135"/>
       <c r="AP464" s="130"/>
     </row>
-    <row r="465" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="130" t="s">
         <v>2098</v>
       </c>
@@ -57825,7 +57829,7 @@
       <c r="AO465" s="135"/>
       <c r="AP465" s="130"/>
     </row>
-    <row r="466" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="130" t="s">
         <v>2099</v>
       </c>
@@ -57907,7 +57911,7 @@
       <c r="AO466" s="135"/>
       <c r="AP466" s="130"/>
     </row>
-    <row r="467" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="130" t="s">
         <v>2100</v>
       </c>
@@ -57989,7 +57993,7 @@
       <c r="AO467" s="135"/>
       <c r="AP467" s="130"/>
     </row>
-    <row r="468" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="130" t="s">
         <v>2101</v>
       </c>
@@ -58071,7 +58075,7 @@
       <c r="AO468" s="135"/>
       <c r="AP468" s="130"/>
     </row>
-    <row r="469" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="130" t="s">
         <v>2102</v>
       </c>
@@ -58153,7 +58157,7 @@
       <c r="AO469" s="135"/>
       <c r="AP469" s="130"/>
     </row>
-    <row r="470" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="130" t="s">
         <v>2103</v>
       </c>
@@ -58235,7 +58239,7 @@
       <c r="AO470" s="135"/>
       <c r="AP470" s="130"/>
     </row>
-    <row r="471" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="130" t="s">
         <v>2104</v>
       </c>
@@ -58317,7 +58321,7 @@
       <c r="AO471" s="135"/>
       <c r="AP471" s="130"/>
     </row>
-    <row r="472" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="130" t="s">
         <v>2105</v>
       </c>
@@ -58399,7 +58403,7 @@
       <c r="AO472" s="135"/>
       <c r="AP472" s="130"/>
     </row>
-    <row r="473" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="130" t="s">
         <v>2106</v>
       </c>
@@ -58481,7 +58485,7 @@
       <c r="AO473" s="135"/>
       <c r="AP473" s="130"/>
     </row>
-    <row r="474" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="130" t="s">
         <v>2107</v>
       </c>
@@ -58563,7 +58567,7 @@
       <c r="AO474" s="135"/>
       <c r="AP474" s="130"/>
     </row>
-    <row r="475" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="130" t="s">
         <v>2108</v>
       </c>
@@ -58645,7 +58649,7 @@
       <c r="AO475" s="135"/>
       <c r="AP475" s="130"/>
     </row>
-    <row r="476" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="130" t="s">
         <v>2109</v>
       </c>
@@ -58727,7 +58731,7 @@
       <c r="AO476" s="135"/>
       <c r="AP476" s="130"/>
     </row>
-    <row r="477" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="130" t="s">
         <v>2110</v>
       </c>
@@ -58809,7 +58813,7 @@
       <c r="AO477" s="135"/>
       <c r="AP477" s="130"/>
     </row>
-    <row r="478" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="130" t="s">
         <v>2111</v>
       </c>
@@ -58891,7 +58895,7 @@
       <c r="AO478" s="135"/>
       <c r="AP478" s="130"/>
     </row>
-    <row r="479" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="130" t="s">
         <v>2112</v>
       </c>
@@ -58973,7 +58977,7 @@
       <c r="AO479" s="135"/>
       <c r="AP479" s="130"/>
     </row>
-    <row r="480" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="130" t="s">
         <v>2113</v>
       </c>
@@ -59055,7 +59059,7 @@
       <c r="AO480" s="135"/>
       <c r="AP480" s="130"/>
     </row>
-    <row r="481" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="130" t="s">
         <v>2114</v>
       </c>
@@ -59137,7 +59141,7 @@
       <c r="AO481" s="135"/>
       <c r="AP481" s="130"/>
     </row>
-    <row r="482" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="130" t="s">
         <v>2115</v>
       </c>
@@ -59219,7 +59223,7 @@
       <c r="AO482" s="135"/>
       <c r="AP482" s="130"/>
     </row>
-    <row r="483" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="130" t="s">
         <v>2116</v>
       </c>
@@ -59301,7 +59305,7 @@
       <c r="AO483" s="135"/>
       <c r="AP483" s="130"/>
     </row>
-    <row r="484" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="130" t="s">
         <v>2117</v>
       </c>
@@ -59383,7 +59387,7 @@
       <c r="AO484" s="135"/>
       <c r="AP484" s="130"/>
     </row>
-    <row r="485" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="130" t="s">
         <v>2118</v>
       </c>
@@ -59465,7 +59469,7 @@
       <c r="AO485" s="135"/>
       <c r="AP485" s="130"/>
     </row>
-    <row r="486" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="130" t="s">
         <v>2119</v>
       </c>
@@ -59547,7 +59551,7 @@
       <c r="AO486" s="135"/>
       <c r="AP486" s="130"/>
     </row>
-    <row r="487" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="130" t="s">
         <v>2120</v>
       </c>
@@ -59629,7 +59633,7 @@
       <c r="AO487" s="135"/>
       <c r="AP487" s="130"/>
     </row>
-    <row r="488" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="130" t="s">
         <v>2121</v>
       </c>
@@ -59711,7 +59715,7 @@
       <c r="AO488" s="135"/>
       <c r="AP488" s="130"/>
     </row>
-    <row r="489" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="130" t="s">
         <v>2122</v>
       </c>
@@ -59793,7 +59797,7 @@
       <c r="AO489" s="135"/>
       <c r="AP489" s="130"/>
     </row>
-    <row r="490" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="130" t="s">
         <v>2123</v>
       </c>
@@ -59875,7 +59879,7 @@
       <c r="AO490" s="135"/>
       <c r="AP490" s="130"/>
     </row>
-    <row r="491" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="130" t="s">
         <v>2124</v>
       </c>
@@ -59957,7 +59961,7 @@
       <c r="AO491" s="135"/>
       <c r="AP491" s="130"/>
     </row>
-    <row r="492" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="130" t="s">
         <v>2125</v>
       </c>
@@ -60039,7 +60043,7 @@
       <c r="AO492" s="135"/>
       <c r="AP492" s="130"/>
     </row>
-    <row r="493" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="130" t="s">
         <v>2126</v>
       </c>
@@ -60121,7 +60125,7 @@
       <c r="AO493" s="135"/>
       <c r="AP493" s="130"/>
     </row>
-    <row r="494" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="130" t="s">
         <v>2127</v>
       </c>
@@ -60203,7 +60207,7 @@
       <c r="AO494" s="135"/>
       <c r="AP494" s="130"/>
     </row>
-    <row r="495" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="130" t="s">
         <v>2128</v>
       </c>
@@ -60285,7 +60289,7 @@
       <c r="AO495" s="135"/>
       <c r="AP495" s="130"/>
     </row>
-    <row r="496" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="130" t="s">
         <v>2129</v>
       </c>
@@ -60367,7 +60371,7 @@
       <c r="AO496" s="135"/>
       <c r="AP496" s="130"/>
     </row>
-    <row r="497" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="130" t="s">
         <v>2130</v>
       </c>
@@ -60449,7 +60453,7 @@
       <c r="AO497" s="135"/>
       <c r="AP497" s="130"/>
     </row>
-    <row r="498" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="130" t="s">
         <v>2131</v>
       </c>
@@ -60531,7 +60535,7 @@
       <c r="AO498" s="135"/>
       <c r="AP498" s="130"/>
     </row>
-    <row r="499" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="130" t="s">
         <v>2132</v>
       </c>
@@ -60615,7 +60619,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="500" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="130" t="s">
         <v>2133</v>
       </c>
@@ -60697,7 +60701,7 @@
       <c r="AO500" s="135"/>
       <c r="AP500" s="130"/>
     </row>
-    <row r="501" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="130" t="s">
         <v>2134</v>
       </c>
@@ -60781,7 +60785,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="502" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="130" t="s">
         <v>2135</v>
       </c>
@@ -60863,7 +60867,7 @@
       <c r="AO502" s="135"/>
       <c r="AP502" s="130"/>
     </row>
-    <row r="503" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="130" t="s">
         <v>2136</v>
       </c>
@@ -60947,7 +60951,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="504" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="130" t="s">
         <v>2137</v>
       </c>
@@ -61031,7 +61035,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="505" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="130" t="s">
         <v>2138</v>
       </c>
@@ -61113,7 +61117,7 @@
       <c r="AO505" s="135"/>
       <c r="AP505" s="130"/>
     </row>
-    <row r="506" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="130" t="s">
         <v>2139</v>
       </c>
@@ -61195,7 +61199,7 @@
       <c r="AO506" s="135"/>
       <c r="AP506" s="130"/>
     </row>
-    <row r="507" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="130" t="s">
         <v>2140</v>
       </c>
@@ -61277,7 +61281,7 @@
       <c r="AO507" s="135"/>
       <c r="AP507" s="130"/>
     </row>
-    <row r="508" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="130" t="s">
         <v>2141</v>
       </c>
@@ -61359,7 +61363,7 @@
       <c r="AO508" s="135"/>
       <c r="AP508" s="130"/>
     </row>
-    <row r="509" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="130" t="s">
         <v>2142</v>
       </c>
@@ -61443,7 +61447,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="510" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="130" t="s">
         <v>2143</v>
       </c>
@@ -61525,7 +61529,7 @@
       <c r="AO510" s="135"/>
       <c r="AP510" s="130"/>
     </row>
-    <row r="511" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="130" t="s">
         <v>2144</v>
       </c>
@@ -61607,7 +61611,7 @@
       <c r="AO511" s="135"/>
       <c r="AP511" s="130"/>
     </row>
-    <row r="512" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="130" t="s">
         <v>2145</v>
       </c>
@@ -61689,7 +61693,7 @@
       <c r="AO512" s="135"/>
       <c r="AP512" s="130"/>
     </row>
-    <row r="513" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="130" t="s">
         <v>2146</v>
       </c>
@@ -61755,7 +61759,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="514" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="130" t="s">
         <v>2147</v>
       </c>
@@ -61837,7 +61841,7 @@
       <c r="AO514" s="135"/>
       <c r="AP514" s="130"/>
     </row>
-    <row r="515" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="130" t="s">
         <v>2148</v>
       </c>
@@ -61903,7 +61907,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="516" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="130" t="s">
         <v>2149</v>
       </c>
@@ -61985,7 +61989,7 @@
       <c r="AO516" s="135"/>
       <c r="AP516" s="130"/>
     </row>
-    <row r="517" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="130" t="s">
         <v>2150</v>
       </c>
@@ -62067,7 +62071,7 @@
       <c r="AO517" s="135"/>
       <c r="AP517" s="130"/>
     </row>
-    <row r="518" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="130" t="s">
         <v>2151</v>
       </c>
@@ -62149,7 +62153,7 @@
       <c r="AO518" s="135"/>
       <c r="AP518" s="130"/>
     </row>
-    <row r="519" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="130" t="s">
         <v>2152</v>
       </c>
@@ -62231,7 +62235,7 @@
       <c r="AO519" s="135"/>
       <c r="AP519" s="130"/>
     </row>
-    <row r="520" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="130" t="s">
         <v>2153</v>
       </c>
@@ -62317,7 +62321,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="521" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="130" t="s">
         <v>2154</v>
       </c>
@@ -62403,7 +62407,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="522" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="130" t="s">
         <v>2155</v>
       </c>
@@ -62489,7 +62493,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="523" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="130" t="s">
         <v>2156</v>
       </c>
@@ -62575,7 +62579,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="524" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="130" t="s">
         <v>2157</v>
       </c>
@@ -62659,7 +62663,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="525" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="130" t="s">
         <v>2158</v>
       </c>
@@ -62743,7 +62747,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="526" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="130" t="s">
         <v>2159</v>
       </c>
@@ -62825,7 +62829,7 @@
       <c r="AO526" s="135"/>
       <c r="AP526" s="130"/>
     </row>
-    <row r="527" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="130" t="s">
         <v>2160</v>
       </c>
@@ -62907,7 +62911,7 @@
       <c r="AO527" s="135"/>
       <c r="AP527" s="130"/>
     </row>
-    <row r="528" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="130" t="s">
         <v>2161</v>
       </c>
@@ -62991,7 +62995,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="529" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="130" t="s">
         <v>2162</v>
       </c>
@@ -63075,7 +63079,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="530" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="130" t="s">
         <v>2163</v>
       </c>
@@ -63157,7 +63161,7 @@
       <c r="AO530" s="135"/>
       <c r="AP530" s="130"/>
     </row>
-    <row r="531" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="130" t="s">
         <v>2164</v>
       </c>
@@ -63239,7 +63243,7 @@
       <c r="AO531" s="135"/>
       <c r="AP531" s="130"/>
     </row>
-    <row r="532" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="130" t="s">
         <v>2165</v>
       </c>
@@ -63323,7 +63327,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="533" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="130" t="s">
         <v>2166</v>
       </c>
@@ -63407,7 +63411,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="534" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="130" t="s">
         <v>2167</v>
       </c>
@@ -63491,7 +63495,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="535" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="130" t="s">
         <v>2168</v>
       </c>
@@ -63575,7 +63579,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="536" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="165" t="s">
         <v>2516</v>
       </c>
@@ -63675,7 +63679,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="537" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="165" t="s">
         <v>2530</v>
       </c>
@@ -63775,7 +63779,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="538" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="165" t="s">
         <v>2535</v>
       </c>
@@ -63875,7 +63879,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="539" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="165" t="s">
         <v>2540</v>
       </c>
@@ -63975,7 +63979,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="540" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="165" t="s">
         <v>2546</v>
       </c>
@@ -64075,7 +64079,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="541" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="165" t="s">
         <v>2551</v>
       </c>
@@ -64175,7 +64179,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="542" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="165" t="s">
         <v>2556</v>
       </c>
@@ -64275,7 +64279,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="543" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="165" t="s">
         <v>2562</v>
       </c>
@@ -64375,7 +64379,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="544" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="165" t="s">
         <v>2567</v>
       </c>
@@ -64475,7 +64479,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="545" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="165" t="s">
         <v>2572</v>
       </c>
@@ -64575,7 +64579,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="546" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="165" t="s">
         <v>2577</v>
       </c>
@@ -64675,7 +64679,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="547" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="169" t="s">
         <v>2582</v>
       </c>
@@ -64775,7 +64779,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="548" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="165" t="s">
         <v>2587</v>
       </c>
@@ -64875,7 +64879,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="549" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="165" t="s">
         <v>2593</v>
       </c>
@@ -64975,7 +64979,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="550" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="165" t="s">
         <v>2598</v>
       </c>
@@ -65075,7 +65079,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="551" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="165" t="s">
         <v>2603</v>
       </c>
@@ -65175,7 +65179,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="552" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="165" t="s">
         <v>2608</v>
       </c>
@@ -65275,7 +65279,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="553" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="165" t="s">
         <v>2613</v>
       </c>
@@ -65375,7 +65379,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="554" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="165" t="s">
         <v>2618</v>
       </c>
@@ -65475,7 +65479,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="555" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="165" t="s">
         <v>2623</v>
       </c>
@@ -65575,7 +65579,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="556" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="165" t="s">
         <v>2628</v>
       </c>
@@ -65675,7 +65679,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="557" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="165" t="s">
         <v>2633</v>
       </c>
@@ -65775,7 +65779,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="558" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="165" t="s">
         <v>2638</v>
       </c>
@@ -65875,7 +65879,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="559" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="169" t="s">
         <v>2643</v>
       </c>
@@ -65975,7 +65979,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="560" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="165" t="s">
         <v>2648</v>
       </c>
@@ -66075,7 +66079,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="561" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="165" t="s">
         <v>2654</v>
       </c>
@@ -66175,7 +66179,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="562" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="165" t="s">
         <v>2659</v>
       </c>
@@ -66275,7 +66279,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="563" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="165" t="s">
         <v>2664</v>
       </c>
@@ -66375,7 +66379,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="564" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="165" t="s">
         <v>2669</v>
       </c>
@@ -66475,7 +66479,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="565" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="165" t="s">
         <v>2674</v>
       </c>
@@ -66575,7 +66579,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="566" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="165" t="s">
         <v>2678</v>
       </c>
@@ -66675,7 +66679,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="567" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="165" t="s">
         <v>2683</v>
       </c>
@@ -66775,7 +66779,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="568" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="165" t="s">
         <v>2688</v>
       </c>
@@ -66875,7 +66879,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="569" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="165" t="s">
         <v>2693</v>
       </c>
@@ -66975,7 +66979,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="570" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="165" t="s">
         <v>2698</v>
       </c>
@@ -67075,7 +67079,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="571" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="169" t="s">
         <v>2703</v>
       </c>
@@ -67175,7 +67179,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="572" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>2708</v>
       </c>
@@ -67275,7 +67279,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="573" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>2714</v>
       </c>
@@ -67375,7 +67379,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="574" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>2719</v>
       </c>
@@ -67475,7 +67479,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="575" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>2724</v>
       </c>
@@ -67575,7 +67579,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="576" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>2729</v>
       </c>
@@ -67675,7 +67679,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="577" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>2734</v>
       </c>
@@ -67775,7 +67779,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="578" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>2739</v>
       </c>
@@ -67875,7 +67879,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="579" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>2744</v>
       </c>
@@ -67975,7 +67979,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="580" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>2749</v>
       </c>
@@ -68075,7 +68079,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="581" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>2754</v>
       </c>
@@ -68175,7 +68179,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="582" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>2759</v>
       </c>
@@ -68275,7 +68279,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="583" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="169" t="s">
         <v>2764</v>
       </c>
@@ -68375,7 +68379,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="584" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>2769</v>
       </c>
@@ -68475,7 +68479,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="585" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>2775</v>
       </c>
@@ -68575,7 +68579,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="586" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>2780</v>
       </c>
@@ -68675,7 +68679,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="587" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>2785</v>
       </c>
@@ -68775,7 +68779,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="588" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>2790</v>
       </c>
@@ -68875,7 +68879,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="589" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>2795</v>
       </c>
@@ -68975,7 +68979,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="590" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>2800</v>
       </c>
@@ -69075,7 +69079,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="591" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>2805</v>
       </c>
@@ -69175,7 +69179,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="592" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>2810</v>
       </c>
@@ -69275,7 +69279,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="593" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>2815</v>
       </c>
@@ -69375,7 +69379,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="594" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>2820</v>
       </c>
@@ -69475,7 +69479,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="595" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="169" t="s">
         <v>2825</v>
       </c>
@@ -69575,7 +69579,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="596" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>2830</v>
       </c>
@@ -69675,7 +69679,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="597" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>2836</v>
       </c>
@@ -69775,7 +69779,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="598" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>2841</v>
       </c>
@@ -69875,7 +69879,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="599" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>2846</v>
       </c>
@@ -69975,7 +69979,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="600" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>2851</v>
       </c>
@@ -70075,7 +70079,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="601" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>2856</v>
       </c>
@@ -70175,7 +70179,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="602" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>2861</v>
       </c>
@@ -70275,7 +70279,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="603" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>2866</v>
       </c>
@@ -70375,7 +70379,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="604" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>2871</v>
       </c>
@@ -70475,7 +70479,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="605" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>2876</v>
       </c>
@@ -70575,7 +70579,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="606" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>2881</v>
       </c>
@@ -70675,7 +70679,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="607" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="169" t="s">
         <v>2886</v>
       </c>
@@ -70775,7 +70779,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="608" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:42" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>3219</v>
       </c>
@@ -70837,7 +70841,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="609" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>3220</v>
       </c>
@@ -70899,7 +70903,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="610" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>3221</v>
       </c>
@@ -70961,7 +70965,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="611" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>3222</v>
       </c>
@@ -71023,7 +71027,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="612" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>3223</v>
       </c>
@@ -71085,7 +71089,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="613" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>3224</v>
       </c>
@@ -71147,7 +71151,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="614" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>3225</v>
       </c>
@@ -71209,7 +71213,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="615" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>3226</v>
       </c>
@@ -71271,7 +71275,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="616" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>3227</v>
       </c>
@@ -71333,7 +71337,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="617" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>3228</v>
       </c>
@@ -71395,7 +71399,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="618" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>3229</v>
       </c>
@@ -71457,7 +71461,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="619" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>3230</v>
       </c>
@@ -71519,7 +71523,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="620" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>3231</v>
       </c>
@@ -71581,7 +71585,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="621" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>3232</v>
       </c>
@@ -71643,7 +71647,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="622" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>3233</v>
       </c>
@@ -71705,7 +71709,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="623" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>3234</v>
       </c>
@@ -71767,7 +71771,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="624" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>3235</v>
       </c>
@@ -71829,7 +71833,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="625" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>3236</v>
       </c>
@@ -71891,7 +71895,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="626" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>3763</v>
       </c>
@@ -71953,7 +71957,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="627" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>3764</v>
       </c>
@@ -72015,7 +72019,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="628" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>3765</v>
       </c>
@@ -72070,7 +72074,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="629" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>3766</v>
       </c>
@@ -72125,7 +72129,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="630" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>3237</v>
       </c>
@@ -72187,7 +72191,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="631" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>3238</v>
       </c>
@@ -72249,7 +72253,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="632" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>3239</v>
       </c>
@@ -72311,7 +72315,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="633" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>3240</v>
       </c>
@@ -72373,7 +72377,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="634" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>3241</v>
       </c>
@@ -72435,7 +72439,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="635" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>3242</v>
       </c>
@@ -72497,7 +72501,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="636" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>3243</v>
       </c>
@@ -72559,7 +72563,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="637" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>3244</v>
       </c>
@@ -72621,7 +72625,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="638" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>3245</v>
       </c>
@@ -72683,7 +72687,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="639" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>3246</v>
       </c>
@@ -72745,7 +72749,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="640" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>3247</v>
       </c>
@@ -72807,7 +72811,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="641" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>3248</v>
       </c>
@@ -72869,7 +72873,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="642" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>3249</v>
       </c>
@@ -72931,7 +72935,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="643" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>3250</v>
       </c>
@@ -72993,7 +72997,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="644" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>3251</v>
       </c>
@@ -73055,7 +73059,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="645" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>3252</v>
       </c>
@@ -73117,7 +73121,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="646" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>3253</v>
       </c>
@@ -73179,7 +73183,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="647" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>3254</v>
       </c>
@@ -73241,7 +73245,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="648" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>3255</v>
       </c>
@@ -73303,7 +73307,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="649" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>3256</v>
       </c>
@@ -73365,7 +73369,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="650" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>3257</v>
       </c>
@@ -73427,7 +73431,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="651" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>3258</v>
       </c>
@@ -73489,7 +73493,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="652" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>3259</v>
       </c>
@@ -73551,7 +73555,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="653" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>3260</v>
       </c>
@@ -73613,7 +73617,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="654" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>3261</v>
       </c>
@@ -73675,7 +73679,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="655" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>3262</v>
       </c>
@@ -73737,7 +73741,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="656" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>3263</v>
       </c>
@@ -73799,7 +73803,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="657" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>3264</v>
       </c>
@@ -73861,7 +73865,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="658" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>3265</v>
       </c>
@@ -73923,7 +73927,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="659" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>3266</v>
       </c>
@@ -73985,7 +73989,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="660" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>3267</v>
       </c>
@@ -74047,7 +74051,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="661" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>3268</v>
       </c>
@@ -74109,7 +74113,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="662" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>3269</v>
       </c>
@@ -74171,7 +74175,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="663" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>3270</v>
       </c>
@@ -74233,7 +74237,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="664" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>3271</v>
       </c>
@@ -74295,7 +74299,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="665" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>3272</v>
       </c>
@@ -74357,7 +74361,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="666" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>3273</v>
       </c>
@@ -74419,7 +74423,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="667" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>3274</v>
       </c>
@@ -74481,7 +74485,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="668" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>3275</v>
       </c>
@@ -74543,7 +74547,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="669" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>3276</v>
       </c>
@@ -74605,7 +74609,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="670" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>3762</v>
       </c>
@@ -74667,7 +74671,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="671" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>3277</v>
       </c>
@@ -74729,7 +74733,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="672" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>3278</v>
       </c>
@@ -74791,7 +74795,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="673" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>3279</v>
       </c>
@@ -74853,7 +74857,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="674" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>3280</v>
       </c>
@@ -74915,7 +74919,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="675" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>3281</v>
       </c>
@@ -74977,7 +74981,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="676" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>3282</v>
       </c>
@@ -75039,7 +75043,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="677" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>3283</v>
       </c>
@@ -75101,7 +75105,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="678" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>3284</v>
       </c>
@@ -75163,7 +75167,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="679" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>3285</v>
       </c>
@@ -75225,7 +75229,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="680" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>3767</v>
       </c>
@@ -75287,7 +75291,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="681" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>3768</v>
       </c>
@@ -75349,7 +75353,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="682" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>3769</v>
       </c>
@@ -75411,7 +75415,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="683" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>3770</v>
       </c>
@@ -75471,7 +75475,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="684" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>3771</v>
       </c>
@@ -75531,7 +75535,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="685" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>3772</v>
       </c>
@@ -75591,7 +75595,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="686" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>3773</v>
       </c>
@@ -75653,7 +75657,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="687" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>3774</v>
       </c>
@@ -75715,7 +75719,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="688" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>3775</v>
       </c>
@@ -75777,7 +75781,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="689" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>3776</v>
       </c>
@@ -75839,7 +75843,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="690" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>3777</v>
       </c>
@@ -75901,7 +75905,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="691" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>3778</v>
       </c>
@@ -75963,7 +75967,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="692" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>3779</v>
       </c>
@@ -76025,7 +76029,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="693" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>3780</v>
       </c>
@@ -76087,7 +76091,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="694" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>3781</v>
       </c>
@@ -76149,7 +76153,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="695" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>3782</v>
       </c>
@@ -76211,7 +76215,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="696" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>3783</v>
       </c>
@@ -76273,7 +76277,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="697" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>3784</v>
       </c>
@@ -76335,7 +76339,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="698" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>3785</v>
       </c>
@@ -76397,7 +76401,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="699" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>3786</v>
       </c>
@@ -76459,7 +76463,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="700" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>3787</v>
       </c>
@@ -76521,7 +76525,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="701" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>3788</v>
       </c>
@@ -76583,7 +76587,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="702" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>3789</v>
       </c>
@@ -76645,7 +76649,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="703" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>3790</v>
       </c>
@@ -76707,7 +76711,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="704" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>3286</v>
       </c>
@@ -76769,7 +76773,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="705" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>3287</v>
       </c>
@@ -76831,7 +76835,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="706" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>3288</v>
       </c>
@@ -76893,7 +76897,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="707" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>3289</v>
       </c>
@@ -76955,7 +76959,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="708" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>3290</v>
       </c>
@@ -77017,7 +77021,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="709" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>3291</v>
       </c>
@@ -77079,7 +77083,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="710" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>3292</v>
       </c>
@@ -77141,7 +77145,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="711" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>3293</v>
       </c>
@@ -77203,7 +77207,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="712" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>3294</v>
       </c>
@@ -77265,7 +77269,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="713" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>3295</v>
       </c>
@@ -77327,7 +77331,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="714" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>3296</v>
       </c>
@@ -77389,7 +77393,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="715" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>3297</v>
       </c>
@@ -77451,7 +77455,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="716" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>3298</v>
       </c>
@@ -77499,7 +77503,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="717" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>3299</v>
       </c>
@@ -77561,7 +77565,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="718" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>3300</v>
       </c>
@@ -77623,7 +77627,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="719" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>3301</v>
       </c>
@@ -77685,7 +77689,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="720" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>3302</v>
       </c>
@@ -77747,7 +77751,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="721" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>3303</v>
       </c>
@@ -77809,7 +77813,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="722" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>3304</v>
       </c>
@@ -77871,7 +77875,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="723" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>3305</v>
       </c>
@@ -77933,7 +77937,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="724" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>3306</v>
       </c>
@@ -77995,7 +77999,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="725" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>3307</v>
       </c>
@@ -78057,7 +78061,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="726" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>3308</v>
       </c>
@@ -78119,7 +78123,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="727" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>3309</v>
       </c>
@@ -78181,7 +78185,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="728" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>3310</v>
       </c>
@@ -78243,7 +78247,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="729" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>3311</v>
       </c>
@@ -78291,7 +78295,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="730" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>3312</v>
       </c>
@@ -78353,7 +78357,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="731" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>3313</v>
       </c>
@@ -78415,7 +78419,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="732" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>3314</v>
       </c>
@@ -78477,7 +78481,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="733" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>3315</v>
       </c>
@@ -78539,7 +78543,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="734" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>3316</v>
       </c>
@@ -78601,7 +78605,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="735" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>3317</v>
       </c>
@@ -78663,7 +78667,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="736" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>3318</v>
       </c>
@@ -78725,7 +78729,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="737" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>3319</v>
       </c>
@@ -78787,7 +78791,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="738" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>3320</v>
       </c>
@@ -78849,7 +78853,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="739" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>3321</v>
       </c>
@@ -78911,7 +78915,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="740" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>3322</v>
       </c>
@@ -78973,7 +78977,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="741" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>3323</v>
       </c>
@@ -79035,7 +79039,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="742" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>3324</v>
       </c>
@@ -79083,7 +79087,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="743" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>3325</v>
       </c>
@@ -79145,7 +79149,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="744" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>3326</v>
       </c>
@@ -79207,7 +79211,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="745" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>3327</v>
       </c>
@@ -79269,7 +79273,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="746" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>3328</v>
       </c>
@@ -79331,7 +79335,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="747" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>3329</v>
       </c>
@@ -79393,7 +79397,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="748" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>3330</v>
       </c>
@@ -79455,7 +79459,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="749" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>3331</v>
       </c>
@@ -79517,7 +79521,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="750" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>3332</v>
       </c>
@@ -79579,7 +79583,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="751" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>3333</v>
       </c>
@@ -79641,7 +79645,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="752" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>3334</v>
       </c>
@@ -79703,7 +79707,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="753" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>3335</v>
       </c>
@@ -79765,7 +79769,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="754" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>3336</v>
       </c>
@@ -79827,7 +79831,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="755" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>3337</v>
       </c>
@@ -79889,7 +79893,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="756" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>3338</v>
       </c>
@@ -79951,7 +79955,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="757" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>3339</v>
       </c>
@@ -80013,7 +80017,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="758" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>3340</v>
       </c>
@@ -80075,7 +80079,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="759" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>3341</v>
       </c>
@@ -80137,7 +80141,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="760" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>3342</v>
       </c>
@@ -80199,7 +80203,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="761" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>3343</v>
       </c>
@@ -80261,7 +80265,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="762" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>3344</v>
       </c>
@@ -80323,7 +80327,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="763" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>3345</v>
       </c>
@@ -80385,7 +80389,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="764" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>3346</v>
       </c>
@@ -80447,7 +80451,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="765" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>3347</v>
       </c>
@@ -80509,7 +80513,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="766" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:40" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>3348</v>
       </c>
@@ -80571,27 +80575,690 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="767" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="V767"/>
       <c r="W767"/>
     </row>
-    <row r="768" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="V768"/>
       <c r="W768"/>
     </row>
-    <row r="769" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="769" spans="22:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="V769"/>
       <c r="W769"/>
     </row>
-    <row r="770" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="770" spans="22:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="V770"/>
       <c r="W770"/>
     </row>
-    <row r="1428" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="771" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="772" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="773" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="774" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="775" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="776" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="777" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="778" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="779" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="780" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="781" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="782" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="783" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="784" spans="22:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="785" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="786" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="787" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="788" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="789" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="790" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="791" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="792" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="793" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="794" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="795" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="796" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="797" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="798" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="799" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="800" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="801" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="802" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="803" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="804" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="805" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="806" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="807" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="808" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="809" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="810" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="811" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="812" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="813" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="814" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="815" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="816" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="817" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="818" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="819" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="820" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="821" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="822" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="823" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="824" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="825" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="826" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="827" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="828" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="829" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="830" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="831" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="832" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="833" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="834" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="835" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="836" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="837" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="838" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="839" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="840" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="841" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="842" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="843" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="844" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="845" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="846" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="847" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="848" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="849" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="850" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="851" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="852" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="853" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="854" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="855" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="856" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="857" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="858" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="859" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="860" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="861" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="862" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="863" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="864" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="865" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="866" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="867" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="868" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="869" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="870" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="871" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="872" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="873" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="874" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="875" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="876" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="877" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="878" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="879" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="880" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="881" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="882" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="883" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="884" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="885" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="886" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="887" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="888" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="889" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="890" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="891" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="892" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="893" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="894" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="895" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="896" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="897" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="898" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="899" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="900" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="901" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="902" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="903" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="904" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="905" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="906" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="907" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="908" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="909" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="910" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="911" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="912" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="913" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="914" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="915" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="916" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="917" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="918" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="919" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="920" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="921" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="922" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="923" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="924" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="925" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="926" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="927" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="928" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="929" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="930" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="931" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="932" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="933" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="934" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="935" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="936" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="937" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="938" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="939" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="940" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="941" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="942" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="943" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="944" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="945" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="946" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="947" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="948" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="949" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="950" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="951" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="952" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="953" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="954" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="955" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="956" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="957" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="958" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="959" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="960" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="961" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="962" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="963" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="964" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="965" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="966" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="967" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="968" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="969" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="970" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="971" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="972" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="973" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="974" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="975" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="976" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="977" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="978" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="979" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="980" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="981" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="982" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="983" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="984" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="985" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="986" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="987" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="988" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="989" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="990" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="991" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="992" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="993" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="994" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="995" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="996" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="997" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="998" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="999" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1026" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1044" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1045" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1046" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1047" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1048" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1049" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1050" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1051" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1052" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1053" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1054" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1055" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1056" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1057" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1058" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1059" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1060" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1061" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1062" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1063" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1064" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1065" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1066" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1067" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1068" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1069" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1070" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1071" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1072" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1073" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1074" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1075" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1076" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1077" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1078" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1079" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1080" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1081" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1082" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1083" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1084" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1085" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1086" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1087" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1088" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1089" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1090" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1091" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1092" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1093" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1094" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1095" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1096" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1097" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1098" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1099" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1100" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1101" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1102" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1103" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1104" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1105" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1106" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1107" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1108" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1109" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1110" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1111" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1112" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1113" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1114" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1115" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1116" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1117" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1118" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1119" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1120" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1121" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1122" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1123" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1124" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1125" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1126" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1128" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1285" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1286" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1287" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1288" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1289" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1290" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1291" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1292" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1293" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1294" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1295" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1296" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1297" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1298" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1299" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1300" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1301" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1302" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1303" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1304" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1305" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1306" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1307" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1308" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1309" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1310" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1311" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1312" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1313" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1314" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1315" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1316" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1317" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1318" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1319" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1320" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1321" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1322" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1323" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1324" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1325" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1326" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1327" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1328" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1329" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1330" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1331" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1332" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1333" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1334" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1335" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1336" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1337" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1338" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1339" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1340" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1341" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1342" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1343" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1344" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1345" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1346" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1347" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1348" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1349" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1350" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1351" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1352" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1353" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1354" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1355" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1356" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1357" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1358" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1359" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1360" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1361" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1362" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1363" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1364" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1365" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1366" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1367" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1368" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1369" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1370" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1371" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1372" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1373" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1374" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1375" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1376" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1377" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1378" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1379" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1380" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1381" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1382" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1383" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1384" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1385" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1386" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1387" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1388" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1389" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1390" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1391" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1392" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1393" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1394" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1395" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1396" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1397" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1398" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1399" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1400" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1401" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1402" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1403" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1404" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1405" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1406" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1407" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1408" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1409" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1410" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1411" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1412" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1413" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1414" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1415" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1416" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1417" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1418" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1419" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1420" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1421" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1422" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1423" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1424" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1425" spans="25:25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1426" spans="25:25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1427" spans="25:25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="1428" spans="25:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="Y1428" s="103"/>
     </row>
   </sheetData>
-  <autoFilter ref="S1:S1428"/>
+  <autoFilter ref="A1:A1428">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SPY192288"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A361:AO420">
     <sortCondition ref="E1"/>
   </sortState>
